--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oriane\Documents\Oriane\Etudes\UU\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2F9DBD41-AAFA-4E91-BD2C-F0DEFF524F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53A7247-3725-4F6D-95DB-E9FE2EEC6C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1890" windowWidth="11340" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10935" yWindow="4110" windowWidth="16350" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Amount</t>
   </si>
@@ -227,6 +226,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pages 1 and 2 not counted, off </t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/081616engo.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 3 not counted </t>
   </si>
 </sst>
 </file>
@@ -277,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -287,9 +292,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -623,7 +625,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -631,7 +633,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
       <c r="B7" t="s">
@@ -858,7 +860,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>4.5</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -960,7 +962,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,18 +1059,24 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oriane\Documents\Oriane\Etudes\UU\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53A7247-3725-4F6D-95DB-E9FE2EEC6C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A40001C-FE20-42A9-A45F-884824D13358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="4110" windowWidth="16350" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>Amount</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t xml:space="preserve">Page 3 not counted </t>
+  </si>
+  <si>
+    <t>Article, contrast</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/081475engo.pdf</t>
   </si>
 </sst>
 </file>
@@ -662,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E267E64-219E-403F-B765-D80F38CD4AF0}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,9 +921,18 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="A23" s="3">
+        <v>6.13</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A574E94-2FF6-47C6-8CD2-D220367DE3D1}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oriane\Documents\Oriane\Etudes\UU\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A40001C-FE20-42A9-A45F-884824D13358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DA74CD-E40A-4585-BF46-45D98322ADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>Amount</t>
   </si>
@@ -238,6 +238,36 @@
   </si>
   <si>
     <t>https://demo.humlab.umu.se/courier/081475engo.pdf</t>
+  </si>
+  <si>
+    <t>2,7,9,12</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/081370engo.pdf</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/081400engo.pdf</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/074977engo.pdf</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/074946engo.pdf</t>
+  </si>
+  <si>
+    <t>Contrast, full article. Whole issue has some trouble when italic font, and with contrast</t>
+  </si>
+  <si>
+    <t>3,5,9,10</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/074184engo.pdf</t>
+  </si>
+  <si>
+    <t>Article</t>
   </si>
 </sst>
 </file>
@@ -669,7 +699,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,20 +962,59 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="A25" s="3">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="A28" s="3">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oriane\Documents\Oriane\Etudes\UU\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DA74CD-E40A-4585-BF46-45D98322ADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371EE29-103C-4491-8DF5-51720A319AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>Amount</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>Article</t>
+  </si>
+  <si>
+    <t>9,16,26</t>
+  </si>
+  <si>
+    <t>Full article, contrasts</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/074055engo.pdf</t>
   </si>
 </sst>
 </file>
@@ -696,10 +705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E267E64-219E-403F-B765-D80F38CD4AF0}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1023,17 @@
       </c>
       <c r="C28" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oriane\Documents\Oriane\Etudes\UU\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7371EE29-103C-4491-8DF5-51720A319AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC954851-8525-4454-A364-168E05442EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15075" yWindow="810" windowWidth="13020" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Non OCRED - OCR Problems" sheetId="2" r:id="rId2"/>
     <sheet name="Pages Off" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Unindexed Article" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!#REF!</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="393">
   <si>
     <t>Amount</t>
   </si>
@@ -277,6 +278,961 @@
   </si>
   <si>
     <t>https://demo.humlab.umu.se/courier/074055engo.pdf</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>courier_id</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>tagged_1947_146744</t>
+  </si>
+  <si>
+    <t>all articles are unindexed</t>
+  </si>
+  <si>
+    <t>tagged_1948_073649</t>
+  </si>
+  <si>
+    <t>1, 6</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Conference sets programme for 1948 + Unesco Programme to Stress Exchange Between Museums</t>
+  </si>
+  <si>
+    <t>tagged_1948_073683</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Amazon Meeting Opens in Peru April 30th, UNINDEXED_ARTICLE: Work of UNESCO Important to latin american countries</t>
+  </si>
+  <si>
+    <t>tagged_1948_073713</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: UNESCO outlines views at UN meetings on free information</t>
+  </si>
+  <si>
+    <t>tagged_1948_073741</t>
+  </si>
+  <si>
+    <t>### 73765: Caracas: educational problems in South America continues on 5. ### UNINDEXED_ARTICLE: 3000 USDelegates to meet this month</t>
+  </si>
+  <si>
+    <t>tagged_1948_073774</t>
+  </si>
+  <si>
+    <t>1,2, 4,5</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: UN to be seminar theme at Adelphi College. ### UNINDEXED_ARTICLE: Hylean Amazon Institute Created</t>
+  </si>
+  <si>
+    <t>tagged_1948_073790</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: International theater institute formed in prague. ### 74503: Museum directors gather at first World Conference continues on 3</t>
+  </si>
+  <si>
+    <t>tagged_1948_073809</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Study teaching for a world society. Need new look at page 2</t>
+  </si>
+  <si>
+    <t>tagged_1948_073829</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. ### UNINDEXED_ARTICLE: Unesco conference holds special session. 
+### 73842: Agencies stress role of travel fellowshipsand ### 73839: UNESCO-UN: teamwork embraces five continents continue  on 5.### 73836: Pragmatic viewpoints on human rights, 
+### 73835: Orient - Occident cultural co-operation stressed and ### 73830: University problems viewed at Utrecht Congress continue on 6. ### 73832: Scientists create World Mental Health Federation continues on 7. ### 73834: Book Coupon Scheme experiment under way continues on 8</t>
+  </si>
+  <si>
+    <t>tagged_1948_073850</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. ### UNINDEXED_ARTICLE: Beirut prepares to receive unesco conference</t>
+  </si>
+  <si>
+    <t>tagged_1948_073867</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Conference opens in Lebanon November 17th. ### UNINDEXED_ARTICLE: What the delegates will discuss in Beirut</t>
+  </si>
+  <si>
+    <t>tagged_1949_073938</t>
+  </si>
+  <si>
+    <t>9-11,12</t>
+  </si>
+  <si>
+    <t>### 73948: The Mission of UNESCO is not on page 1, 2, 3, 4
+### UNINDEXED_ARTICLE: The mission of UNESCO: 9-11
+### UNINDEXED_ARTICLE: Torres Bodet's Sorbonne Address On Declaration of Human Rights</t>
+  </si>
+  <si>
+    <t>tagged_1949_073956</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: UNESCO can aid UN plan for under-developed areas, torres bodet says</t>
+  </si>
+  <si>
+    <t>tagged_1949_073970</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. 
+### 73976: Summer camp for war orphans to open in France is on 4, not 3. 
+### 73978: India in the world today name of the supplement including different articles. Not on 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>tagged_1949_073993</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: $85,000,000 Proposed by UN for Technical Development Plan. 
+### 74002: The Rebirth of a valley: how the peasants of Marbial helped make the Haiti Pilot Project a success not on 6-9 (well, it's a supplement, composed of smaller articles). 
+### 74003: The Story of the Haiti 'Pilot Project' continues on 8</t>
+  </si>
+  <si>
+    <t>tagged_1949_074130</t>
+  </si>
+  <si>
+    <t>### 74134: Les chapitres du budget is not on page 3. 
+### 74143: L'action culturelle et spirituelle est liée au pouvoir politique et militaire linked to no article? 
+### 74146: Un étendard international pour les écoles ! Is on 6, not 7. Same for 
+### 74141: La sensibilité humaine
+### 74142: Désarmement moral is on 7, not 6. 
+### UNINDEXED_ARTICLE: The brotherood of nation</t>
+  </si>
+  <si>
+    <t>tagged_1949_074184</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. 
+### 74193: Educators must help establish "techniques of peace" not OCRed</t>
+  </si>
+  <si>
+    <t>tagged_1950_074946</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: The will to peace. 
+### 74217: L'UNESCO définit les bases de sa coopération avec les Organisations régionales is not on page 3. 
+### 74218: Great Unescan becomes head of Executive Board not OCRed. ### 74224: World task seen through eyes of youth not OCRed. ### 74230: La Déclaration des droits de la femme à l'éducation et à la culture prend le sens d'un appel bad OCR. Page 10 bad OCR</t>
+  </si>
+  <si>
+    <t>tagged_1950_081370</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. 
+### 74331: The World laughs at different things continues on 7</t>
+  </si>
+  <si>
+    <t>tagged_1950_081400</t>
+  </si>
+  <si>
+    <t>1, 10</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. Page 3 some text not OCRed. 1 and 10: Humanity is under no compulsion to abdicate</t>
+  </si>
+  <si>
+    <t>tagged_1950_081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of small articles, unclear if unindexed or not. </t>
+  </si>
+  <si>
+    <t>tagged_1950_081564</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not</t>
+  </si>
+  <si>
+    <t>tagged_1951_071298</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE</t>
+  </si>
+  <si>
+    <t>tagged_1951_072098</t>
+  </si>
+  <si>
+    <t>Articles without author? Unindexed or not?</t>
+  </si>
+  <si>
+    <t>tagged_1951_073516</t>
+  </si>
+  <si>
+    <t>tagged_1951_073537</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Problems of sub-continent</t>
+  </si>
+  <si>
+    <t>tagged_1951_073557</t>
+  </si>
+  <si>
+    <t>7 to 11</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Patzucaro</t>
+  </si>
+  <si>
+    <t>tagged_1951_074639</t>
+  </si>
+  <si>
+    <t>UNINDEXED_ARTICLES</t>
+  </si>
+  <si>
+    <t>tagged_1956_068941</t>
+  </si>
+  <si>
+    <t>With these two hands non indexed</t>
+  </si>
+  <si>
+    <t>tagged_1957_067218</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>Article about a woman's life non indexed. In the article title file, there is a part 2 for this article in another issue of Courier</t>
+  </si>
+  <si>
+    <t>tagged_1957_067562</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>Non-indexed article, Great Littérature of East and West</t>
+  </si>
+  <si>
+    <t>tagged_1957_067956</t>
+  </si>
+  <si>
+    <t>4 to 15</t>
+  </si>
+  <si>
+    <t>Non-indexed article on Comenius. Text non OCRed p.31</t>
+  </si>
+  <si>
+    <t>tagged_1958_066142</t>
+  </si>
+  <si>
+    <t>8, 14-24</t>
+  </si>
+  <si>
+    <t>Young artists in Paris non indexed, Schools for Gypsies non indexed</t>
+  </si>
+  <si>
+    <t>tagged_1958_066182</t>
+  </si>
+  <si>
+    <t>4 to 7</t>
+  </si>
+  <si>
+    <t>Ten years of progress non-indexed. Text non-OCRed p.4-5</t>
+  </si>
+  <si>
+    <t>tagged_1958_066222</t>
+  </si>
+  <si>
+    <t>14-24</t>
+  </si>
+  <si>
+    <t>Masterworks of Japan's Stone Age Art non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1958_066244</t>
+  </si>
+  <si>
+    <t>14-19</t>
+  </si>
+  <si>
+    <t>From the neck up unindexed</t>
+  </si>
+  <si>
+    <t>tagged_1958_066651</t>
+  </si>
+  <si>
+    <t>10,11,23,24,25,26.31</t>
+  </si>
+  <si>
+    <t>This issue has lots of small articles that are not indexed. I'm unsure of how to treat this issue as some are very small, and it is unclear if they belong to the article before or not</t>
+  </si>
+  <si>
+    <t>tagged_1959_064895</t>
+  </si>
+  <si>
+    <t>14,16,17</t>
+  </si>
+  <si>
+    <t>Birth of an island non indexed</t>
+  </si>
+  <si>
+    <t>tagged_1959_065221</t>
+  </si>
+  <si>
+    <t>10 to 20</t>
+  </si>
+  <si>
+    <t>Article about film making non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1959_065278</t>
+  </si>
+  <si>
+    <t>Article about Rotterdam non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1959_066059</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>40 years fo struggle on behalf os social justice non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1959_066107</t>
+  </si>
+  <si>
+    <t>18 to 23</t>
+  </si>
+  <si>
+    <t>Liliput Paris non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1961_063808</t>
+  </si>
+  <si>
+    <t>4-7,12,13</t>
+  </si>
+  <si>
+    <t>REBIRTH OF A SHATTERED CITY non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1961_063847</t>
+  </si>
+  <si>
+    <t>4 to 13</t>
+  </si>
+  <si>
+    <t>Article on André Maurois and libraries non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1961_064092</t>
+  </si>
+  <si>
+    <t>4 to 23</t>
+  </si>
+  <si>
+    <t>Double edition. Art in the life of man non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1961_064240</t>
+  </si>
+  <si>
+    <t>Article on Abu Simbel non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1961_064255</t>
+  </si>
+  <si>
+    <t>12 to 17</t>
+  </si>
+  <si>
+    <t>Crisis in Anthropology non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1962_063456</t>
+  </si>
+  <si>
+    <t>9 to 14</t>
+  </si>
+  <si>
+    <t>International land of science non-indexed. Page 15 missing. What to do?</t>
+  </si>
+  <si>
+    <t>tagged_1962_063659</t>
+  </si>
+  <si>
+    <t>4 to 9</t>
+  </si>
+  <si>
+    <t>Nature's hidden languages of smell non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1963_062672</t>
+  </si>
+  <si>
+    <t>A study in ignorance and prejudice non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1963_063381</t>
+  </si>
+  <si>
+    <t>12 to 14</t>
+  </si>
+  <si>
+    <t>Stanislavsky revolutionary of the modern theatre non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1964_061386</t>
+  </si>
+  <si>
+    <t>15 to 19</t>
+  </si>
+  <si>
+    <t>Article about lasers non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1964_061468</t>
+  </si>
+  <si>
+    <t>The art of writing non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1964_061952</t>
+  </si>
+  <si>
+    <t>24-28,30</t>
+  </si>
+  <si>
+    <t>### 61951: The London that was Shakespeare's starts on 14. Galileo Galilei: a new vision of the universe non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1965_031600</t>
+  </si>
+  <si>
+    <t>5-8, 32</t>
+  </si>
+  <si>
+    <t>Science and the common man non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1965_060488</t>
+  </si>
+  <si>
+    <t>4 to 11</t>
+  </si>
+  <si>
+    <t>My first steps in space non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1965_060510</t>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+  </si>
+  <si>
+    <t>Youth with a purpose non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1965_060619</t>
+  </si>
+  <si>
+    <t>4 to 10</t>
+  </si>
+  <si>
+    <t>Revolution in books non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1966_012656</t>
+  </si>
+  <si>
+    <t>5,6,9,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fair deal for the teacher non-indexed </t>
+  </si>
+  <si>
+    <t>tagged_1966_014256</t>
+  </si>
+  <si>
+    <t>23,25,26,31</t>
+  </si>
+  <si>
+    <t>The roots of peace non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1966_016653</t>
+  </si>
+  <si>
+    <t>Ayutya venic of south asia non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1966_020805</t>
+  </si>
+  <si>
+    <t>17-23</t>
+  </si>
+  <si>
+    <t>Global assault on the weather non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1966_028352</t>
+  </si>
+  <si>
+    <t>Man and Space A great international venture non-indexed. ### 29916: Space flight and the rule of law continues on 35</t>
+  </si>
+  <si>
+    <t>tagged_1966_032667</t>
+  </si>
+  <si>
+    <t>16-21</t>
+  </si>
+  <si>
+    <t>Masterpieces from a lost kingdom non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1966_033144</t>
+  </si>
+  <si>
+    <t>Unesco's 20 years non-indexed. ### 6980: Peace begins in the minds of men Continues on 48-49. ### 9917: How youngsters see UNESCO Continues on 59</t>
+  </si>
+  <si>
+    <t>tagged_1967_059683</t>
+  </si>
+  <si>
+    <t>10 to 13</t>
+  </si>
+  <si>
+    <t>Expo 67 the world of a thousand acres non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1968_058803</t>
+  </si>
+  <si>
+    <t>Health in the world of tomorrow non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1968_058953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The abuse of drugs a growing menace not indexed </t>
+  </si>
+  <si>
+    <t>tagged_1968_059301</t>
+  </si>
+  <si>
+    <t>Human rights... Tomorrow non-indexed</t>
+  </si>
+  <si>
+    <t>tagged_1968_078431</t>
+  </si>
+  <si>
+    <t>Great men great events unindexed, usually considered an article</t>
+  </si>
+  <si>
+    <t>tagged_1971_053853</t>
+  </si>
+  <si>
+    <t>### 53854: Seasons of the mind is an extremely long article with sub-articles. Those are not indexed, everything under main article</t>
+  </si>
+  <si>
+    <t>tagged_1977_074816</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE? Unesco's role in alerting world opinion p.27</t>
+  </si>
+  <si>
+    <t>tagged_1980_074755</t>
+  </si>
+  <si>
+    <t>32-34, 39-45</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Highlights of the archeological expeditions . 
+### 40934: Sermons in stones: the musings of a modern Egyptian poet before the temples of Abu Simbel continues on 61. ### 40926: Nubia unearthed: from prehistory to Pharaonic times continues on 70</t>
+  </si>
+  <si>
+    <t>tagged_1980_074756</t>
+  </si>
+  <si>
+    <t>4 to 6</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Man belongs to the earth. ### UNINDEXED_SUPPLEMENT</t>
+  </si>
+  <si>
+    <t>tagged_1980_074758</t>
+  </si>
+  <si>
+    <t>### 366755: Address by His Holiness Pope John Paul II ... Is ONLY on page 9. ### UNINDEXED_ARTICLE: Nine  award-winning campaigns. ### UNINDEXED_SUPPLEMENT</t>
+  </si>
+  <si>
+    <t>tagged_1986_068421</t>
+  </si>
+  <si>
+    <t>30 to 37</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Treasures of Mongolia</t>
+  </si>
+  <si>
+    <t>tagged_1989_083185</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_SUPPLEMENT at the beginning. The pages are all +1 from there</t>
+  </si>
+  <si>
+    <t>tagged_1991_089116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### UNINDEXED_ARTICLE: The United Nations Convention on the Law of the Sea </t>
+  </si>
+  <si>
+    <t>tagged_1992_092021</t>
+  </si>
+  <si>
+    <t>40-41</t>
+  </si>
+  <si>
+    <t>UNINDEXED ARTICLE: Interview with Francesco di Castri</t>
+  </si>
+  <si>
+    <t>tagged_1992_093019</t>
+  </si>
+  <si>
+    <t>26-27, 28-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2 ### UNINDEXED_ARTICLE in Greenwatch: The salt of earth, sun wind and fire. And: Puerto Rico saves its treasures</t>
+  </si>
+  <si>
+    <t>tagged_1993_093364</t>
+  </si>
+  <si>
+    <t>9, 28-29, 30-31</t>
+  </si>
+  <si>
+    <t>###UNINDEXED_ARTICLE: From here to infinity. 
+### 93356: Face to face with infinity is not on page 25-32. 
+### UNINDEXED_ARTICLE: A good word for paper ### UNINDEXED_ARTICLE: In western Keny</t>
+  </si>
+  <si>
+    <t>tagged_1993_093670</t>
+  </si>
+  <si>
+    <t>tagged_1993_093750</t>
+  </si>
+  <si>
+    <t>tagged_1994_096815</t>
+  </si>
+  <si>
+    <t>tagged_1994_096900</t>
+  </si>
+  <si>
+    <t>tagged_1994_096934</t>
+  </si>
+  <si>
+    <t>tagged_1994_097246</t>
+  </si>
+  <si>
+    <t>tagged_1994_098006</t>
+  </si>
+  <si>
+    <t>tagged_1994_099251</t>
+  </si>
+  <si>
+    <t>tagged_1996_102622</t>
+  </si>
+  <si>
+    <t>tagged_1998_112488</t>
+  </si>
+  <si>
+    <t>tagged_2002_125736</t>
+  </si>
+  <si>
+    <t>tagged_2002_127885</t>
+  </si>
+  <si>
+    <t>tagged_2003_130036</t>
+  </si>
+  <si>
+    <t>tagged_2004_137745</t>
+  </si>
+  <si>
+    <t>tagged_2004_138446</t>
+  </si>
+  <si>
+    <t>tagged_2005_139497</t>
+  </si>
+  <si>
+    <t>tagged_2006_191579</t>
+  </si>
+  <si>
+    <t>tagged_2006_191580</t>
+  </si>
+  <si>
+    <t>tagged_2008_162430</t>
+  </si>
+  <si>
+    <t>tagged_2008_163541</t>
+  </si>
+  <si>
+    <t>tagged_2008_189457</t>
+  </si>
+  <si>
+    <t>tagged_2011_191443</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
+  </si>
+  <si>
+    <t>tagged_2019_370977</t>
+  </si>
+  <si>
+    <t>tagged_2020_372603</t>
+  </si>
+  <si>
+    <t>tagged_2020_373788</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>author_country</t>
+  </si>
+  <si>
+    <t>Article page 4, 
+### 73696: UNESCO and national cooperation</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/073683engo.pdf</t>
+  </si>
+  <si>
+    <t>Zhai Yongming</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Women's writing: Illumnating the darkness</t>
+  </si>
+  <si>
+    <t>Emma Rodero</t>
+  </si>
+  <si>
+    <t>A voice you can't see</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Lyne Fréchet</t>
+  </si>
+  <si>
+    <t>A second-chance school in Montreal</t>
+  </si>
+  <si>
+    <t>Interview by Laura Martel, Interviewee Aminetou Mint El Moctar</t>
+  </si>
+  <si>
+    <t>Crime without punishment</t>
+  </si>
+  <si>
+    <t>Down through the year</t>
+  </si>
+  <si>
+    <t>No author, look back through the years</t>
+  </si>
+  <si>
+    <t>Laura Martel, Aminetou Mint El Moctar</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>France, Mauritania</t>
+  </si>
+  <si>
+    <t>47,48,49</t>
+  </si>
+  <si>
+    <t>Education: The other global emergency</t>
+  </si>
+  <si>
+    <t>Taken from another issue of Courier</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Christina Cameron</t>
+  </si>
+  <si>
+    <t>A permanent challenge</t>
+  </si>
+  <si>
+    <t>19,20,21</t>
+  </si>
+  <si>
+    <t>The people who made history dance</t>
+  </si>
+  <si>
+    <t>16,17,18</t>
+  </si>
+  <si>
+    <t>Stop "fast food information"</t>
+  </si>
+  <si>
+    <t>José Banaag</t>
+  </si>
+  <si>
+    <t>The Courier looks back</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Agnès Bardon</t>
+  </si>
+  <si>
+    <t>Projecting the planet into the future</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>The slave trade: a peculiar cultural odyssey</t>
+  </si>
+  <si>
+    <t>Jasmina Šopova</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>27,28,29,30,31</t>
+  </si>
+  <si>
+    <t>Not really an article, but usually indexed as an article in the previous issues</t>
+  </si>
+  <si>
+    <t>28,29,30,31,32</t>
+  </si>
+  <si>
+    <t>Education: a vaccine for HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Literacy for a better world</t>
+  </si>
+  <si>
+    <t>Brendan O'Malley</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>38-63</t>
+  </si>
+  <si>
+    <t>Afghanistan: A nation at the crossroads</t>
+  </si>
+  <si>
+    <t>Made of multiple smaller articles</t>
+  </si>
+  <si>
+    <t>John Lawton</t>
+  </si>
+  <si>
+    <t>Cubes and spheres</t>
+  </si>
+  <si>
+    <t>Young people rally to fight AIDS</t>
+  </si>
+  <si>
+    <t>Decrypting the future</t>
+  </si>
+  <si>
+    <t>38-59</t>
+  </si>
+  <si>
+    <t>Jérôme Bindé</t>
+  </si>
+  <si>
+    <t>Curbing the mighty shrimp</t>
+  </si>
+  <si>
+    <t>From Chile, a $50-million crop</t>
+  </si>
+  <si>
+    <t>C. L'H.T., G.C.</t>
+  </si>
+  <si>
+    <t>G.B.T.</t>
+  </si>
+  <si>
+    <t>Frederico Mayor</t>
+  </si>
+  <si>
+    <t>Appeal by the director-general of UNESCO for the continuation of the peace process in the Middle East</t>
+  </si>
+  <si>
+    <t>Melina's last battle</t>
+  </si>
+  <si>
+    <t>E.J.M.</t>
+  </si>
+  <si>
+    <t>Book article, indexed as it was indexed before</t>
+  </si>
+  <si>
+    <t>A fresh look at the past</t>
+  </si>
+  <si>
+    <t>Christophe Wondji</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Books of the world: here comes the sun</t>
+  </si>
+  <si>
+    <t>Raoul Silva-Cacérès</t>
+  </si>
+  <si>
+    <t>Books of the world: one girl's war</t>
+  </si>
+  <si>
+    <t>J.S.</t>
+  </si>
+  <si>
+    <t>Books of the world</t>
+  </si>
+  <si>
+    <t>Calum Wise</t>
+  </si>
+  <si>
+    <t>Edgar Reichmann</t>
+  </si>
+  <si>
+    <t>Don Juan and the quest for the absolute</t>
+  </si>
+  <si>
+    <t>Zeina Arida</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>An atlas of world literature</t>
   </si>
 </sst>
 </file>
@@ -327,7 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -340,6 +1296,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -624,7 +1587,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +1602,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -671,7 +1634,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -679,7 +1642,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -705,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E267E64-219E-403F-B765-D80F38CD4AF0}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,6 +1997,17 @@
       </c>
       <c r="C29" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1220,6 +2194,2143 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B859A92C-6D7D-4DD0-96D5-DBEDC18D3419}">
+  <dimension ref="A1:H113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="89" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1947</v>
+      </c>
+      <c r="B2">
+        <v>146744</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="H2" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1948</v>
+      </c>
+      <c r="B3">
+        <v>73649</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1948</v>
+      </c>
+      <c r="B4">
+        <v>73683</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1948</v>
+      </c>
+      <c r="B5">
+        <v>73713</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1948</v>
+      </c>
+      <c r="B6">
+        <v>73741</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1948</v>
+      </c>
+      <c r="B7">
+        <v>73774</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1948</v>
+      </c>
+      <c r="B8">
+        <v>73790</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1948</v>
+      </c>
+      <c r="B9">
+        <v>73809</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1948</v>
+      </c>
+      <c r="B10">
+        <v>73829</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="H10" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1948</v>
+      </c>
+      <c r="B11">
+        <v>73850</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="H11" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1948</v>
+      </c>
+      <c r="B12">
+        <v>73867</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1949</v>
+      </c>
+      <c r="B13">
+        <v>73938</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1949</v>
+      </c>
+      <c r="B14">
+        <v>73956</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1949</v>
+      </c>
+      <c r="B15">
+        <v>73970</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="H15" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1949</v>
+      </c>
+      <c r="B16">
+        <v>73993</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1949</v>
+      </c>
+      <c r="B17">
+        <v>74130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1949</v>
+      </c>
+      <c r="B18">
+        <v>74184</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1950</v>
+      </c>
+      <c r="B19">
+        <v>74946</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="H19" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1950</v>
+      </c>
+      <c r="B20">
+        <v>81370</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="H20" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1950</v>
+      </c>
+      <c r="B21">
+        <v>81400</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1950</v>
+      </c>
+      <c r="B22">
+        <v>81543</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="H22" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1950</v>
+      </c>
+      <c r="B23">
+        <v>81564</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="H23" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1951</v>
+      </c>
+      <c r="B24">
+        <v>71298</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1951</v>
+      </c>
+      <c r="B25">
+        <v>72098</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="H25" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1951</v>
+      </c>
+      <c r="B26">
+        <v>73516</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1951</v>
+      </c>
+      <c r="B27">
+        <v>73537</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1951</v>
+      </c>
+      <c r="B28">
+        <v>73557</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1951</v>
+      </c>
+      <c r="B29">
+        <v>74639</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="H29" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1956</v>
+      </c>
+      <c r="B30">
+        <v>68941</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1957</v>
+      </c>
+      <c r="B31">
+        <v>67218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1957</v>
+      </c>
+      <c r="B32">
+        <v>67562</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1957</v>
+      </c>
+      <c r="B33">
+        <v>67956</v>
+      </c>
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1958</v>
+      </c>
+      <c r="B34">
+        <v>66142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1958</v>
+      </c>
+      <c r="B35">
+        <v>66182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1958</v>
+      </c>
+      <c r="B36">
+        <v>66222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1958</v>
+      </c>
+      <c r="B37">
+        <v>66244</v>
+      </c>
+      <c r="C37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1958</v>
+      </c>
+      <c r="B38">
+        <v>66651</v>
+      </c>
+      <c r="C38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1959</v>
+      </c>
+      <c r="B39">
+        <v>64895</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1959</v>
+      </c>
+      <c r="B40">
+        <v>65221</v>
+      </c>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1959</v>
+      </c>
+      <c r="B41">
+        <v>65278</v>
+      </c>
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1959</v>
+      </c>
+      <c r="B42">
+        <v>66059</v>
+      </c>
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1959</v>
+      </c>
+      <c r="B43">
+        <v>66107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1961</v>
+      </c>
+      <c r="B44">
+        <v>63808</v>
+      </c>
+      <c r="C44" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1961</v>
+      </c>
+      <c r="B45">
+        <v>63847</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1961</v>
+      </c>
+      <c r="B46">
+        <v>64092</v>
+      </c>
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1961</v>
+      </c>
+      <c r="B47">
+        <v>64240</v>
+      </c>
+      <c r="C47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1961</v>
+      </c>
+      <c r="B48">
+        <v>64255</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1962</v>
+      </c>
+      <c r="B49">
+        <v>63456</v>
+      </c>
+      <c r="C49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1962</v>
+      </c>
+      <c r="B50">
+        <v>63659</v>
+      </c>
+      <c r="C50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1963</v>
+      </c>
+      <c r="B51">
+        <v>62672</v>
+      </c>
+      <c r="C51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1963</v>
+      </c>
+      <c r="B52">
+        <v>63381</v>
+      </c>
+      <c r="C52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1964</v>
+      </c>
+      <c r="B53">
+        <v>61386</v>
+      </c>
+      <c r="C53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1964</v>
+      </c>
+      <c r="B54">
+        <v>61468</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1964</v>
+      </c>
+      <c r="B55">
+        <v>61952</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1965</v>
+      </c>
+      <c r="B56">
+        <v>31600</v>
+      </c>
+      <c r="C56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1965</v>
+      </c>
+      <c r="B57">
+        <v>60488</v>
+      </c>
+      <c r="C57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1965</v>
+      </c>
+      <c r="B58">
+        <v>60510</v>
+      </c>
+      <c r="C58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1965</v>
+      </c>
+      <c r="B59">
+        <v>60619</v>
+      </c>
+      <c r="C59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1966</v>
+      </c>
+      <c r="B60">
+        <v>12656</v>
+      </c>
+      <c r="C60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1966</v>
+      </c>
+      <c r="B61">
+        <v>14256</v>
+      </c>
+      <c r="C61" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1966</v>
+      </c>
+      <c r="B62">
+        <v>16653</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1966</v>
+      </c>
+      <c r="B63">
+        <v>20805</v>
+      </c>
+      <c r="C63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1966</v>
+      </c>
+      <c r="B64">
+        <v>28352</v>
+      </c>
+      <c r="C64" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1966</v>
+      </c>
+      <c r="B65">
+        <v>32667</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1966</v>
+      </c>
+      <c r="B66">
+        <v>33144</v>
+      </c>
+      <c r="C66" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1967</v>
+      </c>
+      <c r="B67">
+        <v>59683</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1968</v>
+      </c>
+      <c r="B68">
+        <v>58803</v>
+      </c>
+      <c r="C68" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1968</v>
+      </c>
+      <c r="B69">
+        <v>58953</v>
+      </c>
+      <c r="C69" t="s">
+        <v>253</v>
+      </c>
+      <c r="D69" s="3">
+        <v>5</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1968</v>
+      </c>
+      <c r="B70">
+        <v>59301</v>
+      </c>
+      <c r="C70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1968</v>
+      </c>
+      <c r="B71">
+        <v>78431</v>
+      </c>
+      <c r="C71" t="s">
+        <v>257</v>
+      </c>
+      <c r="D71" s="3">
+        <v>36</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1971</v>
+      </c>
+      <c r="B72">
+        <v>53853</v>
+      </c>
+      <c r="C72" t="s">
+        <v>259</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="H72" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1977</v>
+      </c>
+      <c r="B73">
+        <v>74816</v>
+      </c>
+      <c r="C73" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="H73" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1980</v>
+      </c>
+      <c r="B74">
+        <v>74755</v>
+      </c>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1980</v>
+      </c>
+      <c r="B75">
+        <v>74756</v>
+      </c>
+      <c r="C75" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1980</v>
+      </c>
+      <c r="B76">
+        <v>74758</v>
+      </c>
+      <c r="C76" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1986</v>
+      </c>
+      <c r="B77">
+        <v>68421</v>
+      </c>
+      <c r="C77" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1989</v>
+      </c>
+      <c r="B78">
+        <v>83185</v>
+      </c>
+      <c r="C78" t="s">
+        <v>274</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="H78" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1991</v>
+      </c>
+      <c r="B79">
+        <v>89116</v>
+      </c>
+      <c r="C79" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" s="3">
+        <v>53</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1992</v>
+      </c>
+      <c r="B80">
+        <v>92021</v>
+      </c>
+      <c r="C80" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1992</v>
+      </c>
+      <c r="B81">
+        <v>93019</v>
+      </c>
+      <c r="C81" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1993</v>
+      </c>
+      <c r="B82">
+        <v>93364</v>
+      </c>
+      <c r="C82" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1993</v>
+      </c>
+      <c r="B83">
+        <v>93670</v>
+      </c>
+      <c r="C83" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="3">
+        <v>50</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F83" t="s">
+        <v>388</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1993</v>
+      </c>
+      <c r="B84">
+        <v>93750</v>
+      </c>
+      <c r="C84" t="s">
+        <v>288</v>
+      </c>
+      <c r="D84" s="3">
+        <v>19</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F84" t="s">
+        <v>390</v>
+      </c>
+      <c r="G84" t="s">
+        <v>391</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1994</v>
+      </c>
+      <c r="B85">
+        <v>96815</v>
+      </c>
+      <c r="C85" t="s">
+        <v>289</v>
+      </c>
+      <c r="D85" s="3">
+        <v>49</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F85" t="s">
+        <v>388</v>
+      </c>
+      <c r="G85" t="s">
+        <v>347</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1994</v>
+      </c>
+      <c r="B86">
+        <v>96900</v>
+      </c>
+      <c r="C86" t="s">
+        <v>290</v>
+      </c>
+      <c r="D86" s="3">
+        <v>48.49</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F86" t="s">
+        <v>387</v>
+      </c>
+      <c r="G86" t="s">
+        <v>347</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1994</v>
+      </c>
+      <c r="B87">
+        <v>96934</v>
+      </c>
+      <c r="C87" t="s">
+        <v>291</v>
+      </c>
+      <c r="D87" s="3">
+        <v>48</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F87" t="s">
+        <v>385</v>
+      </c>
+      <c r="G87" t="s">
+        <v>347</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1994</v>
+      </c>
+      <c r="B88">
+        <v>97246</v>
+      </c>
+      <c r="C88" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" s="3">
+        <v>80.81</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1994</v>
+      </c>
+      <c r="B89">
+        <v>98006</v>
+      </c>
+      <c r="C89" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" s="3">
+        <v>34</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F89" t="s">
+        <v>377</v>
+      </c>
+      <c r="G89" t="s">
+        <v>347</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1994</v>
+      </c>
+      <c r="B90">
+        <v>99251</v>
+      </c>
+      <c r="C90" t="s">
+        <v>294</v>
+      </c>
+      <c r="D90" s="3">
+        <v>49</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F90" t="s">
+        <v>380</v>
+      </c>
+      <c r="G90" t="s">
+        <v>381</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1996</v>
+      </c>
+      <c r="B91">
+        <v>102622</v>
+      </c>
+      <c r="C91" t="s">
+        <v>295</v>
+      </c>
+      <c r="D91" s="3">
+        <v>5</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F91" t="s">
+        <v>374</v>
+      </c>
+      <c r="G91" t="s">
+        <v>324</v>
+      </c>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1998</v>
+      </c>
+      <c r="B92">
+        <v>112488</v>
+      </c>
+      <c r="C92" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" s="3">
+        <v>32</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F92" t="s">
+        <v>372</v>
+      </c>
+      <c r="G92" t="s">
+        <v>347</v>
+      </c>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1998</v>
+      </c>
+      <c r="B93">
+        <v>112488</v>
+      </c>
+      <c r="C93" t="s">
+        <v>296</v>
+      </c>
+      <c r="D93" s="3">
+        <v>45</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F93" t="s">
+        <v>373</v>
+      </c>
+      <c r="G93" t="s">
+        <v>347</v>
+      </c>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2002</v>
+      </c>
+      <c r="B94">
+        <v>125736</v>
+      </c>
+      <c r="C94" t="s">
+        <v>297</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2002</v>
+      </c>
+      <c r="B95">
+        <v>127885</v>
+      </c>
+      <c r="C95" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2002</v>
+      </c>
+      <c r="B96">
+        <v>127885</v>
+      </c>
+      <c r="C96" t="s">
+        <v>298</v>
+      </c>
+      <c r="D96" s="3">
+        <v>67</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F96" t="s">
+        <v>333</v>
+      </c>
+      <c r="G96" t="s">
+        <v>333</v>
+      </c>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2002</v>
+      </c>
+      <c r="B97">
+        <v>127885</v>
+      </c>
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97" s="3">
+        <v>68</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F97" t="s">
+        <v>333</v>
+      </c>
+      <c r="G97" t="s">
+        <v>333</v>
+      </c>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2003</v>
+      </c>
+      <c r="B98">
+        <v>130036</v>
+      </c>
+      <c r="C98" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98">
+        <v>41.42</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F98" t="s">
+        <v>359</v>
+      </c>
+      <c r="G98" t="s">
+        <v>360</v>
+      </c>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2004</v>
+      </c>
+      <c r="B99">
+        <v>137745</v>
+      </c>
+      <c r="C99" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F99" t="s">
+        <v>348</v>
+      </c>
+      <c r="G99" t="s">
+        <v>350</v>
+      </c>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2004</v>
+      </c>
+      <c r="B100">
+        <v>138446</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="3">
+        <v>25.26</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F100" t="s">
+        <v>352</v>
+      </c>
+      <c r="G100" t="s">
+        <v>353</v>
+      </c>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2005</v>
+      </c>
+      <c r="B101">
+        <v>139497</v>
+      </c>
+      <c r="C101" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F101" t="s">
+        <v>348</v>
+      </c>
+      <c r="G101" t="s">
+        <v>350</v>
+      </c>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2006</v>
+      </c>
+      <c r="B102">
+        <v>191579</v>
+      </c>
+      <c r="C102" t="s">
+        <v>303</v>
+      </c>
+      <c r="D102" s="3">
+        <v>15</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F102" t="s">
+        <v>345</v>
+      </c>
+      <c r="G102" t="s">
+        <v>347</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2006</v>
+      </c>
+      <c r="B103">
+        <v>191580</v>
+      </c>
+      <c r="C103" t="s">
+        <v>304</v>
+      </c>
+      <c r="D103" s="3">
+        <v>14</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F103" t="s">
+        <v>345</v>
+      </c>
+      <c r="G103" t="s">
+        <v>347</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2008</v>
+      </c>
+      <c r="B104">
+        <v>162430</v>
+      </c>
+      <c r="C104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F104" t="s">
+        <v>333</v>
+      </c>
+      <c r="G104" t="s">
+        <v>333</v>
+      </c>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2008</v>
+      </c>
+      <c r="B105">
+        <v>163541</v>
+      </c>
+      <c r="C105" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F105" t="s">
+        <v>339</v>
+      </c>
+      <c r="G105" t="s">
+        <v>325</v>
+      </c>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2008</v>
+      </c>
+      <c r="B106">
+        <v>163541</v>
+      </c>
+      <c r="C106" t="s">
+        <v>306</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2008</v>
+      </c>
+      <c r="B107">
+        <v>189457</v>
+      </c>
+      <c r="C107" t="s">
+        <v>307</v>
+      </c>
+      <c r="D107" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F107" t="s">
+        <v>333</v>
+      </c>
+      <c r="G107" t="s">
+        <v>333</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2008</v>
+      </c>
+      <c r="B108">
+        <v>189457</v>
+      </c>
+      <c r="C108" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G108" t="s">
+        <v>333</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2011</v>
+      </c>
+      <c r="B109">
+        <v>191443</v>
+      </c>
+      <c r="C109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2019</v>
+      </c>
+      <c r="B110">
+        <v>370977</v>
+      </c>
+      <c r="C110" t="s">
+        <v>310</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F110" t="s">
+        <v>326</v>
+      </c>
+      <c r="G110" t="s">
+        <v>325</v>
+      </c>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2020</v>
+      </c>
+      <c r="B111">
+        <v>372603</v>
+      </c>
+      <c r="C111" t="s">
+        <v>311</v>
+      </c>
+      <c r="D111" s="3">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F111" t="s">
+        <v>322</v>
+      </c>
+      <c r="G111" t="s">
+        <v>324</v>
+      </c>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2020</v>
+      </c>
+      <c r="B112">
+        <v>373788</v>
+      </c>
+      <c r="C112" t="s">
+        <v>312</v>
+      </c>
+      <c r="D112" s="3">
+        <v>34.35</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F112" t="s">
+        <v>319</v>
+      </c>
+      <c r="G112" t="s">
+        <v>320</v>
+      </c>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2018EA9-58FE-451A-BA4A-1665C2716D1B}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oriane\Documents\Oriane\Etudes\UU\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2F9DBD41-AAFA-4E91-BD2C-F0DEFF524F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC48C7-2FC7-40E6-9B4D-C7F88DA04BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1890" windowWidth="11340" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1020" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Non OCRED - OCR Problems" sheetId="2" r:id="rId2"/>
     <sheet name="Pages Off" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Unindexed Article" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="464">
   <si>
     <t>Amount</t>
   </si>
@@ -227,6 +227,1208 @@
   </si>
   <si>
     <t xml:space="preserve">Pages 1 and 2 not counted, off </t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/081616engo.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 3 not counted </t>
+  </si>
+  <si>
+    <t>Article, contrast</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/081475engo.pdf</t>
+  </si>
+  <si>
+    <t>2,7,9,12</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/081370engo.pdf</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/081400engo.pdf</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/074977engo.pdf</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/074946engo.pdf</t>
+  </si>
+  <si>
+    <t>Contrast, full article. Whole issue has some trouble when italic font, and with contrast</t>
+  </si>
+  <si>
+    <t>3,5,9,10</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/074184engo.pdf</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>9,16,26</t>
+  </si>
+  <si>
+    <t>Full article, contrasts</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/074055engo.pdf</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>courier_id</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>tagged_1947_146744</t>
+  </si>
+  <si>
+    <t>all articles are unindexed</t>
+  </si>
+  <si>
+    <t>tagged_1948_073649</t>
+  </si>
+  <si>
+    <t>tagged_1948_073683</t>
+  </si>
+  <si>
+    <t>tagged_1948_073713</t>
+  </si>
+  <si>
+    <t>tagged_1948_073741</t>
+  </si>
+  <si>
+    <t>tagged_1948_073774</t>
+  </si>
+  <si>
+    <t>tagged_1948_073790</t>
+  </si>
+  <si>
+    <t>tagged_1948_073809</t>
+  </si>
+  <si>
+    <t>tagged_1948_073829</t>
+  </si>
+  <si>
+    <t>tagged_1948_073850</t>
+  </si>
+  <si>
+    <t>tagged_1948_073867</t>
+  </si>
+  <si>
+    <t>tagged_1949_073938</t>
+  </si>
+  <si>
+    <t>tagged_1949_073956</t>
+  </si>
+  <si>
+    <t>tagged_1949_073970</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. 
+### 73976: Summer camp for war orphans to open in France is on 4, not 3. 
+### 73978: India in the world today name of the supplement including different articles. Not on 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>tagged_1949_073993</t>
+  </si>
+  <si>
+    <t>tagged_1949_074130</t>
+  </si>
+  <si>
+    <t>tagged_1949_074184</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. 
+### 74193: Educators must help establish "techniques of peace" not OCRed</t>
+  </si>
+  <si>
+    <t>tagged_1950_074946</t>
+  </si>
+  <si>
+    <t>tagged_1950_081370</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. 
+### 74331: The World laughs at different things continues on 7</t>
+  </si>
+  <si>
+    <t>tagged_1950_081400</t>
+  </si>
+  <si>
+    <t>1, 10</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not. Page 3 some text not OCRed. 1 and 10: Humanity is under no compulsion to abdicate</t>
+  </si>
+  <si>
+    <t>tagged_1950_081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of small articles, unclear if unindexed or not. </t>
+  </si>
+  <si>
+    <t>tagged_1950_081564</t>
+  </si>
+  <si>
+    <t>Lots of small articles, unclear if unindexed or not</t>
+  </si>
+  <si>
+    <t>tagged_1951_071298</t>
+  </si>
+  <si>
+    <t>tagged_1951_073516</t>
+  </si>
+  <si>
+    <t>tagged_1951_073537</t>
+  </si>
+  <si>
+    <t>tagged_1951_073557</t>
+  </si>
+  <si>
+    <t>tagged_1951_074639</t>
+  </si>
+  <si>
+    <t>tagged_1956_068941</t>
+  </si>
+  <si>
+    <t>tagged_1957_067218</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>tagged_1957_067562</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>tagged_1957_067956</t>
+  </si>
+  <si>
+    <t>tagged_1958_066142</t>
+  </si>
+  <si>
+    <t>tagged_1958_066182</t>
+  </si>
+  <si>
+    <t>tagged_1958_066222</t>
+  </si>
+  <si>
+    <t>tagged_1958_066244</t>
+  </si>
+  <si>
+    <t>tagged_1959_064895</t>
+  </si>
+  <si>
+    <t>14,16,17</t>
+  </si>
+  <si>
+    <t>tagged_1959_065221</t>
+  </si>
+  <si>
+    <t>tagged_1959_065278</t>
+  </si>
+  <si>
+    <t>tagged_1959_066059</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>tagged_1959_066107</t>
+  </si>
+  <si>
+    <t>tagged_1961_063808</t>
+  </si>
+  <si>
+    <t>tagged_1961_063847</t>
+  </si>
+  <si>
+    <t>4 to 13</t>
+  </si>
+  <si>
+    <t>tagged_1961_064092</t>
+  </si>
+  <si>
+    <t>4 to 23</t>
+  </si>
+  <si>
+    <t>tagged_1961_064240</t>
+  </si>
+  <si>
+    <t>tagged_1961_064255</t>
+  </si>
+  <si>
+    <t>tagged_1962_063456</t>
+  </si>
+  <si>
+    <t>tagged_1962_063659</t>
+  </si>
+  <si>
+    <t>tagged_1963_062672</t>
+  </si>
+  <si>
+    <t>tagged_1963_063381</t>
+  </si>
+  <si>
+    <t>tagged_1964_061386</t>
+  </si>
+  <si>
+    <t>tagged_1964_061468</t>
+  </si>
+  <si>
+    <t>tagged_1964_061952</t>
+  </si>
+  <si>
+    <t>tagged_1965_031600</t>
+  </si>
+  <si>
+    <t>tagged_1965_060488</t>
+  </si>
+  <si>
+    <t>tagged_1965_060510</t>
+  </si>
+  <si>
+    <t>tagged_1965_060619</t>
+  </si>
+  <si>
+    <t>tagged_1966_012656</t>
+  </si>
+  <si>
+    <t>5,6,9,10</t>
+  </si>
+  <si>
+    <t>tagged_1966_014256</t>
+  </si>
+  <si>
+    <t>tagged_1966_016653</t>
+  </si>
+  <si>
+    <t>tagged_1966_020805</t>
+  </si>
+  <si>
+    <t>tagged_1966_028352</t>
+  </si>
+  <si>
+    <t>tagged_1966_032667</t>
+  </si>
+  <si>
+    <t>tagged_1966_033144</t>
+  </si>
+  <si>
+    <t>tagged_1967_059683</t>
+  </si>
+  <si>
+    <t>tagged_1968_058803</t>
+  </si>
+  <si>
+    <t>tagged_1968_058953</t>
+  </si>
+  <si>
+    <t>tagged_1968_059301</t>
+  </si>
+  <si>
+    <t>tagged_1968_078431</t>
+  </si>
+  <si>
+    <t>tagged_1971_053853</t>
+  </si>
+  <si>
+    <t>tagged_1977_074816</t>
+  </si>
+  <si>
+    <t>tagged_1980_074755</t>
+  </si>
+  <si>
+    <t>tagged_1980_074756</t>
+  </si>
+  <si>
+    <t>tagged_1980_074758</t>
+  </si>
+  <si>
+    <t>tagged_1986_068421</t>
+  </si>
+  <si>
+    <t>### UNINDEXED_ARTICLE: Treasures of Mongolia</t>
+  </si>
+  <si>
+    <t>tagged_1991_089116</t>
+  </si>
+  <si>
+    <t>tagged_1992_092021</t>
+  </si>
+  <si>
+    <t>tagged_1992_093019</t>
+  </si>
+  <si>
+    <t>tagged_1993_093364</t>
+  </si>
+  <si>
+    <t>tagged_1993_093670</t>
+  </si>
+  <si>
+    <t>tagged_1993_093750</t>
+  </si>
+  <si>
+    <t>tagged_1994_096815</t>
+  </si>
+  <si>
+    <t>tagged_1994_096900</t>
+  </si>
+  <si>
+    <t>tagged_1994_096934</t>
+  </si>
+  <si>
+    <t>tagged_1994_097246</t>
+  </si>
+  <si>
+    <t>tagged_1994_098006</t>
+  </si>
+  <si>
+    <t>tagged_1994_099251</t>
+  </si>
+  <si>
+    <t>tagged_1996_102622</t>
+  </si>
+  <si>
+    <t>tagged_1998_112488</t>
+  </si>
+  <si>
+    <t>tagged_2002_125736</t>
+  </si>
+  <si>
+    <t>tagged_2002_127885</t>
+  </si>
+  <si>
+    <t>tagged_2003_130036</t>
+  </si>
+  <si>
+    <t>tagged_2004_137745</t>
+  </si>
+  <si>
+    <t>tagged_2004_138446</t>
+  </si>
+  <si>
+    <t>tagged_2005_139497</t>
+  </si>
+  <si>
+    <t>tagged_2006_191579</t>
+  </si>
+  <si>
+    <t>tagged_2006_191580</t>
+  </si>
+  <si>
+    <t>tagged_2008_162430</t>
+  </si>
+  <si>
+    <t>tagged_2008_163541</t>
+  </si>
+  <si>
+    <t>tagged_2008_189457</t>
+  </si>
+  <si>
+    <t>tagged_2011_191443</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
+  </si>
+  <si>
+    <t>tagged_2019_370977</t>
+  </si>
+  <si>
+    <t>tagged_2020_372603</t>
+  </si>
+  <si>
+    <t>tagged_2020_373788</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>author_country</t>
+  </si>
+  <si>
+    <t>Article page 4, 
+### 73696: UNESCO and national cooperation</t>
+  </si>
+  <si>
+    <t>https://demo.humlab.umu.se/courier/073683engo.pdf</t>
+  </si>
+  <si>
+    <t>Zhai Yongming</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Women's writing: Illumnating the darkness</t>
+  </si>
+  <si>
+    <t>Emma Rodero</t>
+  </si>
+  <si>
+    <t>A voice you can't see</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Lyne Fréchet</t>
+  </si>
+  <si>
+    <t>A second-chance school in Montreal</t>
+  </si>
+  <si>
+    <t>Interview by Laura Martel, Interviewee Aminetou Mint El Moctar</t>
+  </si>
+  <si>
+    <t>Crime without punishment</t>
+  </si>
+  <si>
+    <t>Down through the year</t>
+  </si>
+  <si>
+    <t>No author, look back through the years</t>
+  </si>
+  <si>
+    <t>Laura Martel, Aminetou Mint El Moctar</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>France, Mauritania</t>
+  </si>
+  <si>
+    <t>47,48,49</t>
+  </si>
+  <si>
+    <t>Education: The other global emergency</t>
+  </si>
+  <si>
+    <t>Taken from another issue of Courier</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Christina Cameron</t>
+  </si>
+  <si>
+    <t>A permanent challenge</t>
+  </si>
+  <si>
+    <t>19,20,21</t>
+  </si>
+  <si>
+    <t>The people who made history dance</t>
+  </si>
+  <si>
+    <t>16,17,18</t>
+  </si>
+  <si>
+    <t>Stop "fast food information"</t>
+  </si>
+  <si>
+    <t>José Banaag</t>
+  </si>
+  <si>
+    <t>The Courier looks back</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Agnès Bardon</t>
+  </si>
+  <si>
+    <t>Projecting the planet into the future</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>The slave trade: a peculiar cultural odyssey</t>
+  </si>
+  <si>
+    <t>Jasmina Šopova</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>27,28,29,30,31</t>
+  </si>
+  <si>
+    <t>Not really an article, but usually indexed as an article in the previous issues</t>
+  </si>
+  <si>
+    <t>28,29,30,31,32</t>
+  </si>
+  <si>
+    <t>Education: a vaccine for HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Literacy for a better world</t>
+  </si>
+  <si>
+    <t>Brendan O'Malley</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>38-63</t>
+  </si>
+  <si>
+    <t>Afghanistan: A nation at the crossroads</t>
+  </si>
+  <si>
+    <t>Made of multiple smaller articles</t>
+  </si>
+  <si>
+    <t>John Lawton</t>
+  </si>
+  <si>
+    <t>Cubes and spheres</t>
+  </si>
+  <si>
+    <t>Young people rally to fight AIDS</t>
+  </si>
+  <si>
+    <t>Decrypting the future</t>
+  </si>
+  <si>
+    <t>38-59</t>
+  </si>
+  <si>
+    <t>Jérôme Bindé</t>
+  </si>
+  <si>
+    <t>Curbing the mighty shrimp</t>
+  </si>
+  <si>
+    <t>From Chile, a $50-million crop</t>
+  </si>
+  <si>
+    <t>C. L'H.T., G.C.</t>
+  </si>
+  <si>
+    <t>G.B.T.</t>
+  </si>
+  <si>
+    <t>Frederico Mayor</t>
+  </si>
+  <si>
+    <t>Appeal by the director-general of UNESCO for the continuation of the peace process in the Middle East</t>
+  </si>
+  <si>
+    <t>Melina's last battle</t>
+  </si>
+  <si>
+    <t>E.J.M.</t>
+  </si>
+  <si>
+    <t>Book article, indexed as it was indexed before</t>
+  </si>
+  <si>
+    <t>A fresh look at the past</t>
+  </si>
+  <si>
+    <t>Christophe Wondji</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Books of the world: here comes the sun</t>
+  </si>
+  <si>
+    <t>Raoul Silva-Cacérès</t>
+  </si>
+  <si>
+    <t>Books of the world: one girl's war</t>
+  </si>
+  <si>
+    <t>J.S.</t>
+  </si>
+  <si>
+    <t>Books of the world</t>
+  </si>
+  <si>
+    <t>Calum Wise</t>
+  </si>
+  <si>
+    <t>Edgar Reichmann</t>
+  </si>
+  <si>
+    <t>Don Juan and the quest for the absolute</t>
+  </si>
+  <si>
+    <t>Zeina Arida</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>An atlas of world literature</t>
+  </si>
+  <si>
+    <t>Trees offer farmers new hope in western Kenya</t>
+  </si>
+  <si>
+    <t>Jane Stevens</t>
+  </si>
+  <si>
+    <t>France Bequette</t>
+  </si>
+  <si>
+    <t>A good word for paper</t>
+  </si>
+  <si>
+    <t>Exploring the cosmos: from here to infinity</t>
+  </si>
+  <si>
+    <t>France, USA</t>
+  </si>
+  <si>
+    <t>The salt of the earth: sun, wind and fire</t>
+  </si>
+  <si>
+    <t>Puerto Rico saves its treasures</t>
+  </si>
+  <si>
+    <t>Interview with Francesco Di Ciastri</t>
+  </si>
+  <si>
+    <t>Francesco Di Ciastri</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>E.M.B</t>
+  </si>
+  <si>
+    <t>The United Nations Convention on the Law of the Sea</t>
+  </si>
+  <si>
+    <t>Treasures of Mongolia</t>
+  </si>
+  <si>
+    <t>Namsraïn Ser-Odjav</t>
+  </si>
+  <si>
+    <t>30,31,32,33,34,35,36,37</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18</t>
+  </si>
+  <si>
+    <t>Nine award-winning campaigns</t>
+  </si>
+  <si>
+    <t>Man belongs to the earth</t>
+  </si>
+  <si>
+    <t>32,33,34,39,40,41,42,43,44,45</t>
+  </si>
+  <si>
+    <t>Highlights of the archaological expeditions</t>
+  </si>
+  <si>
+    <t>Unesco's role in alterting public opinion</t>
+  </si>
+  <si>
+    <t>Wayne McEwing</t>
+  </si>
+  <si>
+    <t>Seaons of the mind</t>
+  </si>
+  <si>
+    <t>9,10,11,12,14,15,18,20,21,24,25,26,27,28,29,30,31.32,36,38,41,43,44,46,47,48,49,52,53,54,56,57,58,59</t>
+  </si>
+  <si>
+    <t>This article is made of 9 parts, but it's the same authors all the time. One big article or multiple smaller?</t>
+  </si>
+  <si>
+    <t>Usually considered as an article</t>
+  </si>
+  <si>
+    <t>Great men, great events</t>
+  </si>
+  <si>
+    <t>Human rights.... Tomorrow</t>
+  </si>
+  <si>
+    <t>Hanna Saba</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>The abuse of drugs: a growing menace</t>
+  </si>
+  <si>
+    <t>Health in the world of tomorrow</t>
+  </si>
+  <si>
+    <t>M.G. Candeau</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>10,11,12,13</t>
+  </si>
+  <si>
+    <t>Expo 67: The world in a thousand acres</t>
+  </si>
+  <si>
+    <t>René Maheu</t>
+  </si>
+  <si>
+    <t>UNESO's 20 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France </t>
+  </si>
+  <si>
+    <t>Ezat O. Negahban</t>
+  </si>
+  <si>
+    <t>Masterpieces from a lost kingdom</t>
+  </si>
+  <si>
+    <t>16,17,21</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>A. H. Abdel-Ghani</t>
+  </si>
+  <si>
+    <t>Man and space: a great international venture</t>
+  </si>
+  <si>
+    <t>Robert L. Munteanu</t>
+  </si>
+  <si>
+    <t>Global assault on the weather</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>17,18,29,20,21,22,23</t>
+  </si>
+  <si>
+    <t>Ayutya: Venice of south asia</t>
+  </si>
+  <si>
+    <t>5,6,7,8,10</t>
+  </si>
+  <si>
+    <t>The roots of peace</t>
+  </si>
+  <si>
+    <t>22,23,24,25,26,31</t>
+  </si>
+  <si>
+    <t>Bert V. A. Röling</t>
+  </si>
+  <si>
+    <t>Sumet Jumsai na Ayutya</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Jean Thomas</t>
+  </si>
+  <si>
+    <t>A fair deal for the teacher</t>
+  </si>
+  <si>
+    <t>Robert Escarpit</t>
+  </si>
+  <si>
+    <t>The revolution in books</t>
+  </si>
+  <si>
+    <t>4,6,7,9,10</t>
+  </si>
+  <si>
+    <t>Youth with a purpose</t>
+  </si>
+  <si>
+    <t>5,6,7</t>
+  </si>
+  <si>
+    <t>My first steps in space</t>
+  </si>
+  <si>
+    <t>Aleksei Leonov</t>
+  </si>
+  <si>
+    <t>Soviet Russia</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>Science and the common man</t>
+  </si>
+  <si>
+    <t>Ritchie Calder</t>
+  </si>
+  <si>
+    <t>5,6,7,8,32</t>
+  </si>
+  <si>
+    <t>Carlo Maccagni</t>
+  </si>
+  <si>
+    <t>Galileo Galilei: A new vision of the universe</t>
+  </si>
+  <si>
+    <t>24,25,27,28,30,31,32</t>
+  </si>
+  <si>
+    <t>The art of writing</t>
+  </si>
+  <si>
+    <t>Marcel Cohen</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23</t>
+  </si>
+  <si>
+    <t>Bruno Friedman</t>
+  </si>
+  <si>
+    <t>Lasers: 100 million messages on a beam of light</t>
+  </si>
+  <si>
+    <t>15,16,17,18,19</t>
+  </si>
+  <si>
+    <t>Grigori Kristi</t>
+  </si>
+  <si>
+    <t>Stanislavsky: Revolutionary of the modern theatre</t>
+  </si>
+  <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
+    <t>Georges Fradier</t>
+  </si>
+  <si>
+    <t>Progress and prejudice</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>Karl von Frisch</t>
+  </si>
+  <si>
+    <t>Nature's hidden languages of smell</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>Germany, Austria</t>
+  </si>
+  <si>
+    <t>Ross C. Peavey &amp; Laurence M. Gould</t>
+  </si>
+  <si>
+    <t>9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>International land of science</t>
+  </si>
+  <si>
+    <t>Page 15 missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://demo.humlab.umu.se/courier/063456engo.pdf </t>
+  </si>
+  <si>
+    <t>Today's crisis in anthropology</t>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17</t>
+  </si>
+  <si>
+    <t>Claude Lévi-Strauss</t>
+  </si>
+  <si>
+    <t>Abu Simbel,  Now or never</t>
+  </si>
+  <si>
+    <t>d'Arcy Hayman</t>
+  </si>
+  <si>
+    <t>Art in the life of man</t>
+  </si>
+  <si>
+    <t>André Maurois speaks of books and libraries</t>
+  </si>
+  <si>
+    <t>André Maurois</t>
+  </si>
+  <si>
+    <t>Rebirth of a shattered city</t>
+  </si>
+  <si>
+    <t>Jerzy Hryniewiecki</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>4,5,6,7,12,13</t>
+  </si>
+  <si>
+    <t>Lilliput Paris on a worl tour</t>
+  </si>
+  <si>
+    <t>Paul Almasy</t>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23</t>
+  </si>
+  <si>
+    <t>Forty years of stuggle on behalf of social justice</t>
+  </si>
+  <si>
+    <t>Edward J. Phelan</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Michel Salmon</t>
+  </si>
+  <si>
+    <t>Miracle at Rotterdam</t>
+  </si>
+  <si>
+    <t>13,14,15,16,17,18,19,20</t>
+  </si>
+  <si>
+    <t>Georges Sadoul</t>
+  </si>
+  <si>
+    <t>Film making: no longer the privilege of just a few nations</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14,15,16,17,18,19</t>
+  </si>
+  <si>
+    <t>Birth of an island</t>
+  </si>
+  <si>
+    <t>From the neck up</t>
+  </si>
+  <si>
+    <t>Harry L. Shapiro</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,19</t>
+  </si>
+  <si>
+    <t>Masterworkds of Japan's Stone Age Art</t>
+  </si>
+  <si>
+    <t>Seiroku Noma</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,19,20,21,22,23,24</t>
+  </si>
+  <si>
+    <t>Ten years of progress</t>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+  </si>
+  <si>
+    <t>Young artists in Paris</t>
+  </si>
+  <si>
+    <t>14,15,6,17,18,19,20,21,22,23,24</t>
+  </si>
+  <si>
+    <t>Jacques Pinset</t>
+  </si>
+  <si>
+    <t>School for gysies</t>
+  </si>
+  <si>
+    <t>Marie-Madeleine Rabecq</t>
+  </si>
+  <si>
+    <t>Comenius: apostle of modern education and of world understanding</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8,9,10,11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>Great Literature of East and West</t>
+  </si>
+  <si>
+    <t>M. Arrhe</t>
+  </si>
+  <si>
+    <t>Claudia Haferlin</t>
+  </si>
+  <si>
+    <t>A woman's life in an african village</t>
+  </si>
+  <si>
+    <t>With these two hands</t>
+  </si>
+  <si>
+    <t>Folklore is an everyday event in Yugoslavia</t>
+  </si>
+  <si>
+    <t>Entertainment films for children</t>
+  </si>
+  <si>
+    <t>Allen of Hurtwood</t>
+  </si>
+  <si>
+    <t>7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>Patzcuaro</t>
+  </si>
+  <si>
+    <t>Daniel Behrman</t>
+  </si>
+  <si>
+    <t>André Siegfried</t>
+  </si>
+  <si>
+    <t>Problems of a sub-continent</t>
+  </si>
+  <si>
+    <t>The culture of India</t>
+  </si>
+  <si>
+    <t>Suniti Kumar Chatterji</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>40'000 midle east refugee children have claimed their right to ducation</t>
+  </si>
+  <si>
+    <t>UNESCO national commission and fuad 1 desert institute inaugurated in Egypt</t>
+  </si>
+  <si>
+    <t>The will to peace</t>
+  </si>
+  <si>
+    <t>Jaimes Torres Bodet</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Jean Piaget</t>
+  </si>
+  <si>
+    <t>The brotherhood of nation</t>
+  </si>
+  <si>
+    <t>$85,000,000 proposed by UN for technical development plan</t>
+  </si>
+  <si>
+    <t>UNESCO can aid U.N Plan for under-developed areas, tores bodet says</t>
+  </si>
+  <si>
+    <t>Torres Bodet's Sorbonne address on declaration of human rights</t>
+  </si>
+  <si>
+    <t>Conference opens inLebanon November 17th</t>
+  </si>
+  <si>
+    <t>What the dlegates will discuss in Beirut</t>
+  </si>
+  <si>
+    <t>Beirut prepares to receive Unesco conference</t>
+  </si>
+  <si>
+    <t>Unesco conference holds special session</t>
+  </si>
+  <si>
+    <t>Key educators at four seminars: Study teaching for a world society</t>
+  </si>
+  <si>
+    <t>International theater institude formed in Prague</t>
+  </si>
+  <si>
+    <t>Hylean Amazon Institute Created</t>
+  </si>
+  <si>
+    <t>UN to be seminar theme at Adelphi college</t>
+  </si>
+  <si>
+    <t>3,000 U.S. delegates to meet this month at UNESCO regional conference</t>
+  </si>
+  <si>
+    <t>Unesco outlines views at U.N. meetings on free information</t>
+  </si>
+  <si>
+    <t>Amazon meeting opens in Peru April 30th</t>
+  </si>
+  <si>
+    <t>Work of Unesco important to latin american countries</t>
+  </si>
+  <si>
+    <t>Conference sets programme for 1948</t>
+  </si>
+  <si>
+    <t>Unesco Programme to stress exchange between museums</t>
   </si>
 </sst>
 </file>
@@ -250,7 +1452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +1462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -289,10 +1497,17 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -577,7 +1792,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +1807,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -623,16 +1838,16 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>21</v>
+      <c r="A6" s="5">
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>7</v>
+      <c r="A7" s="5">
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -658,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E267E64-219E-403F-B765-D80F38CD4AF0}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +2073,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>4.5</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -913,22 +2128,92 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="A23" s="3">
+        <v>6.13</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="A25" s="3">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="A28" s="3">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -959,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A574E94-2FF6-47C6-8CD2-D220367DE3D1}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,22 +2342,35 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="A10" s="3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1102,12 +2400,2758 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F9F0BE51-7C66-432C-B3D7-6CC49C5491DF}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{2A44CB5E-23BA-4BA6-997A-844F6F94072B}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{556D934C-5F5E-4ECD-AE3F-83EE461E9629}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B859A92C-6D7D-4DD0-96D5-DBEDC18D3419}">
+  <dimension ref="A1:H119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1947</v>
+      </c>
+      <c r="B2" s="8">
+        <v>146744</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="H2" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1948</v>
+      </c>
+      <c r="B3">
+        <v>73649</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1948</v>
+      </c>
+      <c r="B4">
+        <v>73649</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1948</v>
+      </c>
+      <c r="B5">
+        <v>73683</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1948</v>
+      </c>
+      <c r="B6">
+        <v>73683</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1948</v>
+      </c>
+      <c r="B7">
+        <v>73713</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1948</v>
+      </c>
+      <c r="B8">
+        <v>73741</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1948</v>
+      </c>
+      <c r="B9">
+        <v>73774</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1948</v>
+      </c>
+      <c r="B10">
+        <v>73774</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>457</v>
+      </c>
+      <c r="F10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1948</v>
+      </c>
+      <c r="B11">
+        <v>73790</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1948</v>
+      </c>
+      <c r="B12">
+        <v>73809</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1948</v>
+      </c>
+      <c r="B13">
+        <v>73829</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>453</v>
+      </c>
+      <c r="F13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1948</v>
+      </c>
+      <c r="B14">
+        <v>73850</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>452</v>
+      </c>
+      <c r="F14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1948</v>
+      </c>
+      <c r="B15">
+        <v>73867</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>450</v>
+      </c>
+      <c r="F15" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1948</v>
+      </c>
+      <c r="B16">
+        <v>73867</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>451</v>
+      </c>
+      <c r="F16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1949</v>
+      </c>
+      <c r="B17">
+        <v>73938</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>449</v>
+      </c>
+      <c r="F17" t="s">
+        <v>442</v>
+      </c>
+      <c r="G17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1949</v>
+      </c>
+      <c r="B18">
+        <v>73956</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>448</v>
+      </c>
+      <c r="F18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1949</v>
+      </c>
+      <c r="B19" s="8">
+        <v>73970</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="H19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1949</v>
+      </c>
+      <c r="B20">
+        <v>73993</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1949</v>
+      </c>
+      <c r="B21">
+        <v>74130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="3">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>446</v>
+      </c>
+      <c r="F21" t="s">
+        <v>445</v>
+      </c>
+      <c r="G21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>1949</v>
+      </c>
+      <c r="B22" s="8">
+        <v>74184</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="9">
+        <v>8</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1950</v>
+      </c>
+      <c r="B23">
+        <v>74946</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>441</v>
+      </c>
+      <c r="F23" t="s">
+        <v>442</v>
+      </c>
+      <c r="G23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>1950</v>
+      </c>
+      <c r="B24" s="8">
+        <v>81370</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="H24" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1950</v>
+      </c>
+      <c r="B25" s="8">
+        <v>81400</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>1950</v>
+      </c>
+      <c r="B26" s="8">
+        <v>81543</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="H26" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>1950</v>
+      </c>
+      <c r="B27" s="8">
+        <v>81564</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="H27" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1951</v>
+      </c>
+      <c r="B28">
+        <v>71298</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1951</v>
+      </c>
+      <c r="B29">
+        <v>71298</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1951</v>
+      </c>
+      <c r="B30">
+        <v>73516</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>436</v>
+      </c>
+      <c r="F30" t="s">
+        <v>437</v>
+      </c>
+      <c r="G30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1951</v>
+      </c>
+      <c r="B31">
+        <v>73537</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>435</v>
+      </c>
+      <c r="F31" t="s">
+        <v>434</v>
+      </c>
+      <c r="G31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1951</v>
+      </c>
+      <c r="B32">
+        <v>73557</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E32" t="s">
+        <v>432</v>
+      </c>
+      <c r="F32" t="s">
+        <v>433</v>
+      </c>
+      <c r="G32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1951</v>
+      </c>
+      <c r="B33">
+        <v>74639</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>428</v>
+      </c>
+      <c r="F33" t="s">
+        <v>370</v>
+      </c>
+      <c r="G33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1951</v>
+      </c>
+      <c r="B34">
+        <v>74639</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="3">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>429</v>
+      </c>
+      <c r="F34" t="s">
+        <v>430</v>
+      </c>
+      <c r="G34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1956</v>
+      </c>
+      <c r="B35">
+        <v>68941</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" t="s">
+        <v>427</v>
+      </c>
+      <c r="F35" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1957</v>
+      </c>
+      <c r="B36">
+        <v>67218</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" t="s">
+        <v>426</v>
+      </c>
+      <c r="F36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1957</v>
+      </c>
+      <c r="B37">
+        <v>67562</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>423</v>
+      </c>
+      <c r="F37" t="s">
+        <v>424</v>
+      </c>
+      <c r="G37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1957</v>
+      </c>
+      <c r="B38">
+        <v>67956</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E38" t="s">
+        <v>421</v>
+      </c>
+      <c r="F38" t="s">
+        <v>420</v>
+      </c>
+      <c r="G38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1958</v>
+      </c>
+      <c r="B39">
+        <v>66142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="3">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>419</v>
+      </c>
+      <c r="F39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1958</v>
+      </c>
+      <c r="B40">
+        <v>66142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
+        <v>417</v>
+      </c>
+      <c r="E40" t="s">
+        <v>416</v>
+      </c>
+      <c r="F40" t="s">
+        <v>418</v>
+      </c>
+      <c r="G40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1958</v>
+      </c>
+      <c r="B41">
+        <v>66182</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E41" t="s">
+        <v>414</v>
+      </c>
+      <c r="F41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1958</v>
+      </c>
+      <c r="B42">
+        <v>66222</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E42" t="s">
+        <v>411</v>
+      </c>
+      <c r="F42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1958</v>
+      </c>
+      <c r="B43">
+        <v>66244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E43" t="s">
+        <v>407</v>
+      </c>
+      <c r="F43" t="s">
+        <v>408</v>
+      </c>
+      <c r="G43" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1959</v>
+      </c>
+      <c r="B44">
+        <v>64895</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>406</v>
+      </c>
+      <c r="F44" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1959</v>
+      </c>
+      <c r="B45">
+        <v>65221</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E45" t="s">
+        <v>404</v>
+      </c>
+      <c r="F45" t="s">
+        <v>403</v>
+      </c>
+      <c r="G45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1959</v>
+      </c>
+      <c r="B46">
+        <v>65278</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" t="s">
+        <v>401</v>
+      </c>
+      <c r="F46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1959</v>
+      </c>
+      <c r="B47">
+        <v>66059</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
+        <v>397</v>
+      </c>
+      <c r="F47" t="s">
+        <v>398</v>
+      </c>
+      <c r="G47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1959</v>
+      </c>
+      <c r="B48">
+        <v>66107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E48" t="s">
+        <v>394</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1961</v>
+      </c>
+      <c r="B49">
+        <v>63808</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E49" t="s">
+        <v>390</v>
+      </c>
+      <c r="F49" t="s">
+        <v>391</v>
+      </c>
+      <c r="G49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1961</v>
+      </c>
+      <c r="B50">
+        <v>63847</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>388</v>
+      </c>
+      <c r="F50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1961</v>
+      </c>
+      <c r="B51">
+        <v>64092</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>387</v>
+      </c>
+      <c r="F51" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1961</v>
+      </c>
+      <c r="B52">
+        <v>64240</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>385</v>
+      </c>
+      <c r="F52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1961</v>
+      </c>
+      <c r="B53">
+        <v>64255</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E53" t="s">
+        <v>382</v>
+      </c>
+      <c r="F53" t="s">
+        <v>384</v>
+      </c>
+      <c r="G53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1962</v>
+      </c>
+      <c r="B54">
+        <v>63456</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" t="s">
+        <v>379</v>
+      </c>
+      <c r="F54" t="s">
+        <v>377</v>
+      </c>
+      <c r="G54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1962</v>
+      </c>
+      <c r="B55">
+        <v>63659</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E55" t="s">
+        <v>374</v>
+      </c>
+      <c r="F55" t="s">
+        <v>373</v>
+      </c>
+      <c r="G55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1963</v>
+      </c>
+      <c r="B56">
+        <v>62672</v>
+      </c>
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E56" t="s">
+        <v>371</v>
+      </c>
+      <c r="F56" t="s">
+        <v>370</v>
+      </c>
+      <c r="G56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1963</v>
+      </c>
+      <c r="B57">
+        <v>63381</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E57" t="s">
+        <v>368</v>
+      </c>
+      <c r="F57" t="s">
+        <v>367</v>
+      </c>
+      <c r="G57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1964</v>
+      </c>
+      <c r="B58">
+        <v>61386</v>
+      </c>
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E58" t="s">
+        <v>365</v>
+      </c>
+      <c r="F58" t="s">
+        <v>364</v>
+      </c>
+      <c r="G58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1964</v>
+      </c>
+      <c r="B59">
+        <v>61468</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E59" t="s">
+        <v>361</v>
+      </c>
+      <c r="F59" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1964</v>
+      </c>
+      <c r="B60">
+        <v>61952</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E60" t="s">
+        <v>359</v>
+      </c>
+      <c r="F60" t="s">
+        <v>358</v>
+      </c>
+      <c r="G60" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1965</v>
+      </c>
+      <c r="B61">
+        <v>31600</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E61" t="s">
+        <v>355</v>
+      </c>
+      <c r="F61" t="s">
+        <v>356</v>
+      </c>
+      <c r="G61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1965</v>
+      </c>
+      <c r="B62">
+        <v>60488</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E62" t="s">
+        <v>351</v>
+      </c>
+      <c r="F62" t="s">
+        <v>352</v>
+      </c>
+      <c r="G62" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1965</v>
+      </c>
+      <c r="B63">
+        <v>60510</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E63" t="s">
+        <v>349</v>
+      </c>
+      <c r="F63" t="s">
+        <v>323</v>
+      </c>
+      <c r="G63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1965</v>
+      </c>
+      <c r="B64">
+        <v>60619</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E64" t="s">
+        <v>347</v>
+      </c>
+      <c r="F64" t="s">
+        <v>346</v>
+      </c>
+      <c r="G64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1966</v>
+      </c>
+      <c r="B65">
+        <v>12656</v>
+      </c>
+      <c r="C65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F65" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1966</v>
+      </c>
+      <c r="B66">
+        <v>14256</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E66" t="s">
+        <v>338</v>
+      </c>
+      <c r="F66" t="s">
+        <v>340</v>
+      </c>
+      <c r="G66" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1966</v>
+      </c>
+      <c r="B67">
+        <v>16653</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E67" t="s">
+        <v>336</v>
+      </c>
+      <c r="F67" t="s">
+        <v>341</v>
+      </c>
+      <c r="G67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1966</v>
+      </c>
+      <c r="B68">
+        <v>20805</v>
+      </c>
+      <c r="C68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E68" t="s">
+        <v>333</v>
+      </c>
+      <c r="F68" t="s">
+        <v>332</v>
+      </c>
+      <c r="G68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1966</v>
+      </c>
+      <c r="B69">
+        <v>28352</v>
+      </c>
+      <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>331</v>
+      </c>
+      <c r="F69" t="s">
+        <v>330</v>
+      </c>
+      <c r="G69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1966</v>
+      </c>
+      <c r="B70">
+        <v>32667</v>
+      </c>
+      <c r="C70" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E70" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1966</v>
+      </c>
+      <c r="B71">
+        <v>33144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>324</v>
+      </c>
+      <c r="F71" t="s">
+        <v>323</v>
+      </c>
+      <c r="G71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1967</v>
+      </c>
+      <c r="B72">
+        <v>59683</v>
+      </c>
+      <c r="C72" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E72" t="s">
+        <v>322</v>
+      </c>
+      <c r="F72" t="s">
+        <v>225</v>
+      </c>
+      <c r="G72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1968</v>
+      </c>
+      <c r="B73">
+        <v>58803</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="3">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>318</v>
+      </c>
+      <c r="F73" t="s">
+        <v>319</v>
+      </c>
+      <c r="G73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1968</v>
+      </c>
+      <c r="B74">
+        <v>58953</v>
+      </c>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="3">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>317</v>
+      </c>
+      <c r="F74" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1968</v>
+      </c>
+      <c r="B75">
+        <v>59301</v>
+      </c>
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>314</v>
+      </c>
+      <c r="F75" t="s">
+        <v>315</v>
+      </c>
+      <c r="G75" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1968</v>
+      </c>
+      <c r="B76">
+        <v>78431</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="3">
+        <v>36</v>
+      </c>
+      <c r="E76" t="s">
+        <v>313</v>
+      </c>
+      <c r="F76" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" t="s">
+        <v>225</v>
+      </c>
+      <c r="H76" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1971</v>
+      </c>
+      <c r="B77">
+        <v>53853</v>
+      </c>
+      <c r="C77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E77" t="s">
+        <v>309</v>
+      </c>
+      <c r="F77" t="s">
+        <v>308</v>
+      </c>
+      <c r="G77" t="s">
+        <v>239</v>
+      </c>
+      <c r="H77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1977</v>
+      </c>
+      <c r="B78">
+        <v>74816</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="3">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>307</v>
+      </c>
+      <c r="F78" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1980</v>
+      </c>
+      <c r="B79">
+        <v>74755</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E79" t="s">
+        <v>306</v>
+      </c>
+      <c r="F79" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1980</v>
+      </c>
+      <c r="B80">
+        <v>74756</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80" t="s">
+        <v>304</v>
+      </c>
+      <c r="F80" t="s">
+        <v>225</v>
+      </c>
+      <c r="G80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1980</v>
+      </c>
+      <c r="B81">
+        <v>74758</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E81" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" t="s">
+        <v>225</v>
+      </c>
+      <c r="G81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1986</v>
+      </c>
+      <c r="B82">
+        <v>68421</v>
+      </c>
+      <c r="C82" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E82" t="s">
+        <v>298</v>
+      </c>
+      <c r="F82" t="s">
+        <v>299</v>
+      </c>
+      <c r="G82" t="s">
+        <v>301</v>
+      </c>
+      <c r="H82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1991</v>
+      </c>
+      <c r="B83">
+        <v>89116</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" s="3">
+        <v>53</v>
+      </c>
+      <c r="E83" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83" t="s">
+        <v>296</v>
+      </c>
+      <c r="G83" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1992</v>
+      </c>
+      <c r="B84">
+        <v>92021</v>
+      </c>
+      <c r="C84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="3">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="E84" t="s">
+        <v>293</v>
+      </c>
+      <c r="F84" t="s">
+        <v>294</v>
+      </c>
+      <c r="G84" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1992</v>
+      </c>
+      <c r="B85">
+        <v>93019</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="3">
+        <v>26.27</v>
+      </c>
+      <c r="E85" t="s">
+        <v>291</v>
+      </c>
+      <c r="F85" t="s">
+        <v>287</v>
+      </c>
+      <c r="G85" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1992</v>
+      </c>
+      <c r="B86">
+        <v>93019</v>
+      </c>
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="3">
+        <v>28.29</v>
+      </c>
+      <c r="E86" t="s">
+        <v>292</v>
+      </c>
+      <c r="F86" t="s">
+        <v>287</v>
+      </c>
+      <c r="G86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1993</v>
+      </c>
+      <c r="B87">
+        <v>93364</v>
+      </c>
+      <c r="C87" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="3">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" t="s">
+        <v>225</v>
+      </c>
+      <c r="G87" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1993</v>
+      </c>
+      <c r="B88">
+        <v>93364</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="3">
+        <v>28.29</v>
+      </c>
+      <c r="E88" t="s">
+        <v>288</v>
+      </c>
+      <c r="F88" t="s">
+        <v>287</v>
+      </c>
+      <c r="G88" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1993</v>
+      </c>
+      <c r="B89">
+        <v>93364</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="3">
+        <v>30.31</v>
+      </c>
+      <c r="E89" t="s">
+        <v>285</v>
+      </c>
+      <c r="F89" t="s">
+        <v>286</v>
+      </c>
+      <c r="G89" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1993</v>
+      </c>
+      <c r="B90">
+        <v>93670</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="3">
+        <v>50</v>
+      </c>
+      <c r="E90" t="s">
+        <v>284</v>
+      </c>
+      <c r="F90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1993</v>
+      </c>
+      <c r="B91">
+        <v>93750</v>
+      </c>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" s="3">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>281</v>
+      </c>
+      <c r="F91" t="s">
+        <v>282</v>
+      </c>
+      <c r="G91" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1994</v>
+      </c>
+      <c r="B92">
+        <v>96815</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="3">
+        <v>49</v>
+      </c>
+      <c r="E92" t="s">
+        <v>278</v>
+      </c>
+      <c r="F92" t="s">
+        <v>280</v>
+      </c>
+      <c r="G92" t="s">
+        <v>239</v>
+      </c>
+      <c r="H92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1994</v>
+      </c>
+      <c r="B93">
+        <v>96900</v>
+      </c>
+      <c r="C93" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" s="3">
+        <v>48.49</v>
+      </c>
+      <c r="E93" t="s">
+        <v>278</v>
+      </c>
+      <c r="F93" t="s">
+        <v>279</v>
+      </c>
+      <c r="G93" t="s">
+        <v>239</v>
+      </c>
+      <c r="H93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1994</v>
+      </c>
+      <c r="B94">
+        <v>96934</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="3">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>276</v>
+      </c>
+      <c r="F94" t="s">
+        <v>277</v>
+      </c>
+      <c r="G94" t="s">
+        <v>239</v>
+      </c>
+      <c r="H94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1994</v>
+      </c>
+      <c r="B95">
+        <v>97246</v>
+      </c>
+      <c r="C95" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" s="3">
+        <v>80.81</v>
+      </c>
+      <c r="E95" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" t="s">
+        <v>275</v>
+      </c>
+      <c r="G95" t="s">
+        <v>239</v>
+      </c>
+      <c r="H95" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1994</v>
+      </c>
+      <c r="B96">
+        <v>98006</v>
+      </c>
+      <c r="C96" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" s="3">
+        <v>34</v>
+      </c>
+      <c r="E96" t="s">
+        <v>268</v>
+      </c>
+      <c r="F96" t="s">
+        <v>269</v>
+      </c>
+      <c r="G96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1994</v>
+      </c>
+      <c r="B97">
+        <v>99251</v>
+      </c>
+      <c r="C97" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" s="3">
+        <v>49</v>
+      </c>
+      <c r="E97" t="s">
+        <v>271</v>
+      </c>
+      <c r="F97" t="s">
+        <v>272</v>
+      </c>
+      <c r="G97" t="s">
+        <v>273</v>
+      </c>
+      <c r="H97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1996</v>
+      </c>
+      <c r="B98">
+        <v>102622</v>
+      </c>
+      <c r="C98" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="3">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" t="s">
+        <v>266</v>
+      </c>
+      <c r="G98" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1998</v>
+      </c>
+      <c r="B99">
+        <v>112488</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" s="3">
+        <v>32</v>
+      </c>
+      <c r="E99" t="s">
+        <v>263</v>
+      </c>
+      <c r="F99" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1998</v>
+      </c>
+      <c r="B100">
+        <v>112488</v>
+      </c>
+      <c r="C100" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="3">
+        <v>45</v>
+      </c>
+      <c r="E100" t="s">
+        <v>262</v>
+      </c>
+      <c r="F100" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2002</v>
+      </c>
+      <c r="B101">
+        <v>125736</v>
+      </c>
+      <c r="C101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E101" t="s">
+        <v>259</v>
+      </c>
+      <c r="F101" t="s">
+        <v>261</v>
+      </c>
+      <c r="G101" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2002</v>
+      </c>
+      <c r="B102">
+        <v>127885</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E102" t="s">
+        <v>254</v>
+      </c>
+      <c r="F102" t="s">
+        <v>256</v>
+      </c>
+      <c r="G102" t="s">
+        <v>239</v>
+      </c>
+      <c r="H102" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2002</v>
+      </c>
+      <c r="B103">
+        <v>127885</v>
+      </c>
+      <c r="C103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" s="3">
+        <v>67</v>
+      </c>
+      <c r="E103" t="s">
+        <v>257</v>
+      </c>
+      <c r="F103" t="s">
+        <v>225</v>
+      </c>
+      <c r="G103" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2002</v>
+      </c>
+      <c r="B104">
+        <v>127885</v>
+      </c>
+      <c r="C104" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" s="3">
+        <v>68</v>
+      </c>
+      <c r="E104" t="s">
+        <v>258</v>
+      </c>
+      <c r="F104" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2003</v>
+      </c>
+      <c r="B105">
+        <v>130036</v>
+      </c>
+      <c r="C105" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105">
+        <v>41.42</v>
+      </c>
+      <c r="E105" t="s">
+        <v>250</v>
+      </c>
+      <c r="F105" t="s">
+        <v>251</v>
+      </c>
+      <c r="G105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2004</v>
+      </c>
+      <c r="B106">
+        <v>137745</v>
+      </c>
+      <c r="C106" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E106" t="s">
+        <v>249</v>
+      </c>
+      <c r="F106" t="s">
+        <v>240</v>
+      </c>
+      <c r="G106" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2004</v>
+      </c>
+      <c r="B107">
+        <v>138446</v>
+      </c>
+      <c r="C107" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="3">
+        <v>25.26</v>
+      </c>
+      <c r="E107" t="s">
+        <v>243</v>
+      </c>
+      <c r="F107" t="s">
+        <v>244</v>
+      </c>
+      <c r="G107" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2005</v>
+      </c>
+      <c r="B108">
+        <v>139497</v>
+      </c>
+      <c r="C108" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F108" t="s">
+        <v>240</v>
+      </c>
+      <c r="G108" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2006</v>
+      </c>
+      <c r="B109">
+        <v>191579</v>
+      </c>
+      <c r="C109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="3">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>238</v>
+      </c>
+      <c r="F109" t="s">
+        <v>237</v>
+      </c>
+      <c r="G109" t="s">
+        <v>239</v>
+      </c>
+      <c r="H109" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2006</v>
+      </c>
+      <c r="B110">
+        <v>191580</v>
+      </c>
+      <c r="C110" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110" s="3">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>238</v>
+      </c>
+      <c r="F110" t="s">
+        <v>237</v>
+      </c>
+      <c r="G110" t="s">
+        <v>239</v>
+      </c>
+      <c r="H110" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2008</v>
+      </c>
+      <c r="B111">
+        <v>162430</v>
+      </c>
+      <c r="C111" t="s">
+        <v>197</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E111" t="s">
+        <v>236</v>
+      </c>
+      <c r="F111" t="s">
+        <v>225</v>
+      </c>
+      <c r="G111" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2008</v>
+      </c>
+      <c r="B112">
+        <v>163541</v>
+      </c>
+      <c r="C112" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E112" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" t="s">
+        <v>231</v>
+      </c>
+      <c r="G112" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2008</v>
+      </c>
+      <c r="B113">
+        <v>163541</v>
+      </c>
+      <c r="C113" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E113" t="s">
+        <v>234</v>
+      </c>
+      <c r="F113" t="s">
+        <v>225</v>
+      </c>
+      <c r="G113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2008</v>
+      </c>
+      <c r="B114">
+        <v>189457</v>
+      </c>
+      <c r="C114" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>228</v>
+      </c>
+      <c r="F114" t="s">
+        <v>225</v>
+      </c>
+      <c r="G114" t="s">
+        <v>225</v>
+      </c>
+      <c r="H114" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2008</v>
+      </c>
+      <c r="B115">
+        <v>189457</v>
+      </c>
+      <c r="C115" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
+        <v>225</v>
+      </c>
+      <c r="G115" t="s">
+        <v>225</v>
+      </c>
+      <c r="H115" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2011</v>
+      </c>
+      <c r="B116">
+        <v>191443</v>
+      </c>
+      <c r="C116" t="s">
+        <v>200</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E116" t="s">
+        <v>221</v>
+      </c>
+      <c r="F116" t="s">
+        <v>224</v>
+      </c>
+      <c r="G116" t="s">
+        <v>226</v>
+      </c>
+      <c r="H116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2019</v>
+      </c>
+      <c r="B117">
+        <v>370977</v>
+      </c>
+      <c r="C117" t="s">
+        <v>202</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E117" t="s">
+        <v>219</v>
+      </c>
+      <c r="F117" t="s">
+        <v>218</v>
+      </c>
+      <c r="G117" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2020</v>
+      </c>
+      <c r="B118">
+        <v>372603</v>
+      </c>
+      <c r="C118" t="s">
+        <v>203</v>
+      </c>
+      <c r="D118" s="3">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="E118" t="s">
+        <v>215</v>
+      </c>
+      <c r="F118" t="s">
+        <v>214</v>
+      </c>
+      <c r="G118" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2020</v>
+      </c>
+      <c r="B119">
+        <v>373788</v>
+      </c>
+      <c r="C119" t="s">
+        <v>204</v>
+      </c>
+      <c r="D119" s="3">
+        <v>34.35</v>
+      </c>
+      <c r="E119" t="s">
+        <v>213</v>
+      </c>
+      <c r="F119" t="s">
+        <v>211</v>
+      </c>
+      <c r="G119" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2018EA9-58FE-451A-BA4A-1665C2716D1B}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oriane\Documents\Oriane\Etudes\UU\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC48C7-2FC7-40E6-9B4D-C7F88DA04BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13629F66-B193-4CAB-AF3B-4FC27506C5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1020" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12330" yWindow="2520" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Feuil3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non OCRED - OCR Problems'!$A$1:$D$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="469">
   <si>
     <t>Amount</t>
   </si>
@@ -124,9 +125,6 @@
     <t>https://demo.humlab.umu.se/courier/110425engo.pdf</t>
   </si>
   <si>
-    <t>Page only partial, different format?</t>
-  </si>
-  <si>
     <t>4-8, 11-14, 17-18, 21-23, 28, 32-35, 38, 42-46</t>
   </si>
   <si>
@@ -275,9 +273,6 @@
   </si>
   <si>
     <t>Full article, contrasts</t>
-  </si>
-  <si>
-    <t>https://demo.humlab.umu.se/courier/074055engo.pdf</t>
   </si>
   <si>
     <t>year</t>
@@ -560,9 +555,6 @@
     <t>tagged_1986_068421</t>
   </si>
   <si>
-    <t>### UNINDEXED_ARTICLE: Treasures of Mongolia</t>
-  </si>
-  <si>
     <t>tagged_1991_089116</t>
   </si>
   <si>
@@ -669,9 +661,6 @@
 ### 73696: UNESCO and national cooperation</t>
   </si>
   <si>
-    <t>https://demo.humlab.umu.se/courier/073683engo.pdf</t>
-  </si>
-  <si>
     <t>Zhai Yongming</t>
   </si>
   <si>
@@ -1429,13 +1418,40 @@
   </si>
   <si>
     <t>Unesco Programme to stress exchange between museums</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Small caption. Text is white</t>
+  </si>
+  <si>
+    <t>Text is in italic, not recognized</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://demo.humlab.umu.se/courier/074055engo.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://demo.humlab.umu.se/courier/073683engo.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page only partial, different format? Not really OCR problem, but PDF. </t>
+  </si>
+  <si>
+    <t>Page 4 not okay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1451,8 +1467,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1493,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1485,7 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1508,6 +1548,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1873,370 +1916,425 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E267E64-219E-403F-B765-D80F38CD4AF0}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="3">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="3">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="3">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="3">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="3">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="3">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="3">
+        <v>6.13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="3">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>6.13</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" t="s">
-        <v>209</v>
+      <c r="C30" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D30" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D30" xr:uid="{4E267E64-219E-403F-B765-D80F38CD4AF0}"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{579372DB-DBB2-483A-BBB4-4AC01A065D8E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{8669FDFE-8F43-40D6-AA7D-D067BEEB24A3}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{532C9F82-3204-41E9-883B-67F35286BCF9}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{EC5AAA29-97CA-493A-B3A4-9F27EC4177D4}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{6C795AE9-AB0A-44A6-9E5C-5D4D6FB8CC87}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{DA54536B-E53F-4209-90AC-362CD68F1DE9}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{DCE6752C-3307-4789-BA03-235EC3DB5646}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{7CE236D2-B34A-4263-98EA-DE6A15574115}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{3D51ED55-6C72-4812-9632-9E7636068B85}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{E2FCAAF5-C6DF-4F1A-9383-B7FF176F8C8E}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{5917BBAD-3BA1-4374-860B-E4444E3E233C}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{51F801AC-0BDD-4602-88A7-8AF6D3DBDBE7}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{BD027968-47F9-4B18-983F-CFDBF46E8C24}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{CA0E445A-3111-47E4-8AA9-CB4EBF1679C5}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{FAD61D99-47A8-42F3-9207-9742C778EF5F}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{E47AF160-CD7E-4B49-91FA-F39A7653561B}"/>
-    <hyperlink ref="B15" r:id="rId17" xr:uid="{49A72256-D668-45FC-AF96-70C749D17CCF}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{579372DB-DBB2-483A-BBB4-4AC01A065D8E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8669FDFE-8F43-40D6-AA7D-D067BEEB24A3}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{532C9F82-3204-41E9-883B-67F35286BCF9}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{EC5AAA29-97CA-493A-B3A4-9F27EC4177D4}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{6C795AE9-AB0A-44A6-9E5C-5D4D6FB8CC87}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{DA54536B-E53F-4209-90AC-362CD68F1DE9}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{DCE6752C-3307-4789-BA03-235EC3DB5646}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{7CE236D2-B34A-4263-98EA-DE6A15574115}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{3D51ED55-6C72-4812-9632-9E7636068B85}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{E2FCAAF5-C6DF-4F1A-9383-B7FF176F8C8E}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{5917BBAD-3BA1-4374-860B-E4444E3E233C}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{51F801AC-0BDD-4602-88A7-8AF6D3DBDBE7}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{BD027968-47F9-4B18-983F-CFDBF46E8C24}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{CA0E445A-3111-47E4-8AA9-CB4EBF1679C5}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{FAD61D99-47A8-42F3-9207-9742C778EF5F}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{E47AF160-CD7E-4B49-91FA-F39A7653561B}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{49A72256-D668-45FC-AF96-70C749D17CCF}"/>
+    <hyperlink ref="C29" r:id="rId18" xr:uid="{0ACE5975-99E2-424D-BDC8-FCE679E27C88}"/>
+    <hyperlink ref="C30" r:id="rId19" xr:uid="{F3E86600-99BE-4FEB-8E6D-6AEE463DA4EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -2269,43 +2367,43 @@
         <v>18.190000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2313,32 +2411,32 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2357,10 +2455,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2410,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B859A92C-6D7D-4DD0-96D5-DBEDC18D3419}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,25 +2522,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" t="s">
         <v>205</v>
-      </c>
-      <c r="E1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2453,11 +2551,11 @@
         <v>146744</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2468,19 +2566,19 @@
         <v>73649</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3">
         <v>1.7</v>
       </c>
       <c r="E3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2491,19 +2589,19 @@
         <v>73649</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2514,19 +2612,19 @@
         <v>73683</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3">
         <v>1.8</v>
       </c>
       <c r="E5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2537,19 +2635,19 @@
         <v>73683</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2560,19 +2658,19 @@
         <v>73713</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3">
         <v>1.7</v>
       </c>
       <c r="E7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2583,19 +2681,19 @@
         <v>73741</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2606,19 +2704,19 @@
         <v>73774</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3">
         <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2629,19 +2727,19 @@
         <v>73774</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3">
         <v>4.5</v>
       </c>
       <c r="E10" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,19 +2750,19 @@
         <v>73790</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3">
         <v>1.6</v>
       </c>
       <c r="E11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,19 +2773,19 @@
         <v>73809</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3">
         <v>1.6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2698,19 +2796,19 @@
         <v>73829</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2721,19 +2819,19 @@
         <v>73850</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3">
         <v>1.2</v>
       </c>
       <c r="E14" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2744,19 +2842,19 @@
         <v>73867</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2767,19 +2865,19 @@
         <v>73867</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3">
         <v>1.2</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2790,19 +2888,19 @@
         <v>73938</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2813,19 +2911,19 @@
         <v>73956</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="3">
         <v>1.2</v>
       </c>
       <c r="E18" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2836,11 +2934,11 @@
         <v>73970</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="9"/>
       <c r="H19" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2851,19 +2949,19 @@
         <v>73993</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3">
         <v>1.2</v>
       </c>
       <c r="E20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2874,19 +2972,19 @@
         <v>74130</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" s="3">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F21" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2897,13 +2995,13 @@
         <v>74184</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="9">
         <v>8</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2914,19 +3012,19 @@
         <v>74946</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F23" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G23" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2937,11 +3035,11 @@
         <v>81370</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" s="9"/>
       <c r="H24" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2952,13 +3050,13 @@
         <v>81400</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2969,11 +3067,11 @@
         <v>81543</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" s="9"/>
       <c r="H26" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2984,11 +3082,11 @@
         <v>81564</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" s="9"/>
       <c r="H27" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2999,19 +3097,19 @@
         <v>71298</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3022,19 +3120,19 @@
         <v>71298</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D29" s="3">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3045,19 +3143,19 @@
         <v>73516</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3">
         <v>6.7</v>
       </c>
       <c r="E30" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F30" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G30" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3068,19 +3166,19 @@
         <v>73537</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F31" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3091,19 +3189,19 @@
         <v>73557</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F32" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3114,19 +3212,19 @@
         <v>74639</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D33" s="3">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3137,19 +3235,19 @@
         <v>74639</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D34" s="3">
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F34" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G34" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,19 +3258,19 @@
         <v>68941</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3183,19 +3281,19 @@
         <v>67218</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F36" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,19 +3304,19 @@
         <v>67562</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F37" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3229,19 +3327,19 @@
         <v>67956</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E38" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F38" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3252,19 +3350,19 @@
         <v>66142</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="3">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G39" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,19 +3373,19 @@
         <v>66142</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F40" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3298,19 +3396,19 @@
         <v>66182</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E41" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3321,19 +3419,19 @@
         <v>66222</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E42" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F42" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3344,19 +3442,19 @@
         <v>66244</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E43" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F43" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G43" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3367,19 +3465,19 @@
         <v>64895</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F44" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G44" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3390,19 +3488,19 @@
         <v>65221</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E45" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F45" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G45" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3413,19 +3511,19 @@
         <v>65278</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3436,19 +3534,19 @@
         <v>66059</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F47" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G47" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3459,19 +3557,19 @@
         <v>66107</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E48" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F48" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G48" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3482,19 +3580,19 @@
         <v>63808</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E49" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G49" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3505,19 +3603,19 @@
         <v>63847</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F50" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G50" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3528,19 +3626,19 @@
         <v>64092</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F51" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,19 +3649,19 @@
         <v>64240</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F52" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G52" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3574,19 +3672,19 @@
         <v>64255</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E53" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F53" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G53" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3597,19 +3695,19 @@
         <v>63456</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E54" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F54" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3620,19 +3718,19 @@
         <v>63659</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F55" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G55" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3643,19 +3741,19 @@
         <v>62672</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E56" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F56" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G56" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3666,19 +3764,19 @@
         <v>63381</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E57" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F57" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G57" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3689,19 +3787,19 @@
         <v>61386</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E58" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F58" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G58" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3712,19 +3810,19 @@
         <v>61468</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E59" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F59" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3735,19 +3833,19 @@
         <v>61952</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E60" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F60" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G60" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3758,19 +3856,19 @@
         <v>31600</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E61" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F61" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G61" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3781,19 +3879,19 @@
         <v>60488</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E62" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G62" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3804,19 +3902,19 @@
         <v>60510</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E63" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F63" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3827,19 +3925,19 @@
         <v>60619</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E64" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F64" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G64" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3850,19 +3948,19 @@
         <v>12656</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F65" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3873,19 +3971,19 @@
         <v>14256</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E66" t="s">
+        <v>334</v>
+      </c>
+      <c r="F66" t="s">
+        <v>336</v>
+      </c>
+      <c r="G66" t="s">
         <v>339</v>
-      </c>
-      <c r="E66" t="s">
-        <v>338</v>
-      </c>
-      <c r="F66" t="s">
-        <v>340</v>
-      </c>
-      <c r="G66" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3896,19 +3994,19 @@
         <v>16653</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" t="s">
+        <v>332</v>
+      </c>
+      <c r="F67" t="s">
         <v>337</v>
       </c>
-      <c r="E67" t="s">
-        <v>336</v>
-      </c>
-      <c r="F67" t="s">
-        <v>341</v>
-      </c>
       <c r="G67" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3919,19 +4017,19 @@
         <v>20805</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E68" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G68" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3942,19 +4040,19 @@
         <v>28352</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D69" s="3">
         <v>5.6</v>
       </c>
       <c r="E69" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F69" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3965,19 +4063,19 @@
         <v>32667</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E70" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F70" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G70" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3988,19 +4086,19 @@
         <v>33144</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" s="3">
         <v>4.5</v>
       </c>
       <c r="E71" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F71" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G71" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4011,19 +4109,19 @@
         <v>59683</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E72" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4034,19 +4132,19 @@
         <v>58803</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="3">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F73" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G73" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4057,19 +4155,19 @@
         <v>58953</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D74" s="3">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4080,19 +4178,19 @@
         <v>59301</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E75" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F75" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G75" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4103,22 +4201,22 @@
         <v>78431</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D76" s="3">
         <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F76" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G76" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H76" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4129,22 +4227,22 @@
         <v>53853</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E77" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G77" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H77" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4155,19 +4253,19 @@
         <v>74816</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D78" s="3">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F78" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G78" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4178,19 +4276,19 @@
         <v>74755</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4201,19 +4299,19 @@
         <v>74756</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F80" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G80" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4224,19 +4322,19 @@
         <v>74758</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F81" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G81" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,22 +4345,19 @@
         <v>68421</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E82" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F82" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G82" t="s">
-        <v>301</v>
-      </c>
-      <c r="H82" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4273,19 +4368,19 @@
         <v>89116</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D83" s="3">
         <v>53</v>
       </c>
       <c r="E83" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F83" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G83" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4296,19 +4391,19 @@
         <v>92021</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D84" s="3">
         <v>40.409999999999997</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F84" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G84" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4319,19 +4414,19 @@
         <v>93019</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D85" s="3">
         <v>26.27</v>
       </c>
       <c r="E85" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F85" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G85" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4342,19 +4437,19 @@
         <v>93019</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D86" s="3">
         <v>28.29</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F86" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G86" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4365,19 +4460,19 @@
         <v>93364</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D87" s="3">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F87" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G87" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4388,19 +4483,19 @@
         <v>93364</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D88" s="3">
         <v>28.29</v>
       </c>
       <c r="E88" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F88" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G88" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4411,19 +4506,19 @@
         <v>93364</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D89" s="3">
         <v>30.31</v>
       </c>
       <c r="E89" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F89" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G89" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4434,16 +4529,16 @@
         <v>93670</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D90" s="3">
         <v>50</v>
       </c>
       <c r="E90" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F90" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4454,19 +4549,19 @@
         <v>93750</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D91" s="3">
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F91" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G91" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4477,22 +4572,22 @@
         <v>96815</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D92" s="3">
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F92" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G92" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H92" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4503,22 +4598,22 @@
         <v>96900</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D93" s="3">
         <v>48.49</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F93" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G93" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H93" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4529,22 +4624,22 @@
         <v>96934</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D94" s="3">
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F94" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G94" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H94" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4555,22 +4650,22 @@
         <v>97246</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D95" s="3">
         <v>80.81</v>
       </c>
       <c r="E95" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F95" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G95" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H95" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4581,19 +4676,19 @@
         <v>98006</v>
       </c>
       <c r="C96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D96" s="3">
         <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F96" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G96" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4604,22 +4699,22 @@
         <v>99251</v>
       </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D97" s="3">
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F97" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G97" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H97" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4630,19 +4725,19 @@
         <v>102622</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D98" s="3">
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F98" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G98" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4653,19 +4748,19 @@
         <v>112488</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D99" s="3">
         <v>32</v>
       </c>
       <c r="E99" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F99" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G99" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4676,19 +4771,19 @@
         <v>112488</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D100" s="3">
         <v>45</v>
       </c>
       <c r="E100" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F100" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G100" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4699,19 +4794,19 @@
         <v>125736</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E101" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F101" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G101" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4722,22 +4817,22 @@
         <v>127885</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E102" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F102" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G102" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H102" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4748,19 +4843,19 @@
         <v>127885</v>
       </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D103" s="3">
         <v>67</v>
       </c>
       <c r="E103" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F103" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G103" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4771,19 +4866,19 @@
         <v>127885</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D104" s="3">
         <v>68</v>
       </c>
       <c r="E104" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F104" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G104" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4794,19 +4889,19 @@
         <v>130036</v>
       </c>
       <c r="C105" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D105">
         <v>41.42</v>
       </c>
       <c r="E105" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F105" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G105" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4817,19 +4912,19 @@
         <v>137745</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F106" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G106" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4840,19 +4935,19 @@
         <v>138446</v>
       </c>
       <c r="C107" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D107" s="3">
         <v>25.26</v>
       </c>
       <c r="E107" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F107" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4863,19 +4958,19 @@
         <v>139497</v>
       </c>
       <c r="C108" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F108" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G108" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4886,22 +4981,22 @@
         <v>191579</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D109" s="3">
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G109" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H109" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4912,22 +5007,22 @@
         <v>191580</v>
       </c>
       <c r="C110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D110" s="3">
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F110" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G110" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H110" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4938,19 +5033,19 @@
         <v>162430</v>
       </c>
       <c r="C111" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E111" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F111" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G111" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4961,19 +5056,19 @@
         <v>163541</v>
       </c>
       <c r="C112" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E112" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F112" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G112" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4984,19 +5079,19 @@
         <v>163541</v>
       </c>
       <c r="C113" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -5007,22 +5102,22 @@
         <v>189457</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D114" s="6">
         <v>39.4</v>
       </c>
       <c r="E114" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F114" t="s">
+        <v>221</v>
+      </c>
+      <c r="G114" t="s">
+        <v>221</v>
+      </c>
+      <c r="H114" t="s">
         <v>225</v>
-      </c>
-      <c r="G114" t="s">
-        <v>225</v>
-      </c>
-      <c r="H114" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -5033,22 +5128,22 @@
         <v>189457</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E115" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H115" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -5059,22 +5154,22 @@
         <v>191443</v>
       </c>
       <c r="C116" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G116" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H116" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -5085,19 +5180,19 @@
         <v>370977</v>
       </c>
       <c r="C117" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G117" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5108,19 +5203,19 @@
         <v>372603</v>
       </c>
       <c r="C118" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D118" s="3">
         <v>18.190000000000001</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G118" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5131,19 +5226,19 @@
         <v>373788</v>
       </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D119" s="3">
         <v>34.35</v>
       </c>
       <c r="E119" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F119" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G119" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oriane\Documents\Oriane\Etudes\UU\Job\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13629F66-B193-4CAB-AF3B-4FC27506C5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150A3A2F-E0FF-4418-BFE0-4D8E05C3EBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12330" yWindow="2520" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Feuil3" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non OCRED - OCR Problems'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non OCRED - OCR Problems'!$A$1:$D$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="469">
   <si>
     <t>Amount</t>
   </si>
@@ -101,9 +101,6 @@
     <t>https://demo.humlab.umu.se/courier/078306engo.pdf</t>
   </si>
   <si>
-    <t>https://demo.humlab.umu.se/courier/078245engo.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://demo.humlab.umu.se/courier/078245engo.pdf </t>
   </si>
   <si>
@@ -156,9 +153,6 @@
   </si>
   <si>
     <t>https://demo.humlab.umu.se/courier/078152engo.pdf</t>
-  </si>
-  <si>
-    <t>Page</t>
   </si>
   <si>
     <t>https://demo.humlab.umu.se/courier/067956engo.pdf</t>
@@ -1445,6 +1439,12 @@
   </si>
   <si>
     <t>Page 4 not okay</t>
+  </si>
+  <si>
+    <t>Caption. Text is white</t>
+  </si>
+  <si>
+    <t>Pages. Text in italic</t>
   </si>
 </sst>
 </file>
@@ -1916,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E267E64-219E-403F-B765-D80F38CD4AF0}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,10 +1930,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1953,12 +1953,12 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1995,12 +1995,12 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -2009,18 +2009,18 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B7">
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -2042,13 +2042,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -2056,262 +2056,258 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B10" s="3">
         <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="B14" s="3">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="B15" s="3">
         <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="B17" s="3">
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="B18" s="3">
         <v>4.5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="B19" s="3">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="B21" s="3">
-        <v>14</v>
+        <v>6.13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="B22" s="3">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="B23" s="3">
-        <v>6.13</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
-      <c r="B25" s="3">
-        <v>5</v>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="3" t="s">
-        <v>68</v>
+      <c r="B26" s="3">
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="3">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>76</v>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D30" xr:uid="{4E267E64-219E-403F-B765-D80F38CD4AF0}"/>
+  <autoFilter ref="A1:D28" xr:uid="{4E267E64-219E-403F-B765-D80F38CD4AF0}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{579372DB-DBB2-483A-BBB4-4AC01A065D8E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{8669FDFE-8F43-40D6-AA7D-D067BEEB24A3}"/>
@@ -2330,11 +2326,14 @@
     <hyperlink ref="C18" r:id="rId15" xr:uid="{FAD61D99-47A8-42F3-9207-9742C778EF5F}"/>
     <hyperlink ref="C17" r:id="rId16" xr:uid="{E47AF160-CD7E-4B49-91FA-F39A7653561B}"/>
     <hyperlink ref="C15" r:id="rId17" xr:uid="{49A72256-D668-45FC-AF96-70C749D17CCF}"/>
-    <hyperlink ref="C29" r:id="rId18" xr:uid="{0ACE5975-99E2-424D-BDC8-FCE679E27C88}"/>
-    <hyperlink ref="C30" r:id="rId19" xr:uid="{F3E86600-99BE-4FEB-8E6D-6AEE463DA4EE}"/>
+    <hyperlink ref="C27" r:id="rId18" xr:uid="{0ACE5975-99E2-424D-BDC8-FCE679E27C88}"/>
+    <hyperlink ref="C28" r:id="rId19" xr:uid="{F3E86600-99BE-4FEB-8E6D-6AEE463DA4EE}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{85F49396-51E4-4CD0-941C-6B23E1DC9C57}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{C4910F84-6EAE-46C2-8D3D-1C99CFD15C28}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{4BC3EC70-D6E8-442F-95BE-1C10029BB0EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -2367,43 +2366,43 @@
         <v>18.190000000000001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,32 +2410,32 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2444,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2455,10 +2454,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2522,25 +2521,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
       <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
         <v>202</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>203</v>
-      </c>
-      <c r="F1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2551,11 +2550,11 @@
         <v>146744</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2566,19 +2565,19 @@
         <v>73649</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3">
         <v>1.7</v>
       </c>
       <c r="E3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2589,19 +2588,19 @@
         <v>73649</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2612,19 +2611,19 @@
         <v>73683</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3">
         <v>1.8</v>
       </c>
       <c r="E5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2635,19 +2634,19 @@
         <v>73683</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2658,19 +2657,19 @@
         <v>73713</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3">
         <v>1.7</v>
       </c>
       <c r="E7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2681,19 +2680,19 @@
         <v>73741</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2704,19 +2703,19 @@
         <v>73774</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3">
         <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2727,19 +2726,19 @@
         <v>73774</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3">
         <v>4.5</v>
       </c>
       <c r="E10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2750,19 +2749,19 @@
         <v>73790</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3">
         <v>1.6</v>
       </c>
       <c r="E11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2773,19 +2772,19 @@
         <v>73809</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3">
         <v>1.6</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2796,19 +2795,19 @@
         <v>73829</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,19 +2818,19 @@
         <v>73850</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3">
         <v>1.2</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2842,19 +2841,19 @@
         <v>73867</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2865,19 +2864,19 @@
         <v>73867</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="3">
         <v>1.2</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,19 +2887,19 @@
         <v>73938</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2911,19 +2910,19 @@
         <v>73956</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3">
         <v>1.2</v>
       </c>
       <c r="E18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2934,11 +2933,11 @@
         <v>73970</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="9"/>
       <c r="H19" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2949,19 +2948,19 @@
         <v>73993</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="3">
         <v>1.2</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,19 +2971,19 @@
         <v>74130</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2995,13 +2994,13 @@
         <v>74184</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22" s="9">
         <v>8</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,19 +3011,19 @@
         <v>74946</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" t="s">
+        <v>436</v>
+      </c>
+      <c r="G23" t="s">
         <v>437</v>
-      </c>
-      <c r="F23" t="s">
-        <v>438</v>
-      </c>
-      <c r="G23" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3035,11 +3034,11 @@
         <v>81370</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D24" s="9"/>
       <c r="H24" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3050,13 +3049,13 @@
         <v>81400</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3067,11 +3066,11 @@
         <v>81543</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" s="9"/>
       <c r="H26" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3082,11 +3081,11 @@
         <v>81564</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" s="9"/>
       <c r="H27" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3097,19 +3096,19 @@
         <v>71298</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3120,19 +3119,19 @@
         <v>71298</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" s="3">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3143,19 +3142,19 @@
         <v>73516</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D30" s="3">
         <v>6.7</v>
       </c>
       <c r="E30" t="s">
+        <v>430</v>
+      </c>
+      <c r="F30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G30" t="s">
         <v>432</v>
-      </c>
-      <c r="F30" t="s">
-        <v>433</v>
-      </c>
-      <c r="G30" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3166,19 +3165,19 @@
         <v>73537</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F31" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3189,19 +3188,19 @@
         <v>73557</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E32" t="s">
+        <v>426</v>
+      </c>
+      <c r="F32" t="s">
         <v>427</v>
       </c>
-      <c r="E32" t="s">
-        <v>428</v>
-      </c>
-      <c r="F32" t="s">
-        <v>429</v>
-      </c>
       <c r="G32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3212,19 +3211,19 @@
         <v>74639</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="3">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F33" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3235,19 +3234,19 @@
         <v>74639</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" s="3">
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3258,19 +3257,19 @@
         <v>68941</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3281,19 +3280,19 @@
         <v>67218</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3304,19 +3303,19 @@
         <v>67562</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F37" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3327,19 +3326,19 @@
         <v>67956</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F38" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3350,19 +3349,19 @@
         <v>66142</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="3">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3373,19 +3372,19 @@
         <v>66142</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E40" t="s">
+        <v>410</v>
+      </c>
+      <c r="F40" t="s">
         <v>412</v>
       </c>
-      <c r="F40" t="s">
-        <v>414</v>
-      </c>
       <c r="G40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3396,19 +3395,19 @@
         <v>66182</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3419,19 +3418,19 @@
         <v>66222</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3442,19 +3441,19 @@
         <v>66244</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E43" t="s">
+        <v>401</v>
+      </c>
+      <c r="F43" t="s">
+        <v>402</v>
+      </c>
+      <c r="G43" t="s">
         <v>403</v>
-      </c>
-      <c r="F43" t="s">
-        <v>404</v>
-      </c>
-      <c r="G43" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3465,19 +3464,19 @@
         <v>64895</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3488,19 +3487,19 @@
         <v>65221</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E45" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F45" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3511,19 +3510,19 @@
         <v>65278</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3534,19 +3533,19 @@
         <v>66059</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
+        <v>391</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" t="s">
         <v>393</v>
-      </c>
-      <c r="F47" t="s">
-        <v>394</v>
-      </c>
-      <c r="G47" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3557,19 +3556,19 @@
         <v>66107</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3580,19 +3579,19 @@
         <v>63808</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E49" t="s">
+        <v>384</v>
+      </c>
+      <c r="F49" t="s">
+        <v>385</v>
+      </c>
+      <c r="G49" t="s">
         <v>386</v>
-      </c>
-      <c r="F49" t="s">
-        <v>387</v>
-      </c>
-      <c r="G49" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3603,19 +3602,19 @@
         <v>63847</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F50" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3626,19 +3625,19 @@
         <v>64092</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F51" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3649,19 +3648,19 @@
         <v>64240</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E52" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3672,19 +3671,19 @@
         <v>64255</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E53" t="s">
+        <v>376</v>
+      </c>
+      <c r="F53" t="s">
         <v>378</v>
       </c>
-      <c r="F53" t="s">
-        <v>380</v>
-      </c>
       <c r="G53" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3695,19 +3694,19 @@
         <v>63456</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E54" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3718,19 +3717,19 @@
         <v>63659</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E55" t="s">
+        <v>368</v>
+      </c>
+      <c r="F55" t="s">
+        <v>367</v>
+      </c>
+      <c r="G55" t="s">
         <v>370</v>
-      </c>
-      <c r="F55" t="s">
-        <v>369</v>
-      </c>
-      <c r="G55" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3741,19 +3740,19 @@
         <v>62672</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E56" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F56" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3764,19 +3763,19 @@
         <v>63381</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E57" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F57" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3787,19 +3786,19 @@
         <v>61386</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E58" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F58" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3810,19 +3809,19 @@
         <v>61468</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F59" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3833,19 +3832,19 @@
         <v>61952</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E60" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F60" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3856,19 +3855,19 @@
         <v>31600</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3879,19 +3878,19 @@
         <v>60488</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E62" t="s">
+        <v>345</v>
+      </c>
+      <c r="F62" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62" t="s">
         <v>347</v>
-      </c>
-      <c r="F62" t="s">
-        <v>348</v>
-      </c>
-      <c r="G62" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3902,19 +3901,19 @@
         <v>60510</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E63" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F63" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3925,19 +3924,19 @@
         <v>60619</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E64" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F64" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3948,19 +3947,19 @@
         <v>12656</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F65" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3971,19 +3970,19 @@
         <v>14256</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E66" t="s">
+        <v>332</v>
+      </c>
+      <c r="F66" t="s">
         <v>334</v>
       </c>
-      <c r="F66" t="s">
-        <v>336</v>
-      </c>
       <c r="G66" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3994,19 +3993,19 @@
         <v>16653</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E67" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F67" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G67" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4017,19 +4016,19 @@
         <v>20805</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E68" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F68" t="s">
+        <v>326</v>
+      </c>
+      <c r="G68" t="s">
         <v>328</v>
-      </c>
-      <c r="G68" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4040,19 +4039,19 @@
         <v>28352</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D69" s="3">
         <v>5.6</v>
       </c>
       <c r="E69" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F69" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G69" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4063,19 +4062,19 @@
         <v>32667</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E70" t="s">
+        <v>321</v>
+      </c>
+      <c r="F70" t="s">
+        <v>320</v>
+      </c>
+      <c r="G70" t="s">
         <v>323</v>
-      </c>
-      <c r="F70" t="s">
-        <v>322</v>
-      </c>
-      <c r="G70" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4086,19 +4085,19 @@
         <v>33144</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D71" s="3">
         <v>4.5</v>
       </c>
       <c r="E71" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F71" t="s">
+        <v>317</v>
+      </c>
+      <c r="G71" t="s">
         <v>319</v>
-      </c>
-      <c r="G71" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4109,19 +4108,19 @@
         <v>59683</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E72" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4132,19 +4131,19 @@
         <v>58803</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D73" s="3">
         <v>4</v>
       </c>
       <c r="E73" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" t="s">
         <v>314</v>
-      </c>
-      <c r="F73" t="s">
-        <v>315</v>
-      </c>
-      <c r="G73" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4155,19 +4154,19 @@
         <v>58953</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D74" s="3">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4178,19 +4177,19 @@
         <v>59301</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" t="s">
+        <v>309</v>
+      </c>
+      <c r="G75" t="s">
         <v>310</v>
-      </c>
-      <c r="F75" t="s">
-        <v>311</v>
-      </c>
-      <c r="G75" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4201,22 +4200,22 @@
         <v>78431</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D76" s="3">
         <v>36</v>
       </c>
       <c r="E76" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H76" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4227,22 +4226,22 @@
         <v>53853</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E77" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" t="s">
+        <v>302</v>
+      </c>
+      <c r="G77" t="s">
+        <v>233</v>
+      </c>
+      <c r="H77" t="s">
         <v>305</v>
-      </c>
-      <c r="F77" t="s">
-        <v>304</v>
-      </c>
-      <c r="G77" t="s">
-        <v>235</v>
-      </c>
-      <c r="H77" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4253,19 +4252,19 @@
         <v>74816</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D78" s="3">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F78" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G78" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4276,19 +4275,19 @@
         <v>74755</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E79" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4299,19 +4298,19 @@
         <v>74756</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4322,19 +4321,19 @@
         <v>74758</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4345,19 +4344,19 @@
         <v>68421</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E82" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F82" t="s">
+        <v>293</v>
+      </c>
+      <c r="G82" t="s">
         <v>295</v>
-      </c>
-      <c r="G82" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4368,19 +4367,19 @@
         <v>89116</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D83" s="3">
         <v>53</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F83" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G83" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4391,19 +4390,19 @@
         <v>92021</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D84" s="3">
         <v>40.409999999999997</v>
       </c>
       <c r="E84" t="s">
+        <v>287</v>
+      </c>
+      <c r="F84" t="s">
+        <v>288</v>
+      </c>
+      <c r="G84" t="s">
         <v>289</v>
-      </c>
-      <c r="F84" t="s">
-        <v>290</v>
-      </c>
-      <c r="G84" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4414,19 +4413,19 @@
         <v>93019</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D85" s="3">
         <v>26.27</v>
       </c>
       <c r="E85" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F85" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G85" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4437,19 +4436,19 @@
         <v>93019</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D86" s="3">
         <v>28.29</v>
       </c>
       <c r="E86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G86" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4460,19 +4459,19 @@
         <v>93364</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D87" s="3">
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4483,19 +4482,19 @@
         <v>93364</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D88" s="3">
         <v>28.29</v>
       </c>
       <c r="E88" t="s">
+        <v>282</v>
+      </c>
+      <c r="F88" t="s">
+        <v>281</v>
+      </c>
+      <c r="G88" t="s">
         <v>284</v>
-      </c>
-      <c r="F88" t="s">
-        <v>283</v>
-      </c>
-      <c r="G88" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4506,19 +4505,19 @@
         <v>93364</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D89" s="3">
         <v>30.31</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F89" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G89" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4529,16 +4528,16 @@
         <v>93670</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D90" s="3">
         <v>50</v>
       </c>
       <c r="E90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F90" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4549,19 +4548,19 @@
         <v>93750</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D91" s="3">
         <v>19</v>
       </c>
       <c r="E91" t="s">
+        <v>275</v>
+      </c>
+      <c r="F91" t="s">
+        <v>276</v>
+      </c>
+      <c r="G91" t="s">
         <v>277</v>
-      </c>
-      <c r="F91" t="s">
-        <v>278</v>
-      </c>
-      <c r="G91" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,22 +4571,22 @@
         <v>96815</v>
       </c>
       <c r="C92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D92" s="3">
         <v>49</v>
       </c>
       <c r="E92" t="s">
+        <v>272</v>
+      </c>
+      <c r="F92" t="s">
         <v>274</v>
       </c>
-      <c r="F92" t="s">
-        <v>276</v>
-      </c>
       <c r="G92" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4598,22 +4597,22 @@
         <v>96900</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D93" s="3">
         <v>48.49</v>
       </c>
       <c r="E93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H93" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4624,22 +4623,22 @@
         <v>96934</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D94" s="3">
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G94" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H94" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4650,22 +4649,22 @@
         <v>97246</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D95" s="3">
         <v>80.81</v>
       </c>
       <c r="E95" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F95" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G95" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H95" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4676,19 +4675,19 @@
         <v>98006</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D96" s="3">
         <v>34</v>
       </c>
       <c r="E96" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F96" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G96" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4699,22 +4698,22 @@
         <v>99251</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D97" s="3">
         <v>49</v>
       </c>
       <c r="E97" t="s">
+        <v>265</v>
+      </c>
+      <c r="F97" t="s">
+        <v>266</v>
+      </c>
+      <c r="G97" t="s">
         <v>267</v>
       </c>
-      <c r="F97" t="s">
-        <v>268</v>
-      </c>
-      <c r="G97" t="s">
-        <v>269</v>
-      </c>
       <c r="H97" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4725,19 +4724,19 @@
         <v>102622</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D98" s="3">
         <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F98" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G98" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4748,19 +4747,19 @@
         <v>112488</v>
       </c>
       <c r="C99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D99" s="3">
         <v>32</v>
       </c>
       <c r="E99" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F99" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4771,19 +4770,19 @@
         <v>112488</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D100" s="3">
         <v>45</v>
       </c>
       <c r="E100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F100" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4794,19 +4793,19 @@
         <v>125736</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E101" t="s">
+        <v>253</v>
+      </c>
+      <c r="F101" t="s">
         <v>255</v>
       </c>
-      <c r="F101" t="s">
-        <v>257</v>
-      </c>
       <c r="G101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4817,22 +4816,22 @@
         <v>127885</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102" t="s">
+        <v>248</v>
+      </c>
+      <c r="F102" t="s">
+        <v>250</v>
+      </c>
+      <c r="G102" t="s">
+        <v>233</v>
+      </c>
+      <c r="H102" t="s">
         <v>249</v>
-      </c>
-      <c r="E102" t="s">
-        <v>250</v>
-      </c>
-      <c r="F102" t="s">
-        <v>252</v>
-      </c>
-      <c r="G102" t="s">
-        <v>235</v>
-      </c>
-      <c r="H102" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4843,19 +4842,19 @@
         <v>127885</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D103" s="3">
         <v>67</v>
       </c>
       <c r="E103" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F103" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G103" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4866,19 +4865,19 @@
         <v>127885</v>
       </c>
       <c r="C104" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D104" s="3">
         <v>68</v>
       </c>
       <c r="E104" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F104" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G104" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4889,19 +4888,19 @@
         <v>130036</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D105">
         <v>41.42</v>
       </c>
       <c r="E105" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" t="s">
+        <v>245</v>
+      </c>
+      <c r="G105" t="s">
         <v>246</v>
-      </c>
-      <c r="F105" t="s">
-        <v>247</v>
-      </c>
-      <c r="G105" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4912,19 +4911,19 @@
         <v>137745</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E106" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F106" t="s">
+        <v>234</v>
+      </c>
+      <c r="G106" t="s">
         <v>236</v>
-      </c>
-      <c r="G106" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4935,19 +4934,19 @@
         <v>138446</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D107" s="3">
         <v>25.26</v>
       </c>
       <c r="E107" t="s">
+        <v>237</v>
+      </c>
+      <c r="F107" t="s">
+        <v>238</v>
+      </c>
+      <c r="G107" t="s">
         <v>239</v>
-      </c>
-      <c r="F107" t="s">
-        <v>240</v>
-      </c>
-      <c r="G107" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4958,19 +4957,19 @@
         <v>139497</v>
       </c>
       <c r="C108" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F108" t="s">
+        <v>234</v>
+      </c>
+      <c r="G108" t="s">
         <v>236</v>
-      </c>
-      <c r="G108" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4981,22 +4980,22 @@
         <v>191579</v>
       </c>
       <c r="C109" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D109" s="3">
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F109" t="s">
+        <v>231</v>
+      </c>
+      <c r="G109" t="s">
         <v>233</v>
       </c>
-      <c r="G109" t="s">
-        <v>235</v>
-      </c>
       <c r="H109" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5007,22 +5006,22 @@
         <v>191580</v>
       </c>
       <c r="C110" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D110" s="3">
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F110" t="s">
+        <v>231</v>
+      </c>
+      <c r="G110" t="s">
         <v>233</v>
       </c>
-      <c r="G110" t="s">
-        <v>235</v>
-      </c>
       <c r="H110" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5033,19 +5032,19 @@
         <v>162430</v>
       </c>
       <c r="C111" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E111" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -5056,19 +5055,19 @@
         <v>163541</v>
       </c>
       <c r="C112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D112" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E112" t="s">
         <v>226</v>
       </c>
-      <c r="E112" t="s">
-        <v>228</v>
-      </c>
       <c r="F112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -5079,19 +5078,19 @@
         <v>163541</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E113" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -5102,22 +5101,22 @@
         <v>189457</v>
       </c>
       <c r="C114" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D114" s="6">
         <v>39.4</v>
       </c>
       <c r="E114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -5128,22 +5127,22 @@
         <v>189457</v>
       </c>
       <c r="C115" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -5154,22 +5153,22 @@
         <v>191443</v>
       </c>
       <c r="C116" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
+        <v>218</v>
+      </c>
+      <c r="G116" t="s">
         <v>220</v>
       </c>
-      <c r="G116" t="s">
-        <v>222</v>
-      </c>
       <c r="H116" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -5180,19 +5179,19 @@
         <v>370977</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E117" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F117" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5203,19 +5202,19 @@
         <v>372603</v>
       </c>
       <c r="C118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D118" s="3">
         <v>18.190000000000001</v>
       </c>
       <c r="E118" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F118" t="s">
+        <v>208</v>
+      </c>
+      <c r="G118" t="s">
         <v>210</v>
-      </c>
-      <c r="G118" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5226,19 +5225,19 @@
         <v>373788</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D119" s="3">
         <v>34.35</v>
       </c>
       <c r="E119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F119" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G119" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="467">
   <si>
     <t xml:space="preserve">Amount</t>
   </si>
@@ -71,30 +71,30 @@
     <t xml:space="preserve">Comment</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://demo.humlab.umu.se/courier/070990engo.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small caption. Text is white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://demo.humlab.umu.se/courier/071076engo.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footnotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://demo.humlab.umu.se/courier/071135engo.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text </t>
+  </si>
+  <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
-    <t xml:space="preserve">https://demo.humlab.umu.se/courier/070990engo.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small caption. Text is white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://demo.humlab.umu.se/courier/071076engo.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footnotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://demo.humlab.umu.se/courier/071135engo.pdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://demo.humlab.umu.se/courier/078141engo.pdf </t>
   </si>
   <si>
@@ -167,6 +167,9 @@
     <t xml:space="preserve">Caption. Text is white</t>
   </si>
   <si>
+    <t xml:space="preserve">4,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://demo.humlab.umu.se/courier/066182engo.pdf</t>
   </si>
   <si>
@@ -197,7 +200,7 @@
     <t xml:space="preserve">https://demo.humlab.umu.se/courier/081370engo.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">2,7,9,12</t>
+    <t xml:space="preserve">2,9</t>
   </si>
   <si>
     <t xml:space="preserve">https://demo.humlab.umu.se/courier/074977engo.pdf</t>
@@ -215,9 +218,6 @@
     <t xml:space="preserve">https://demo.humlab.umu.se/courier/074184engo.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">9,16,26</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://demo.humlab.umu.se/courier/074055engo.pdf </t>
   </si>
   <si>
@@ -227,8 +227,7 @@
     <t xml:space="preserve">https://demo.humlab.umu.se/courier/073683engo.pdf </t>
   </si>
   <si>
-    <t xml:space="preserve">Article page 4, 
-### 73696: UNESCO and national cooperation</t>
+    <t xml:space="preserve">Article p 4</t>
   </si>
   <si>
     <t xml:space="preserve">Pages 18 and 19 are on the same page, off from then</t>
@@ -1482,7 +1481,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1497,14 +1496,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <fgColor rgb="FFDC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFDC0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1551,16 +1556,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,6 +1589,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1592,11 +1601,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1604,7 +1613,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1622,11 +1631,18 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDC0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1670,7 +1686,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFDC0000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -1738,74 +1754,74 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1825,119 +1841,119 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B4" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>27</v>
@@ -1945,13 +1961,13 @@
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
+      <c r="A9" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
@@ -1959,13 +1975,13 @@
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
+      <c r="A10" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>44</v>
@@ -1973,13 +1989,13 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
+      <c r="A11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
@@ -1987,8 +2003,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
+      <c r="A12" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>4</v>
@@ -1996,13 +2012,13 @@
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
+      <c r="A13" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>37</v>
@@ -2010,13 +2026,13 @@
       <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
+      <c r="A14" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>15</v>
@@ -2024,11 +2040,11 @@
       <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2038,11 +2054,11 @@
       <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -2052,11 +2068,11 @@
       <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2066,39 +2082,39 @@
       <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="n">
-        <v>4.5</v>
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
+      <c r="A19" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -2106,83 +2122,83 @@
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="0" t="s">
         <v>50</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
+      <c r="A21" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
+      <c r="A22" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
+      <c r="A23" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
+      <c r="A24" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>14</v>
+      <c r="A25" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="0" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
@@ -2190,38 +2206,43 @@
         <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>62</v>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2280,30 +2301,30 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>18.19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2314,7 +2335,7 @@
       <c r="B3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2325,18 +2346,18 @@
       <c r="B4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2347,7 +2368,7 @@
       <c r="B6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2358,18 +2379,18 @@
       <c r="B7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2380,7 +2401,7 @@
       <c r="B9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2391,7 +2412,7 @@
       <c r="B10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2400,7 +2421,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2455,2732 +2476,2732 @@
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+    <row r="2" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
         <v>1947</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="11" t="n">
         <v>146744</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="H2" s="10" t="s">
+      <c r="D2" s="12"/>
+      <c r="H2" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>73649</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>1.7</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>73649</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>73683</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>1.8</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>73683</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="F6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>73713</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>1.7</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>73741</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="F8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>73774</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="F9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>73774</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>73790</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>1.6</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="F11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>73809</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>1.6</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="F12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>73829</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="F13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>73850</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="F14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>73867</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="F15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>73867</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="F16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>73938</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>73956</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="F18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
         <v>1949</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="11" t="n">
         <v>73970</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="H19" s="13" t="s">
+      <c r="D19" s="12"/>
+      <c r="H19" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>73993</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="F20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>74130</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+    <row r="22" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
         <v>1949</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="11" t="n">
         <v>74184</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D22" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="14" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>74946</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
+    <row r="24" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="n">
         <v>1950</v>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="11" t="n">
         <v>81370</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="H24" s="13" t="s">
+      <c r="D24" s="12"/>
+      <c r="H24" s="14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
+    <row r="25" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="n">
         <v>1950</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="11" t="n">
         <v>81400</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
+    <row r="26" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="n">
         <v>1950</v>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="11" t="n">
         <v>81543</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="H26" s="10" t="s">
+      <c r="D26" s="12"/>
+      <c r="H26" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+    <row r="27" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="n">
         <v>1950</v>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B27" s="11" t="n">
         <v>81564</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="H27" s="10" t="s">
+      <c r="D27" s="12"/>
+      <c r="H27" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>71298</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D28" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="0" t="s">
+      <c r="F28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>71298</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D29" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="F29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>73516</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D30" s="7" t="n">
         <v>6.7</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>73537</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D31" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>73557</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>74639</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D33" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>74639</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D34" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>68941</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="0" t="s">
+      <c r="F35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>67218</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>67562</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>67956</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>66142</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D39" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="F39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>66142</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>66182</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="F41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>66222</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>66244</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>64895</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="F44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>65221</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>65278</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>66059</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>215</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>66107</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>63808</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>63847</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>64092</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>64240</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G52" s="0" t="s">
+      <c r="F52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>64255</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="G53" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>63456</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>63659</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="G55" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>62672</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>63381</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>61386</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>61468</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>61952</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>31600</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>273</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="G61" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>60488</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="G62" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>60510</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="F63" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="G63" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>60619</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>286</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="F64" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G64" s="0" t="s">
+      <c r="G64" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>12656</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>290</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="F65" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>14256</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>294</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="G66" s="1" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>16653</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>20805</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>304</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>28352</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D69" s="7" t="n">
         <v>5.6</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>32667</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="1" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>33144</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>317</v>
       </c>
       <c r="D71" s="7" t="n">
         <v>4.5</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>59683</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>319</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F72" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" s="0" t="s">
+      <c r="F72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>58803</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>322</v>
       </c>
       <c r="D73" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>58953</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>326</v>
       </c>
       <c r="D74" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F74" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" s="0" t="s">
+      <c r="F74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>59301</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>78431</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>332</v>
       </c>
       <c r="D76" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F76" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H76" s="0" t="s">
+      <c r="F76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>53853</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="G77" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="H77" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>74816</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D78" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F78" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G78" s="0" t="s">
+      <c r="F78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>74755</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F79" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G79" s="0" t="s">
+      <c r="F79" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>74756</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F80" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" s="0" t="s">
+      <c r="F80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>74758</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>347</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F81" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G81" s="0" t="s">
+      <c r="F81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>68421</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>350</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="1" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>89116</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D83" s="7" t="n">
         <v>53</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>92021</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>358</v>
       </c>
       <c r="D84" s="7" t="n">
         <v>40.41</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>93019</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>361</v>
       </c>
       <c r="D85" s="7" t="n">
         <v>26.27</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="G85" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>93019</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>361</v>
       </c>
       <c r="D86" s="7" t="n">
         <v>28.29</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="G86" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>93364</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>366</v>
       </c>
       <c r="D87" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F87" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" s="0" t="s">
+      <c r="F87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>93364</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>366</v>
       </c>
       <c r="D88" s="7" t="n">
         <v>28.29</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="G88" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>93364</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>366</v>
       </c>
       <c r="D89" s="7" t="n">
         <v>30.31</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="G89" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>93670</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>371</v>
       </c>
       <c r="D90" s="7" t="n">
         <v>50</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>93750</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>374</v>
       </c>
       <c r="D91" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="G91" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>96815</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>378</v>
       </c>
       <c r="D92" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="G92" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H92" s="0" t="s">
+      <c r="H92" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>96900</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>381</v>
       </c>
       <c r="D93" s="7" t="n">
         <v>48.49</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="G93" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H93" s="0" t="s">
+      <c r="H93" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>96934</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D94" s="7" t="n">
         <v>48</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="G94" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H94" s="0" t="s">
+      <c r="H94" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>97246</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>386</v>
       </c>
       <c r="D95" s="7" t="n">
         <v>80.81</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="G95" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H95" s="0" t="s">
+      <c r="H95" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>98006</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>389</v>
       </c>
       <c r="D96" s="7" t="n">
         <v>34</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="G96" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>99251</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>392</v>
       </c>
       <c r="D97" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="G97" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H97" s="0" t="s">
+      <c r="H97" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>102622</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D98" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="G98" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>112488</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D99" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="G99" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>112488</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D100" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="G100" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>125736</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>405</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="G101" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>127885</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G102" s="0" t="s">
+      <c r="G102" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H102" s="0" t="s">
+      <c r="H102" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>127885</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D103" s="7" t="n">
         <v>67</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F103" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G103" s="0" t="s">
+      <c r="F103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <v>127885</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D104" s="7" t="n">
         <v>68</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F104" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G104" s="0" t="s">
+      <c r="F104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>130036</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105" s="1" t="n">
         <v>41.42</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G105" s="0" t="s">
+      <c r="G105" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>137745</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G106" s="0" t="s">
+      <c r="G106" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>138446</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>423</v>
       </c>
       <c r="D107" s="7" t="n">
         <v>25.26</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G107" s="0" t="s">
+      <c r="G107" s="1" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="A108" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>139497</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>427</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G108" s="0" t="s">
+      <c r="G108" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>191579</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D109" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G109" s="0" t="s">
+      <c r="G109" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H109" s="0" t="s">
+      <c r="H109" s="1" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="A110" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>191580</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>434</v>
       </c>
       <c r="D110" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G110" s="0" t="s">
+      <c r="G110" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H110" s="0" t="s">
+      <c r="H110" s="1" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>162430</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="F111" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G111" s="0" t="s">
+      <c r="F111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="A112" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>163541</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>438</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="G112" s="0" t="s">
+      <c r="G112" s="1" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>163541</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>438</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F113" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G113" s="0" t="s">
+      <c r="F113" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="A114" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>189457</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D114" s="14" t="n">
+      <c r="D114" s="15" t="n">
         <v>39.4</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F114" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G114" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H114" s="0" t="s">
+      <c r="F114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>189457</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>445</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="F115" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G115" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="H115" s="0" t="s">
+      <c r="F115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="A116" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>191443</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>451</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G116" s="0" t="s">
+      <c r="G116" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H116" s="0" t="s">
+      <c r="H116" s="1" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>370977</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>457</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G117" s="0" t="s">
+      <c r="G117" s="1" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="A118" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <v>372603</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>460</v>
       </c>
       <c r="D118" s="7" t="n">
         <v>18.19</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G118" s="0" t="s">
+      <c r="G118" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>373788</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>463</v>
       </c>
       <c r="D119" s="7" t="n">
         <v>34.35</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G119" s="0" t="s">
+      <c r="G119" s="1" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5206,7 +5227,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="466">
   <si>
     <t xml:space="preserve">Amount</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">Contrast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,13</t>
   </si>
   <si>
     <t xml:space="preserve">https://demo.humlab.umu.se/courier/081475engo.pdf</t>
@@ -1503,19 +1500,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDC0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF800000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFDC0000"/>
+        <fgColor rgb="FFFFFFFE"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1589,12 +1586,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1631,7 +1628,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1643,13 +1640,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1679,14 +1669,14 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFFFFFE"/>
+      <rgbColor rgb="FFDC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFDC0000"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -1754,7 +1744,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1844,10 +1834,10 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
@@ -1979,9 +1969,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>21</v>
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>44</v>
@@ -2002,9 +1992,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>21</v>
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>4</v>
@@ -2128,18 +2118,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>51</v>
@@ -2164,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>51</v>
@@ -2175,10 +2165,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
@@ -2189,13 +2179,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,10 +2196,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,10 +2210,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,16 +2224,14 @@
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B33" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D28">
@@ -2301,7 +2289,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
@@ -2325,40 +2313,40 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,32 +2354,32 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,10 +2387,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,10 +2398,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,7 +2410,7 @@
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,7 +2464,7 @@
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.85"/>
@@ -2486,25 +2474,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,11 +2503,11 @@
         <v>146744</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12"/>
       <c r="H2" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,19 +2518,19 @@
         <v>73649</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>1.7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,19 +2541,19 @@
         <v>73649</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,19 +2564,19 @@
         <v>73683</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>1.8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,19 +2587,19 @@
         <v>73683</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,19 +2610,19 @@
         <v>73713</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>1.7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,19 +2633,19 @@
         <v>73741</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,19 +2656,19 @@
         <v>73774</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,19 +2679,19 @@
         <v>73774</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>4.5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,19 +2702,19 @@
         <v>73790</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>1.6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,19 +2725,19 @@
         <v>73809</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>1.6</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,19 +2748,19 @@
         <v>73829</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,19 +2771,19 @@
         <v>73850</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,19 +2794,19 @@
         <v>73867</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,19 +2817,19 @@
         <v>73867</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2852,19 +2840,19 @@
         <v>73938</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,19 +2863,19 @@
         <v>73956</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,11 +2886,11 @@
         <v>73970</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="12"/>
       <c r="H19" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,19 +2901,19 @@
         <v>73993</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>1.2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,19 +2924,19 @@
         <v>74130</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,13 +2947,13 @@
         <v>74184</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="12" t="n">
         <v>8</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,19 +2964,19 @@
         <v>74946</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,11 +2987,11 @@
         <v>81370</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="12"/>
       <c r="H24" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,13 +3002,13 @@
         <v>81400</v>
       </c>
       <c r="C25" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="26" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,11 +3019,11 @@
         <v>81543</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="12"/>
       <c r="H26" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,11 +3034,11 @@
         <v>81564</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="12"/>
       <c r="H27" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,19 +3049,19 @@
         <v>71298</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,19 +3072,19 @@
         <v>71298</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="7" t="n">
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,19 +3095,19 @@
         <v>73516</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" s="7" t="n">
         <v>6.7</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,19 +3118,19 @@
         <v>73537</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,19 +3141,19 @@
         <v>73557</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,19 +3164,19 @@
         <v>74639</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,19 +3187,19 @@
         <v>74639</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D34" s="7" t="n">
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,19 +3210,19 @@
         <v>68941</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,19 +3233,19 @@
         <v>67218</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,19 +3256,19 @@
         <v>67562</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,19 +3279,19 @@
         <v>67956</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,19 +3302,19 @@
         <v>66142</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D39" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,19 +3325,19 @@
         <v>66142</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,19 +3348,19 @@
         <v>66182</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,19 +3371,19 @@
         <v>66222</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,19 +3394,19 @@
         <v>66244</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,19 +3417,19 @@
         <v>64895</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,19 +3440,19 @@
         <v>65221</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,19 +3463,19 @@
         <v>65278</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,19 +3486,19 @@
         <v>66059</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,19 +3509,19 @@
         <v>66107</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E48" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,19 +3532,19 @@
         <v>63808</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,19 +3555,19 @@
         <v>63847</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="E50" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,19 +3578,19 @@
         <v>64092</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3613,19 +3601,19 @@
         <v>64240</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,19 +3624,19 @@
         <v>64255</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="E53" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,19 +3647,19 @@
         <v>63456</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,19 +3670,19 @@
         <v>63659</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,19 +3693,19 @@
         <v>62672</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,19 +3716,19 @@
         <v>63381</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,19 +3739,19 @@
         <v>61386</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="E58" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,19 +3762,19 @@
         <v>61468</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="E59" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,19 +3785,19 @@
         <v>61952</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="E60" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,19 +3808,19 @@
         <v>31600</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="E61" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,19 +3831,19 @@
         <v>60488</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,19 +3854,19 @@
         <v>60510</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,19 +3877,19 @@
         <v>60619</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="E64" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,19 +3900,19 @@
         <v>12656</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="E65" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,19 +3923,19 @@
         <v>14256</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="E66" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,19 +3946,19 @@
         <v>16653</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="E67" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,19 +3969,19 @@
         <v>20805</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="E68" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,19 +3992,19 @@
         <v>28352</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D69" s="7" t="n">
         <v>5.6</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,19 +4015,19 @@
         <v>32667</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="E70" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,19 +4038,19 @@
         <v>33144</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D71" s="7" t="n">
         <v>4.5</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,19 +4061,19 @@
         <v>59683</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="E72" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,19 +4084,19 @@
         <v>58803</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D73" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4119,19 +4107,19 @@
         <v>58953</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D74" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,19 +4130,19 @@
         <v>59301</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,22 +4153,22 @@
         <v>78431</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D76" s="7" t="n">
         <v>36</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,22 +4179,22 @@
         <v>53853</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,19 +4205,19 @@
         <v>74816</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D78" s="7" t="n">
         <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,19 +4228,19 @@
         <v>74755</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="E79" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,19 +4251,19 @@
         <v>74756</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="F80" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,19 +4274,19 @@
         <v>74758</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="E81" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="F81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,19 +4297,19 @@
         <v>68421</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="E82" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,19 +4320,19 @@
         <v>89116</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D83" s="7" t="n">
         <v>53</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4355,19 +4343,19 @@
         <v>92021</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D84" s="7" t="n">
         <v>40.41</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="G84" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4378,19 +4366,19 @@
         <v>93019</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D85" s="7" t="n">
         <v>26.27</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,19 +4389,19 @@
         <v>93019</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D86" s="7" t="n">
         <v>28.29</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,19 +4412,19 @@
         <v>93364</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D87" s="7" t="n">
         <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,19 +4435,19 @@
         <v>93364</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D88" s="7" t="n">
         <v>28.29</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,19 +4458,19 @@
         <v>93364</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D89" s="7" t="n">
         <v>30.31</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,16 +4481,16 @@
         <v>93670</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D90" s="7" t="n">
         <v>50</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4513,19 +4501,19 @@
         <v>93750</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D91" s="7" t="n">
         <v>19</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,22 +4524,22 @@
         <v>96815</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D92" s="7" t="n">
         <v>49</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,22 +4550,22 @@
         <v>96900</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D93" s="7" t="n">
         <v>48.49</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4588,22 +4576,22 @@
         <v>96934</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D94" s="7" t="n">
         <v>48</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="G94" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,22 +4602,22 @@
         <v>97246</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D95" s="7" t="n">
         <v>80.81</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,19 +4628,19 @@
         <v>98006</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D96" s="7" t="n">
         <v>34</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4663,22 +4651,22 @@
         <v>99251</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D97" s="7" t="n">
         <v>49</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,19 +4677,19 @@
         <v>102622</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D98" s="7" t="n">
         <v>5</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,19 +4700,19 @@
         <v>112488</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D99" s="7" t="n">
         <v>32</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="G99" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,19 +4723,19 @@
         <v>112488</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D100" s="7" t="n">
         <v>45</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="G100" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4758,19 +4746,19 @@
         <v>125736</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="E101" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="G101" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,22 +4769,22 @@
         <v>127885</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="E102" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4807,19 +4795,19 @@
         <v>127885</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D103" s="7" t="n">
         <v>67</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,19 +4818,19 @@
         <v>127885</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D104" s="7" t="n">
         <v>68</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,19 +4841,19 @@
         <v>130036</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>41.42</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="G105" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4876,19 +4864,19 @@
         <v>137745</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="E106" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,19 +4887,19 @@
         <v>138446</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D107" s="7" t="n">
         <v>25.26</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,19 +4910,19 @@
         <v>139497</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="E108" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E108" s="13" t="s">
-        <v>429</v>
-      </c>
       <c r="F108" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,22 +4933,22 @@
         <v>191579</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D109" s="7" t="n">
         <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,22 +4959,22 @@
         <v>191580</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D110" s="7" t="n">
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,19 +4985,19 @@
         <v>162430</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="E111" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="F111" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,19 +5008,19 @@
         <v>163541</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="E112" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,19 +5031,19 @@
         <v>163541</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D113" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="F113" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5066,22 +5054,22 @@
         <v>189457</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D114" s="15" t="n">
         <v>39.4</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,22 +5080,22 @@
         <v>189457</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D115" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,22 +5106,22 @@
         <v>191443</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="E116" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,19 +5132,19 @@
         <v>370977</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="G117" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,19 +5155,19 @@
         <v>372603</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D118" s="7" t="n">
         <v>18.19</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="G118" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5190,19 +5178,19 @@
         <v>373788</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D119" s="7" t="n">
         <v>34.35</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -5227,7 +5215,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="Pages Off" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Unindexed Article" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Feuil3" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Pages correction" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Non OCRED - OCR Problems'!$A$1:$D$28</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="644">
   <si>
     <t xml:space="preserve">Amount</t>
   </si>
@@ -1429,6 +1430,566 @@
   </si>
   <si>
     <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73765: Caracas: educational problems in South America continues on 5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73842: Agencies stress role of travel fellowshipsand ### 73839: UNESCO-UN: teamwork embraces five continents continue  on 5.### 73836: Pragmatic viewpoints on human rights, 
+### 73835: Orient - Occident cultural co-operation stressed and ### 73830: University problems viewed at Utrecht Congress continue on 6. ### 73832: Scientists create World Mental Health Federation continues on 7. ### 73834: Book Coupon Scheme experiment under way continues on 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1949_073886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73910: UNESCO's fellowship programme and ### 73909: Cultural interchange between countries not on 6, but on 14
+### 73902: On the threshold of 1949: the new UNESCO programme and ### 73904: Reconstructing the damages of war are not on page 2, BUT ON 10. ### 73905: A Broad educational programme for people of all ages is not on 3, but 11. 
+### 73906: The Natural, the social sciences and 
+### 73908: The UNESCO budget for 1949 are not on 4 + 5, but on 12-13
+### 73907: Cultural activity: philosophy and humanistic studies is not on 5, but on 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1949_074013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 74014: UNESCO Board votes emergency aid for Greek refugee children not on page 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 74134: Les chapitres du budget is not on page 3. 
+### 74146: Un �tendard international pour les �coles ! Is on 6, not 7. Same for 
+### 74141: La sensibilit� humaine
+### 74142: D�sarmement moral is on 7, not 6. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 74331: The World laughs at different things continues on 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1951_074589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 74597: Children as creative artists is not on 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1955_068948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 68942: Forgotten shadows: the cinema and its origins St�r sid 5-7 i metadata men i sj�lva verket �r det 5-7 + 9-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1955_069080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### Triangles and circles with magic meaning continues on page 65, this is not in the metadata. They call this edition a "special edition"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1958_066148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 66157: Galapagos: wonders of a Noah's Ark off the coast of Ecuador starts on page 18. Caption of ### 66161: Stamp collectors' wildlife album starts on 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1959_078166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 65244: Art and the troubled mind continues to page 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1963_063436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 63291: The Promise of nuclear energy starts on 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1963_063437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 63368: Wanted: more quake-proof buildings starts on 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1963_078356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 63350: Movement and light in today's art continues on 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1964_062315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 62396: Arms cost the world USD120 thousand million per year stops on page 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1965_078451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 27983: The Care of old paintings stops on page 17. ### 30766: To the young people of the world: a message from Ren� Maheu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1968_078237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 58948: A Talk with Princess Ashraf of Iran is not on 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1968_078240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 59109: Japan's contribution to Western literature and the arts continues on 30, 46-48. 
+### 59223: Hokkaido, frontier land of the far north starts on 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1968_078306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 59065: UNESCO should become the organization for youth not on 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1969_057247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 57267: UNESCO's programme for 1969-1970 starts on 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1969_078246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 58445: Saving our vanishing forests continues on 9. 
+### 58684: Vernacular languages in changing Africa continues on 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1970_056857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 56859: Man's perpetual quest for water continues on 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1970_078253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 56754: Is the space effort a waste of money? Begins on 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1971_053888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 53914: Ageless voices of poets &amp; writers not on 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1972_078279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 52644: The Face-makers continues 68-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1972_078382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 52077: Ounces of prevention by the 21st century continues on 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1972_078384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 52663: Taxila: ancient university centre of the Orient continues on 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1973_074891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 51739: Making the weather pay off; an international report reveals the important changes meteorology is bringing to economic and social development continues on page 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1975_074836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 49759: Women students still outnumbered only on page 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1975_074845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 49715: The New feminist explosion in the U.S.A. starts on page 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1976_074818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 49417: Our split brain continues on 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1976_074825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 49555: Housing � la carte continues on 23. 
+### 49550: The Architect: a modern scapegoat, reflections of a Soviet architect on the merits of old and new styles starts on 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1976_074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 49606: Three vases recount the legend of King Targitaus starts on 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1978_074795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 46193: Human rights: a new school of law and learning continues on 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1978_074807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 46317: The Unicorn, the phoenix and the flying horse; recent discoveries from three ancient royal tombs cotninues on 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1979_074771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 44506: The Mole and the butterfly; reflections on Einstein, science and subjectivity is not on 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1980_040945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 40962: Palladio: the master-builder of the Italian Renaissance continues on 23-24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1980_042993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 42995: Stone Age myth-sculptors of Siberia starts on 24. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1980_074642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 41136: The Soviet Peace Fund continues on 29. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 366755: Address by His Holiness Pope John Paul II ... Is ONLY on page 9. ### UNINDEXED_ARTICLE: Nine  award-winning campaigns. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1980_074766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 43022: Guernica: a universal image of the inhumanity of war begins on 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1982_074712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 48134: Patterns of drug use: reports from nine countries only starts on 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1982_074715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 48217: Centuries in stone also on 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1982_074732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 51812: Chinese civilization and the West is not on page 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1982_074796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 50953: If Saint Francis came to call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1982_074798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 48166: The World of Dostoyevsky is only on page 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1983_074691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 53949: China: the symbolic language of Beijing opera continues on 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1983_074700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 53865: Some future prospects starts on 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1983_074701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 56312: Matushka' continues on 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1983_074705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 56701: Malice through the looking-glass continues on 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1984_061392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 61263: Bridging the culture gap is not on 15 ### 61288: Flamenco: '...a taste of blood in the mouth' starts on 28. ### 61256: The Gypsy destiny is not on 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1984_074676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### UNINDEXED_SUPPLEMENT in the beginning. Pages number/index is incorrect for the pdf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1984_074678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 58391: The Living culture of the Tamils CONTINUES ON 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1985_067988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 67801: Transformation and tradition in Mediterranean Europe continues on 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### UNINDEXED_ARTICLE: Treasures of Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1986_068918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 68728: Science and music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1986_069416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 69104: Will deserts drink icebergs? Is on page 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1986_069653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 69535: Volcanoes is on 30 and 31, not on 32. 
+### 69544: The Hand of man continues on 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1986_070725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 70712: The Cradle of Polynesian culture continues on 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1987_071682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 71656: The 'New poor' continues on 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1987_072293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 72271: Lakes and glaciers of the Alps starts on 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1987_076565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 76561: (Archaeology under water): reports from 6 countries is not on 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1988_079384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 79185: Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1988_080991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 80984: The Egyptian world-picture continues on 23, 24, 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1989_083091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 83072: Poetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1989_083185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### UNINDEXED_SUPPLEMENT at the beginning. The pages are all +1 from there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1989_083935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 83931: The Mah�vamsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1989_084413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 84405: Mock lion and real heroes begins on 16. 
+### 84407: The Pavilion of the Second Moon continues on 27, 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1990_085219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 85208: Land of a thousand and one courtesies continues on 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1990_086067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 86057: Out of the land of shadows: a West African people learns to respect the cosmic order starts on 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1990_086461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 86454: Modernist Barcelona begins on 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1990_087206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 87210: Memory lane not on 20. ### 87215: A Revolution on wheels not on 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1990_087663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 87661: The Magic of Lahore not on 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1991_087907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 87889: A World of music begins on 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1995_100576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 100574: Saving the cinematic heritage: appeal by the Director-General of UNESCO cotinues on 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1995_101202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 101233: What next? specialized agency chiefs look ahead continues on 45-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1995_101488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 101501: Shimon Peres: passion and patience begins on 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1996_102540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 102536: Green Cross International only on page 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1996_104412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 104405: The Struggle for peace continues on 35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1999_114969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 262562: What price water? Only on 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1999_115591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 115603: Basketball at midnight continues on 26. 
+### 115614: Latin America's endangered frequencies continues on 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1999_117896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 117897: The Sheltering screen continues on 6-7-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_1999_118279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 118280: Circus flashbacks continues on 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_2000_120395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 120417: Tim Berners-Lee: the Web's brainchild continues on 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_2001_122266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 122284: Putting embryos on the assembly line continues on 40. 
+### 122288: Cooking in a crossfire continues on 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 130038: Borderless education is not on 15. 
+### 130044: A Leap of faith is not on 34. 
+### UNINDEXED_ARTICLE: literacy for a better world.
+### 130047: Donors drag their heels starts on 48
+### 130050: The Language barrier begins on 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 139494: UNESCO's changing partnership with the private sector stars on 14. ### UNINDEXED_ARTICLE: Projecting the planet into the future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_2007_185885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 186110: A testimony of hope for a beleaguered area: begins on page 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_2008_162711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 162769: Claude L�vi-Strauss and UNESCO starts on page 5 and is not on 9. ### 162770: Pakistan: spiritual home and national reality is not on 9, continues on 16. ### 162773: Human mathematics is not on 25. 
+### 162778: How the social sciences have humanised technical civilisation is not on 29.  
+### 162779: Giving: making a wish is not on 31, but on 38, not on 39
+### 162781: These cooks did not spoil the broth starts on 35
+### 162780: Witch-doctors and psychoanalysis is not on 35. 
+### 162782: Today's crisis in anthropology is not on 47. 
+### 162784: A Difficult survey is not on 49. 
+### 162785: L�vi-Strauss remembers... is on 49-50, not 51-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_2008_183304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 183353: Ideology clashing with history continues on 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_2017_248106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 248125: Innovative partnerships for change is not on 27-30, but on 31-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tagged_2018_261900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 261916: Young Africans: reinventing politics continues on 59</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +2001,7 @@
     <numFmt numFmtId="165" formatCode="d\-mmm"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1474,6 +2035,13 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1553,7 +2121,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1616,6 +2184,14 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1744,7 +2320,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1833,11 +2409,11 @@
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
@@ -2289,7 +2865,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
@@ -2464,7 +3040,7 @@
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.85"/>
@@ -5215,7 +5791,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5225,4 +5801,1522 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J80" activeCellId="0" sqref="J80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>73741</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>73829</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>73886</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>73970</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>74013</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>1949</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>74130</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>81370</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>1951</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>74589</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>68948</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>69080</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>66148</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>78166</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>63436</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>63437</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>78356</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>62315</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>78451</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>78237</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>78240</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>78306</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>57247</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>78246</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>56857</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>78253</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>53888</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>78279</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>78382</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>78384</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>74891</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>74836</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>74845</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>74818</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>74825</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>74829</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>74795</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>74807</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>74771</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>40945</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>42993</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>74642</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>74758</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>74766</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>74712</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>74715</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>74732</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>74796</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>74798</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>74691</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>74700</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>74701</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>74705</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>61392</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>74676</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>74678</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>67988</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>68421</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>68918</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>69416</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>69653</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>70725</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>71682</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>72293</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>76565</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>79384</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>80991</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>83091</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>83185</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>83935</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>84413</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>85219</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>86067</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>86461</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>87206</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>87663</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>87907</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>100576</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>101202</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>101488</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>102540</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>104412</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>114969</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>115591</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>117896</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>118279</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>120395</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>122266</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>130036</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>139497</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>185885</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>183304</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>248106</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>261900</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="678">
   <si>
     <t xml:space="preserve">Amount</t>
   </si>
@@ -1438,18 +1438,40 @@
     <t xml:space="preserve">### 73765: Caracas: educational problems in South America continues on 5. </t>
   </si>
   <si>
-    <t xml:space="preserve">### 73842: Agencies stress role of travel fellowshipsand ### 73839: UNESCO-UN: teamwork embraces five continents continue  on 5.### 73836: Pragmatic viewpoints on human rights, 
-### 73835: Orient - Occident cultural co-operation stressed and ### 73830: University problems viewed at Utrecht Congress continue on 6. ### 73832: Scientists create World Mental Health Federation continues on 7. ### 73834: Book Coupon Scheme experiment under way continues on 8</t>
+    <t xml:space="preserve">### 73842: Agencies stress role of travel fellowshipsand ### 73839: UNESCO-UN: teamwork embraces five continents continue  on 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73834: Book Coupon Scheme experiment under way continues on 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73832: Scientists create World Mental Health Federation continues on 7. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73836: Pragmatic viewpoints on human rights, ### 73835: Orient - Occident cultural co-operation stressed and ### 73830: University problems viewed at Utrecht Congress continue on 6. </t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1949_073886</t>
   </si>
   <si>
-    <t xml:space="preserve">### 73910: UNESCO's fellowship programme and ### 73909: Cultural interchange between countries not on 6, but on 14
-### 73902: On the threshold of 1949: the new UNESCO programme and ### 73904: Reconstructing the damages of war are not on page 2, BUT ON 10. ### 73905: A Broad educational programme for people of all ages is not on 3, but 11. 
-### 73906: The Natural, the social sciences and 
-### 73908: The UNESCO budget for 1949 are not on 4 + 5, but on 12-13
-### 73907: Cultural activity: philosophy and humanistic studies is not on 5, but on 13</t>
+    <t xml:space="preserve"> ### 73906: The Natural, the social sciences and  ### 73908: The UNESCO budget for 1949 are not on 4 + 5, but on 12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73905: A Broad educational programme for people of all ages is not on 3, but 11. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ### 73902: On the threshold of 1949: the new UNESCO programme and ### 73904: Reconstructing the damages of war are not on page 2, BUT ON 10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73907: Cultural activity: philosophy and humanistic studies is not on 5, but on 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73910: UNESCO's fellowship programme and ### 73909: Cultural interchange between countries not on 6, but on 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ### 73978: India in the world today name of the supplement including different articles. Not on 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 73976: Summer camp for war orphans to open in France is on 4, not 3. </t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1949_074013</t>
@@ -1458,10 +1480,13 @@
     <t xml:space="preserve">### 74014: UNESCO Board votes emergency aid for Greek refugee children not on page 2</t>
   </si>
   <si>
-    <t xml:space="preserve">### 74134: Les chapitres du budget is not on page 3. 
-### 74146: Un �tendard international pour les �coles ! Is on 6, not 7. Same for 
-### 74141: La sensibilit� humaine
-### 74142: D�sarmement moral is on 7, not 6. </t>
+    <t xml:space="preserve">### 74134: Les chapitres du budget is not on page 3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 74146: Un �tendard international pour les �coles ! Is on 6, not 7. Same for  ### 74141: La sensibilit� humaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 74142: D�sarmement moral is on 7, not 6. </t>
   </si>
   <si>
     <t xml:space="preserve">### 74331: The World laughs at different things continues on 7</t>
@@ -1482,13 +1507,16 @@
     <t xml:space="preserve">tagged_1955_069080</t>
   </si>
   <si>
-    <t xml:space="preserve">### Triangles and circles with magic meaning continues on page 65, this is not in the metadata. They call this edition a "special edition"</t>
+    <t xml:space="preserve">### Triangles and circles with magic meaning continues on page 65</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1958_066148</t>
   </si>
   <si>
-    <t xml:space="preserve">### 66157: Galapagos: wonders of a Noah's Ark off the coast of Ecuador starts on page 18. Caption of ### 66161: Stamp collectors' wildlife album starts on 32</t>
+    <t xml:space="preserve">### 66161: Stamp collectors' wildlife album starts on 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 66157: Galapagos: wonders of a Noah's Ark off the coast of Ecuador starts on page 18. </t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1959_078166</t>
@@ -1524,7 +1552,10 @@
     <t xml:space="preserve">tagged_1965_078451</t>
   </si>
   <si>
-    <t xml:space="preserve">### 27983: The Care of old paintings stops on page 17. ### 30766: To the young people of the world: a message from Ren� Maheu</t>
+    <t xml:space="preserve">### 30766: To the young people of the world: a message from Ren� Maheu is on 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 27983: The Care of old paintings stops on page 17. </t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1968_078237</t>
@@ -1536,8 +1567,10 @@
     <t xml:space="preserve">tagged_1968_078240</t>
   </si>
   <si>
-    <t xml:space="preserve">### 59109: Japan's contribution to Western literature and the arts continues on 30, 46-48. 
-### 59223: Hokkaido, frontier land of the far north starts on 62</t>
+    <t xml:space="preserve">### 59109: Japan's contribution to Western literature and the arts continues on 30, 46-48. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 59223: Hokkaido, frontier land of the far north starts on 62</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1968_078306</t>
@@ -1555,8 +1588,10 @@
     <t xml:space="preserve">tagged_1969_078246</t>
   </si>
   <si>
-    <t xml:space="preserve">### 58445: Saving our vanishing forests continues on 9. 
-### 58684: Vernacular languages in changing Africa continues on 33</t>
+    <t xml:space="preserve"> ### 58684: Vernacular languages in changing Africa continues on 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 58445: Saving our vanishing forests continues on 9. </t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1970_056857</t>
@@ -1622,8 +1657,10 @@
     <t xml:space="preserve">tagged_1976_074825</t>
   </si>
   <si>
-    <t xml:space="preserve">### 49555: Housing � la carte continues on 23. 
-### 49550: The Architect: a modern scapegoat, reflections of a Soviet architect on the merits of old and new styles starts on 15</t>
+    <t xml:space="preserve">### 49555: Housing � la carte continues on 23. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 49550: The Architect: a modern scapegoat, reflections of a Soviet architect on the merits of old and new styles starts on 15</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1976_074829</t>
@@ -1668,7 +1705,7 @@
     <t xml:space="preserve">### 41136: The Soviet Peace Fund continues on 29. </t>
   </si>
   <si>
-    <t xml:space="preserve">### 366755: Address by His Holiness Pope John Paul II ... Is ONLY on page 9. ### UNINDEXED_ARTICLE: Nine  award-winning campaigns. </t>
+    <t xml:space="preserve">### 366755: Address by His Holiness Pope John Paul II ... Is ONLY on page 9. </t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1980_074766</t>
@@ -1734,7 +1771,13 @@
     <t xml:space="preserve">tagged_1984_061392</t>
   </si>
   <si>
-    <t xml:space="preserve">### 61263: Bridging the culture gap is not on 15 ### 61288: Flamenco: '...a taste of blood in the mouth' starts on 28. ### 61256: The Gypsy destiny is not on 24</t>
+    <t xml:space="preserve">### 61263: Bridging the culture gap is not on 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ### 61288: Flamenco: '...a taste of blood in the mouth' starts on 28. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 61256: The Gypsy destiny is not on 24</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1984_074676</t>
@@ -1755,9 +1798,6 @@
     <t xml:space="preserve">### 67801: Transformation and tradition in Mediterranean Europe continues on 14</t>
   </si>
   <si>
-    <t xml:space="preserve">### UNINDEXED_ARTICLE: Treasures of Mongolia</t>
-  </si>
-  <si>
     <t xml:space="preserve">tagged_1986_068918</t>
   </si>
   <si>
@@ -1773,8 +1813,10 @@
     <t xml:space="preserve">tagged_1986_069653</t>
   </si>
   <si>
-    <t xml:space="preserve">### 69535: Volcanoes is on 30 and 31, not on 32. 
-### 69544: The Hand of man continues on 37</t>
+    <t xml:space="preserve">### 69535: Volcanoes is on 30 and 31, not on 32. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 69544: The Hand of man continues on 37</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1986_070725</t>
@@ -1804,7 +1846,7 @@
     <t xml:space="preserve">tagged_1988_079384</t>
   </si>
   <si>
-    <t xml:space="preserve">### 79185: Science</t>
+    <t xml:space="preserve">### 79185: Science is on 6-7-8</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1988_080991</t>
@@ -1816,7 +1858,7 @@
     <t xml:space="preserve">tagged_1989_083091</t>
   </si>
   <si>
-    <t xml:space="preserve">### 83072: Poetry</t>
+    <t xml:space="preserve">### 83072: Poetry 36-39</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1989_083185</t>
@@ -1828,14 +1870,16 @@
     <t xml:space="preserve">tagged_1989_083935</t>
   </si>
   <si>
-    <t xml:space="preserve">### 83931: The Mah�vamsa</t>
+    <t xml:space="preserve">### 83931: The Mah�vamsa is on 40-43</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1989_084413</t>
   </si>
   <si>
-    <t xml:space="preserve">### 84405: Mock lion and real heroes begins on 16. 
-### 84407: The Pavilion of the Second Moon continues on 27, 29</t>
+    <t xml:space="preserve">### 84405: Mock lion and real heroes begins on 16. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 84407: The Pavilion of the Second Moon continues on 27, 29</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1990_085219</t>
@@ -1859,7 +1903,10 @@
     <t xml:space="preserve">tagged_1990_087206</t>
   </si>
   <si>
-    <t xml:space="preserve">### 87210: Memory lane not on 20. ### 87215: A Revolution on wheels not on 24</t>
+    <t xml:space="preserve">### 87215: A Revolution on wheels not on 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 87210: Memory lane not on 20. </t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1990_087663</t>
@@ -1877,7 +1924,7 @@
     <t xml:space="preserve">tagged_1995_100576</t>
   </si>
   <si>
-    <t xml:space="preserve">### 100574: Saving the cinematic heritage: appeal by the Director-General of UNESCO cotinues on 85</t>
+    <t xml:space="preserve">### 100574: Saving the cinematic heritage: appeal by the Director-General of UNESCO continues on 85</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1995_101202</t>
@@ -1916,8 +1963,10 @@
     <t xml:space="preserve">tagged_1999_115591</t>
   </si>
   <si>
-    <t xml:space="preserve">### 115603: Basketball at midnight continues on 26. 
-### 115614: Latin America's endangered frequencies continues on 45</t>
+    <t xml:space="preserve">### 115603: Basketball at midnight continues on 26. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 115614: Latin America's endangered frequencies continues on 45</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1999_117896</t>
@@ -1941,18 +1990,25 @@
     <t xml:space="preserve">tagged_2001_122266</t>
   </si>
   <si>
-    <t xml:space="preserve">### 122284: Putting embryos on the assembly line continues on 40. 
-### 122288: Cooking in a crossfire continues on 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">### 130038: Borderless education is not on 15. 
-### 130044: A Leap of faith is not on 34. 
-### UNINDEXED_ARTICLE: literacy for a better world.
-### 130047: Donors drag their heels starts on 48
-### 130050: The Language barrier begins on 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">### 139494: UNESCO's changing partnership with the private sector stars on 14. ### UNINDEXED_ARTICLE: Projecting the planet into the future</t>
+    <t xml:space="preserve">### 122284: Putting embryos on the assembly line continues on 40. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 122288: Cooking in a crossfire continues on 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 130038: Borderless education is not on 15. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 130044: A Leap of faith is not on 34. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 130047: Donors drag their heels starts on 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 130050: The Language barrier begins on 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 139494: UNESCO's changing partnership with the private sector stars on 14.</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_2007_185885</t>
@@ -1964,14 +2020,34 @@
     <t xml:space="preserve">tagged_2008_162711</t>
   </si>
   <si>
-    <t xml:space="preserve">### 162769: Claude L�vi-Strauss and UNESCO starts on page 5 and is not on 9. ### 162770: Pakistan: spiritual home and national reality is not on 9, continues on 16. ### 162773: Human mathematics is not on 25. 
-### 162778: How the social sciences have humanised technical civilisation is not on 29.  
-### 162779: Giving: making a wish is not on 31, but on 38, not on 39
-### 162781: These cooks did not spoil the broth starts on 35
-### 162780: Witch-doctors and psychoanalysis is not on 35. 
-### 162782: Today's crisis in anthropology is not on 47. 
-### 162784: A Difficult survey is not on 49. 
-### 162785: L�vi-Strauss remembers... is on 49-50, not 51-52</t>
+    <t xml:space="preserve">### 162769: Claude L�vi-Strauss and UNESCO starts on page 5 and is not on 9. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 162770: Pakistan: spiritual home and national reality is not on 9, continues on 16. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 162773: Human mathematics is not on 25. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 162778: How the social sciences have humanised technical civilisation is not on 29.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 162779: Giving: making a wish is not on 31, but on 38, not on 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 162781: These cooks did not spoil the broth starts on 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 162780: Witch-doctors and psychoanalysis is not on 35. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 162782: Today's crisis in anthropology is not on 47. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ### 162785: L�vi-Strauss remembers... is on 49-50, not 51-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### 162784: A Difficult survey is not on 49. </t>
   </si>
   <si>
     <t xml:space="preserve">tagged_2008_183304</t>
@@ -2001,7 +2077,7 @@
     <numFmt numFmtId="165" formatCode="d\-mmm"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2044,6 +2120,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2121,7 +2203,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2187,6 +2269,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2320,7 +2410,7 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2413,7 +2503,7 @@
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
@@ -2865,7 +2955,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
@@ -3040,7 +3130,7 @@
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.85"/>
@@ -5791,7 +5881,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5810,16 +5900,17 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J80" activeCellId="0" sqref="J80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="182.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,7 +5941,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5864,1316 +5955,1745 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>73886</v>
+        <v>73829</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>73829</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
-        <v>1949</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>73970</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>74013</v>
+        <v>73829</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
         <v>1949</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>74130</v>
+        <v>73886</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>81370</v>
+        <v>73886</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>74589</v>
+        <v>73886</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>475</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>68948</v>
+        <v>73886</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>478</v>
+        <v>472</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>69080</v>
+        <v>73886</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>480</v>
+        <v>472</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
-        <v>1958</v>
+        <v>1949</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>66148</v>
+        <v>73970</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>482</v>
+        <v>129</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
-        <v>1959</v>
+        <v>1949</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>78166</v>
+        <v>73970</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>484</v>
+        <v>129</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
-        <v>1963</v>
+        <v>1949</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>63436</v>
+        <v>74013</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
-        <v>1963</v>
+        <v>1949</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>63437</v>
+        <v>74130</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>487</v>
+        <v>133</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
-        <v>1963</v>
+        <v>1949</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>78356</v>
+        <v>74130</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>489</v>
+        <v>133</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
-        <v>1964</v>
+        <v>1949</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>62315</v>
+        <v>74130</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>492</v>
+        <v>133</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
-        <v>1965</v>
+        <v>1950</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>78451</v>
+        <v>81370</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>493</v>
+        <v>141</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
-        <v>1968</v>
+        <v>1951</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>78237</v>
+        <v>74589</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
-        <v>1968</v>
+        <v>1955</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>78240</v>
+        <v>68948</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>498</v>
+        <v>488</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
-        <v>1968</v>
+        <v>1955</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>78306</v>
+        <v>69080</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
-        <v>1969</v>
+        <v>1958</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>57247</v>
+        <v>66148</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
-        <v>1969</v>
+        <v>1958</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>78246</v>
+        <v>66148</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>504</v>
+        <v>492</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
-        <v>1970</v>
+        <v>1959</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>56857</v>
+        <v>78166</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>78253</v>
+        <v>63436</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>53888</v>
+        <v>63437</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
-        <v>1972</v>
+        <v>1963</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>78279</v>
+        <v>78356</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>78382</v>
+        <v>62315</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>78384</v>
+        <v>78451</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>74891</v>
+        <v>78451</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>74836</v>
+        <v>78237</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>74845</v>
+        <v>78240</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>74818</v>
+        <v>78240</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>510</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>74825</v>
+        <v>78306</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>526</v>
+        <v>513</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="n">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>74829</v>
+        <v>57247</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="n">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>74795</v>
+        <v>78246</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>74807</v>
+        <v>78246</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>532</v>
+        <v>517</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="n">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>74771</v>
+        <v>56857</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="n">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>40945</v>
+        <v>78253</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="n">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>42993</v>
+        <v>53888</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="n">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>74642</v>
+        <v>78279</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="n">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>74758</v>
+        <v>78382</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>346</v>
+        <v>528</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="n">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>74766</v>
+        <v>78384</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="n">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>74712</v>
+        <v>74891</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="n">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>74715</v>
+        <v>74836</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="n">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>74732</v>
+        <v>74845</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="n">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>74796</v>
+        <v>74818</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="n">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>74798</v>
+        <v>74825</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>553</v>
+        <v>540</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="n">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>74691</v>
+        <v>74825</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>555</v>
+        <v>540</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="n">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>74700</v>
+        <v>74829</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="n">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>74701</v>
+        <v>74795</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="n">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>74705</v>
+        <v>74807</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="n">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>61392</v>
+        <v>74771</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>74676</v>
+        <v>40945</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="n">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>74678</v>
+        <v>42993</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="n">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>67988</v>
+        <v>74642</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="n">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>68421</v>
+        <v>74758</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="n">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>68918</v>
+        <v>74766</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="n">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>69416</v>
+        <v>74712</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="n">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>69653</v>
+        <v>74715</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>576</v>
+        <v>562</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="n">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>70725</v>
+        <v>74732</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="n">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>71682</v>
+        <v>74796</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="n">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>72293</v>
+        <v>74798</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="n">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>76565</v>
+        <v>74691</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>79384</v>
+        <v>74700</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="n">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>80991</v>
+        <v>74701</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="n">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>83091</v>
+        <v>74705</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="n">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>83185</v>
+        <v>61392</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="n">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>83935</v>
+        <v>61392</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>578</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="n">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>84413</v>
+        <v>61392</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>596</v>
+        <v>578</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="n">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>85219</v>
+        <v>74676</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="n">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>86067</v>
+        <v>74678</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="n">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>86461</v>
+        <v>67988</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>87206</v>
+        <v>68918</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>87663</v>
+        <v>69416</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="n">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>87907</v>
+        <v>69653</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>608</v>
+        <v>592</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="n">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>100576</v>
+        <v>69653</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>610</v>
+        <v>592</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="n">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>101202</v>
+        <v>70725</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="n">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>101488</v>
+        <v>71682</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="n">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>102540</v>
+        <v>72293</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="n">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>104412</v>
+        <v>76565</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="n">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>114969</v>
+        <v>79384</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>603</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="n">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>115591</v>
+        <v>80991</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>623</v>
+        <v>605</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="n">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>117896</v>
+        <v>83091</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="n">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>118279</v>
+        <v>83185</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="n">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>120395</v>
+        <v>83935</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="n">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>122266</v>
+        <v>84413</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>613</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="n">
-        <v>2003</v>
+        <v>1989</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>130036</v>
+        <v>84413</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>415</v>
+        <v>613</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="n">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>139497</v>
+        <v>85219</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>426</v>
+        <v>616</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="n">
-        <v>2007</v>
+        <v>1990</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>185885</v>
+        <v>86067</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="n">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>162711</v>
+        <v>86461</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>637</v>
+        <v>620</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="n">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>183304</v>
+        <v>87206</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="n">
-        <v>2017</v>
+        <v>1990</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>248106</v>
+        <v>87206</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>87663</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>87907</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>100576</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>101202</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>101488</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>102540</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>104412</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>114969</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>115591</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>115591</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>117896</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>118279</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>120395</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>122266</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>122266</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>130036</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>130036</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>130036</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>130036</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>139497</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>185885</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>162711</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>183304</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>248106</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C127" s="0" t="n">
         <v>261900</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D127" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>677</v>
+      </c>
+    </row>
     <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -1480,7 +1480,7 @@
     <t xml:space="preserve">### 74014: UNESCO Board votes emergency aid for Greek refugee children not on page 2</t>
   </si>
   <si>
-    <t xml:space="preserve">### 74134: Les chapitres du budget is not on page 3. </t>
+    <t xml:space="preserve">### 74134: Les chapitres du budget is not on page 3? is it another english title?</t>
   </si>
   <si>
     <t xml:space="preserve">### 74146: Un �tendard international pour les �coles ! Is on 6, not 7. Same for  ### 74141: La sensibilit� humaine</t>
@@ -1735,7 +1735,7 @@
     <t xml:space="preserve">tagged_1982_074796</t>
   </si>
   <si>
-    <t xml:space="preserve">### 50953: If Saint Francis came to call</t>
+    <t xml:space="preserve">### 50953: If Saint Francis came to call continues on 27</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1982_074798</t>
@@ -1777,7 +1777,7 @@
     <t xml:space="preserve"> ### 61288: Flamenco: '...a taste of blood in the mouth' starts on 28. </t>
   </si>
   <si>
-    <t xml:space="preserve">### 61256: The Gypsy destiny is not on 24</t>
+    <t xml:space="preserve">### 61256: The Gypsy destiny is not on 34</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1984_074676</t>
@@ -1801,7 +1801,7 @@
     <t xml:space="preserve">tagged_1986_068918</t>
   </si>
   <si>
-    <t xml:space="preserve">### 68728: Science and music</t>
+    <t xml:space="preserve">### 68728: Science and music 4-9</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_1986_069416</t>
@@ -2008,7 +2008,7 @@
     <t xml:space="preserve">### 130050: The Language barrier begins on 52</t>
   </si>
   <si>
-    <t xml:space="preserve">### 139494: UNESCO's changing partnership with the private sector stars on 14.</t>
+    <t xml:space="preserve">### 139494: UNESCO's changing partnership with the private sector starts on 14.</t>
   </si>
   <si>
     <t xml:space="preserve">tagged_2007_185885</t>
@@ -2077,7 +2077,7 @@
     <numFmt numFmtId="165" formatCode="d\-mmm"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2121,14 +2121,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2150,7 +2144,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDC0000"/>
-        <bgColor rgb="FF800000"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
@@ -2163,6 +2157,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFFFFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9211E"/>
+        <bgColor rgb="FFDC0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2268,15 +2268,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2386,7 +2386,7 @@
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -2407,10 +2407,10 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2430,7 +2430,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -2499,11 +2499,11 @@
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
@@ -2952,10 +2952,10 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
@@ -3126,11 +3126,11 @@
   </sheetPr>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.85"/>
@@ -5881,7 +5881,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5900,16 +5900,16 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="182.56"/>
   </cols>
   <sheetData>
@@ -5928,6 +5928,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16"/>
       <c r="B2" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5937,11 +5938,12 @@
       <c r="D2" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16"/>
       <c r="B3" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5956,6 +5958,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16"/>
       <c r="B4" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5965,11 +5968,12 @@
       <c r="D4" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16"/>
       <c r="B5" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5979,11 +5983,12 @@
       <c r="D5" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16"/>
       <c r="B6" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5998,6 +6003,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16"/>
       <c r="B7" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6007,11 +6013,12 @@
       <c r="D7" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16"/>
       <c r="B8" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6021,11 +6028,12 @@
       <c r="D8" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="8" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16"/>
       <c r="B9" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6035,11 +6043,12 @@
       <c r="D9" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="8" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16"/>
       <c r="B10" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6049,11 +6058,12 @@
       <c r="D10" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16"/>
       <c r="B11" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6068,6 +6078,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16"/>
       <c r="B12" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6082,6 +6093,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16"/>
       <c r="B13" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6096,6 +6108,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
       <c r="B14" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6110,6 +6123,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18"/>
       <c r="B15" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6124,6 +6138,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16"/>
       <c r="B16" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6138,6 +6153,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16"/>
       <c r="B17" s="0" t="n">
         <v>1949</v>
       </c>
@@ -6152,6 +6168,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16"/>
       <c r="B18" s="0" t="n">
         <v>1950</v>
       </c>
@@ -6166,6 +6183,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16"/>
       <c r="B19" s="0" t="n">
         <v>1951</v>
       </c>
@@ -6180,6 +6198,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16"/>
       <c r="B20" s="0" t="n">
         <v>1955</v>
       </c>
@@ -6194,6 +6213,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16"/>
       <c r="B21" s="0" t="n">
         <v>1955</v>
       </c>
@@ -6208,6 +6228,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16"/>
       <c r="B22" s="0" t="n">
         <v>1958</v>
       </c>
@@ -6222,6 +6243,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16"/>
       <c r="B23" s="0" t="n">
         <v>1958</v>
       </c>
@@ -6236,6 +6258,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16"/>
       <c r="B24" s="0" t="n">
         <v>1959</v>
       </c>
@@ -6250,6 +6273,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
       <c r="B25" s="0" t="n">
         <v>1963</v>
       </c>
@@ -6264,6 +6288,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
       <c r="B26" s="0" t="n">
         <v>1963</v>
       </c>
@@ -6278,6 +6303,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16"/>
       <c r="B27" s="0" t="n">
         <v>1963</v>
       </c>
@@ -6292,6 +6318,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16"/>
       <c r="B28" s="0" t="n">
         <v>1964</v>
       </c>
@@ -6306,6 +6333,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16"/>
       <c r="B29" s="0" t="n">
         <v>1965</v>
       </c>
@@ -6320,6 +6348,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16"/>
       <c r="B30" s="0" t="n">
         <v>1965</v>
       </c>
@@ -6334,6 +6363,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16"/>
       <c r="B31" s="0" t="n">
         <v>1968</v>
       </c>
@@ -6348,6 +6378,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16"/>
       <c r="B32" s="0" t="n">
         <v>1968</v>
       </c>
@@ -6362,6 +6393,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16"/>
       <c r="B33" s="0" t="n">
         <v>1968</v>
       </c>
@@ -6376,6 +6408,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16"/>
       <c r="B34" s="0" t="n">
         <v>1968</v>
       </c>
@@ -6390,6 +6423,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16"/>
       <c r="B35" s="0" t="n">
         <v>1969</v>
       </c>
@@ -6404,6 +6438,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16"/>
       <c r="B36" s="0" t="n">
         <v>1969</v>
       </c>
@@ -6418,6 +6453,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16"/>
       <c r="B37" s="0" t="n">
         <v>1969</v>
       </c>
@@ -6432,6 +6468,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16"/>
       <c r="B38" s="0" t="n">
         <v>1970</v>
       </c>
@@ -6446,6 +6483,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="16"/>
       <c r="B39" s="0" t="n">
         <v>1970</v>
       </c>
@@ -6460,6 +6498,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16"/>
       <c r="B40" s="0" t="n">
         <v>1971</v>
       </c>
@@ -6474,6 +6513,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16"/>
       <c r="B41" s="0" t="n">
         <v>1972</v>
       </c>
@@ -6488,6 +6528,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16"/>
       <c r="B42" s="0" t="n">
         <v>1972</v>
       </c>
@@ -6502,6 +6543,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16"/>
       <c r="B43" s="0" t="n">
         <v>1972</v>
       </c>
@@ -6516,6 +6558,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16"/>
       <c r="B44" s="0" t="n">
         <v>1973</v>
       </c>
@@ -6530,6 +6573,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="16"/>
       <c r="B45" s="0" t="n">
         <v>1975</v>
       </c>
@@ -6544,6 +6588,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="16"/>
       <c r="B46" s="0" t="n">
         <v>1975</v>
       </c>
@@ -6558,6 +6603,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="16"/>
       <c r="B47" s="0" t="n">
         <v>1976</v>
       </c>
@@ -6572,6 +6618,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="16"/>
       <c r="B48" s="0" t="n">
         <v>1976</v>
       </c>
@@ -6581,11 +6628,12 @@
       <c r="D48" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16"/>
       <c r="B49" s="0" t="n">
         <v>1976</v>
       </c>
@@ -6600,6 +6648,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16"/>
       <c r="B50" s="0" t="n">
         <v>1976</v>
       </c>
@@ -6614,6 +6663,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16"/>
       <c r="B51" s="0" t="n">
         <v>1978</v>
       </c>
@@ -6628,6 +6678,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="16"/>
       <c r="B52" s="0" t="n">
         <v>1978</v>
       </c>
@@ -6642,6 +6693,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16"/>
       <c r="B53" s="0" t="n">
         <v>1979</v>
       </c>
@@ -6656,6 +6708,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16"/>
       <c r="B54" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6670,6 +6723,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16"/>
       <c r="B55" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6684,6 +6738,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16"/>
       <c r="B56" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6698,6 +6753,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16"/>
       <c r="B57" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6712,6 +6768,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16"/>
       <c r="B58" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6726,6 +6783,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16"/>
       <c r="B59" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6740,6 +6798,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16"/>
       <c r="B60" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6754,6 +6813,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16"/>
       <c r="B61" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6768,6 +6828,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16"/>
       <c r="B62" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6782,6 +6843,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16"/>
       <c r="B63" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6796,6 +6858,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16"/>
       <c r="B64" s="0" t="n">
         <v>1983</v>
       </c>
@@ -6810,6 +6873,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16"/>
       <c r="B65" s="0" t="n">
         <v>1983</v>
       </c>
@@ -6824,6 +6888,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16"/>
       <c r="B66" s="0" t="n">
         <v>1983</v>
       </c>
@@ -6838,6 +6903,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16"/>
       <c r="B67" s="0" t="n">
         <v>1983</v>
       </c>
@@ -6852,6 +6918,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16"/>
       <c r="B68" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6866,6 +6933,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16"/>
       <c r="B69" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6875,11 +6943,12 @@
       <c r="D69" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="1" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16"/>
       <c r="B70" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6894,6 +6963,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="18"/>
       <c r="B71" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6908,6 +6978,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16"/>
       <c r="B72" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6922,6 +6993,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="16"/>
       <c r="B73" s="0" t="n">
         <v>1985</v>
       </c>
@@ -6936,6 +7008,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="16"/>
       <c r="B74" s="0" t="n">
         <v>1986</v>
       </c>
@@ -6950,6 +7023,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="16"/>
       <c r="B75" s="0" t="n">
         <v>1986</v>
       </c>
@@ -6964,6 +7038,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="16"/>
       <c r="B76" s="0" t="n">
         <v>1986</v>
       </c>
@@ -6973,11 +7048,12 @@
       <c r="D76" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="1" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="16"/>
       <c r="B77" s="0" t="n">
         <v>1986</v>
       </c>
@@ -6992,6 +7068,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="16"/>
       <c r="B78" s="0" t="n">
         <v>1986</v>
       </c>
@@ -7006,6 +7083,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="16"/>
       <c r="B79" s="0" t="n">
         <v>1987</v>
       </c>
@@ -7020,6 +7098,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="16"/>
       <c r="B80" s="0" t="n">
         <v>1987</v>
       </c>
@@ -7034,6 +7113,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="16"/>
       <c r="B81" s="0" t="n">
         <v>1987</v>
       </c>
@@ -7048,6 +7128,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="16"/>
       <c r="B82" s="0" t="n">
         <v>1988</v>
       </c>
@@ -7062,6 +7143,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="16"/>
       <c r="B83" s="0" t="n">
         <v>1988</v>
       </c>
@@ -7076,6 +7158,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="16"/>
       <c r="B84" s="0" t="n">
         <v>1989</v>
       </c>
@@ -7090,6 +7173,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="18"/>
       <c r="B85" s="0" t="n">
         <v>1989</v>
       </c>
@@ -7104,6 +7188,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="16"/>
       <c r="B86" s="0" t="n">
         <v>1989</v>
       </c>
@@ -7118,6 +7203,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="16"/>
       <c r="B87" s="0" t="n">
         <v>1989</v>
       </c>
@@ -7132,6 +7218,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="16"/>
       <c r="B88" s="0" t="n">
         <v>1989</v>
       </c>
@@ -7146,6 +7233,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="16"/>
       <c r="B89" s="0" t="n">
         <v>1990</v>
       </c>
@@ -7160,6 +7248,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="16"/>
       <c r="B90" s="0" t="n">
         <v>1990</v>
       </c>
@@ -7174,6 +7263,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="16"/>
       <c r="B91" s="0" t="n">
         <v>1990</v>
       </c>
@@ -7188,6 +7278,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="16"/>
       <c r="B92" s="0" t="n">
         <v>1990</v>
       </c>
@@ -7202,6 +7293,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="16"/>
       <c r="B93" s="0" t="n">
         <v>1990</v>
       </c>
@@ -7216,6 +7308,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="16"/>
       <c r="B94" s="0" t="n">
         <v>1990</v>
       </c>
@@ -7230,6 +7323,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="16"/>
       <c r="B95" s="0" t="n">
         <v>1991</v>
       </c>
@@ -7244,6 +7338,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="16"/>
       <c r="B96" s="0" t="n">
         <v>1995</v>
       </c>
@@ -7258,6 +7353,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="16"/>
       <c r="B97" s="0" t="n">
         <v>1995</v>
       </c>
@@ -7272,6 +7368,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="16"/>
       <c r="B98" s="0" t="n">
         <v>1995</v>
       </c>
@@ -7286,6 +7383,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="16"/>
       <c r="B99" s="0" t="n">
         <v>1996</v>
       </c>
@@ -7303,6 +7401,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="16"/>
       <c r="B100" s="0" t="n">
         <v>1996</v>
       </c>
@@ -7317,6 +7416,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="16"/>
       <c r="B101" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7331,6 +7431,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="16"/>
       <c r="B102" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7345,6 +7446,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="16"/>
       <c r="B103" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7359,6 +7461,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="16"/>
       <c r="B104" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7373,6 +7476,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="16"/>
       <c r="B105" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7387,6 +7491,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="16"/>
       <c r="B106" s="0" t="n">
         <v>2000</v>
       </c>
@@ -7401,6 +7506,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="16"/>
       <c r="B107" s="0" t="n">
         <v>2001</v>
       </c>
@@ -7415,6 +7521,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="16"/>
       <c r="B108" s="0" t="n">
         <v>2001</v>
       </c>
@@ -7429,6 +7536,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="16"/>
       <c r="B109" s="0" t="n">
         <v>2003</v>
       </c>
@@ -7443,6 +7551,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="16"/>
       <c r="B110" s="0" t="n">
         <v>2003</v>
       </c>
@@ -7457,6 +7566,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="16"/>
       <c r="B111" s="0" t="n">
         <v>2003</v>
       </c>
@@ -7466,11 +7576,12 @@
       <c r="D111" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="E111" s="17" t="s">
+      <c r="E111" s="8" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="16"/>
       <c r="B112" s="0" t="n">
         <v>2003</v>
       </c>
@@ -7485,6 +7596,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="16"/>
       <c r="B113" s="0" t="n">
         <v>2005</v>
       </c>
@@ -7499,6 +7611,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="16"/>
       <c r="B114" s="0" t="n">
         <v>2007</v>
       </c>
@@ -7513,6 +7626,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="16"/>
       <c r="B115" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7527,6 +7641,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="16"/>
       <c r="B116" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7541,6 +7656,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="16"/>
       <c r="B117" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7555,6 +7671,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="16"/>
       <c r="B118" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7564,11 +7681,12 @@
       <c r="D118" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="1" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="16"/>
       <c r="B119" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7578,11 +7696,12 @@
       <c r="D119" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E119" s="1" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="16"/>
       <c r="B120" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7592,11 +7711,12 @@
       <c r="D120" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E120" s="1" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="16"/>
       <c r="B121" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7606,11 +7726,12 @@
       <c r="D121" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E121" s="1" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="16"/>
       <c r="B122" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7620,11 +7741,12 @@
       <c r="D122" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E122" s="1" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="16"/>
       <c r="B123" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7634,11 +7756,12 @@
       <c r="D123" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="1" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="16"/>
       <c r="B124" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7653,6 +7776,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="16"/>
       <c r="B125" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7667,6 +7791,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="16"/>
       <c r="B126" s="0" t="n">
         <v>2017</v>
       </c>
@@ -7681,6 +7806,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="16"/>
       <c r="B127" s="0" t="n">
         <v>2018</v>
       </c>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="617">
   <si>
     <t xml:space="preserve">Amount</t>
   </si>
@@ -378,10 +378,10 @@
     <t xml:space="preserve">Beirut prepares to receive Unesco conference</t>
   </si>
   <si>
-    <t xml:space="preserve">Conference opens inLebanon November 17th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What the dlegates will discuss in Beirut</t>
+    <t xml:space="preserve">Conference opens in Lebanon November 17th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What the delegates will discuss in Beirut</t>
   </si>
   <si>
     <t xml:space="preserve">[12]</t>
@@ -396,7 +396,7 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">UNESCO can aid U.N Plan for under-developed areas, tores bodet says</t>
+    <t xml:space="preserve">UNESCO can aid U.N Plan for under-developed areas, Torres Bodet says</t>
   </si>
   <si>
     <t xml:space="preserve">$85,000,000 proposed by UN for technical development plan</t>
@@ -420,7 +420,7 @@
     <t xml:space="preserve">[2]</t>
   </si>
   <si>
-    <t xml:space="preserve">40'000 midle east refugee children have claimed their right to ducation</t>
+    <t xml:space="preserve">40'000 middle east refugee children have claimed their right to ducation</t>
   </si>
   <si>
     <t xml:space="preserve">[11]</t>
@@ -432,10 +432,10 @@
     <t xml:space="preserve">[6, 7]</t>
   </si>
   <si>
-    <t xml:space="preserve">The culture of India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumar Chatterji, Suniti</t>
+    <t xml:space="preserve">Culture lives through exchange – not by forced loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fradier, Georges</t>
   </si>
   <si>
     <t xml:space="preserve">India</t>
@@ -471,9 +471,6 @@
     <t xml:space="preserve">Folklore is an everyday event in Yugoslavia</t>
   </si>
   <si>
-    <t xml:space="preserve">Fradier, Georges</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entertainment films for children</t>
   </si>
   <si>
@@ -483,6 +480,9 @@
     <t xml:space="preserve">UK</t>
   </si>
   <si>
+    <t xml:space="preserve">[6, 7, 8, 9, 10, 11]</t>
+  </si>
+  <si>
     <t xml:space="preserve">With these two hands</t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t xml:space="preserve">[8]</t>
   </si>
   <si>
-    <t xml:space="preserve">School for gypsies</t>
+    <t xml:space="preserve">Schools for gypsies</t>
   </si>
   <si>
     <t xml:space="preserve">[14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24]</t>
@@ -534,7 +534,7 @@
     <t xml:space="preserve">Ten years of progress</t>
   </si>
   <si>
-    <t xml:space="preserve">Masterworkds of Japan's Stone Age Art</t>
+    <t xml:space="preserve">Masterworks of Japan's Stone Age Art</t>
   </si>
   <si>
     <t xml:space="preserve">Noma, Seiroku </t>
@@ -1890,7 +1890,7 @@
     <numFmt numFmtId="165" formatCode="d\-mmm"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1926,12 +1926,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2016,7 +2010,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2065,15 +2059,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2081,7 +2071,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2089,7 +2079,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2219,7 +2209,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2314,7 +2304,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
@@ -2768,7 +2758,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
@@ -2942,13 +2932,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.85"/>
@@ -2965,7 +2955,7 @@
       <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -2982,7 +2972,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="1" t="n">
         <v>73649</v>
       </c>
@@ -3003,7 +2993,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="n">
         <v>73649</v>
       </c>
@@ -3024,7 +3014,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="n">
         <v>73683</v>
       </c>
@@ -3045,7 +3035,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="n">
         <v>73683</v>
       </c>
@@ -3066,7 +3056,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="n">
         <v>73713</v>
       </c>
@@ -3087,7 +3077,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="n">
         <v>73741</v>
       </c>
@@ -3108,7 +3098,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1" t="n">
         <v>73774</v>
       </c>
@@ -3129,7 +3119,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="n">
         <v>73774</v>
       </c>
@@ -3150,7 +3140,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="n">
         <v>73790</v>
       </c>
@@ -3171,7 +3161,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="n">
         <v>73809</v>
       </c>
@@ -3192,7 +3182,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="n">
         <v>73829</v>
       </c>
@@ -3213,7 +3203,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="n">
         <v>73850</v>
       </c>
@@ -3234,6 +3224,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="n">
         <v>73867</v>
       </c>
@@ -3244,7 +3235,7 @@
         <v>380012</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>116</v>
@@ -3254,6 +3245,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="n">
         <v>73867</v>
       </c>
@@ -3274,6 +3266,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="n">
         <v>73938</v>
       </c>
@@ -3297,6 +3290,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="n">
         <v>73956</v>
       </c>
@@ -3317,6 +3311,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="n">
         <v>73993</v>
       </c>
@@ -3337,6 +3332,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
       <c r="B19" s="1" t="n">
         <v>74130</v>
       </c>
@@ -3360,6 +3356,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="n">
         <v>74946</v>
       </c>
@@ -3383,6 +3380,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="n">
         <v>71298</v>
       </c>
@@ -3403,6 +3401,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="n">
         <v>71298</v>
       </c>
@@ -3423,6 +3422,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="n">
         <v>73516</v>
       </c>
@@ -3446,6 +3446,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12"/>
       <c r="B24" s="1" t="n">
         <v>73537</v>
       </c>
@@ -3469,6 +3470,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12"/>
       <c r="B25" s="1" t="n">
         <v>73557</v>
       </c>
@@ -3492,6 +3494,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12"/>
       <c r="B26" s="1" t="n">
         <v>74639</v>
       </c>
@@ -3508,13 +3511,14 @@
         <v>146</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
       <c r="B27" s="1" t="n">
         <v>74639</v>
       </c>
@@ -3528,16 +3532,17 @@
         <v>131</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
       <c r="B28" s="1" t="n">
         <v>68941</v>
       </c>
@@ -3547,7 +3552,9 @@
       <c r="D28" s="1" t="n">
         <v>380026</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>151</v>
       </c>
@@ -3556,6 +3563,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12"/>
       <c r="B29" s="1" t="n">
         <v>67218</v>
       </c>
@@ -3579,6 +3587,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="n">
         <v>67562</v>
       </c>
@@ -3602,6 +3611,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="n">
         <v>67956</v>
       </c>
@@ -3625,6 +3635,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="n">
         <v>66142</v>
       </c>
@@ -3645,6 +3656,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="n">
         <v>66142</v>
       </c>
@@ -3668,6 +3680,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="n">
         <v>66182</v>
       </c>
@@ -4020,7 +4033,7 @@
         <v>211</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>203</v>
@@ -4138,7 +4151,7 @@
         <v>226</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,7 +5154,7 @@
         <v>353</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,7 +5351,7 @@
       <c r="D107" s="1" t="n">
         <v>380105</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E107" s="14" t="s">
         <v>376</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -5469,6 +5482,7 @@
         <v>395</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5491,7 +5505,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5514,12 +5528,12 @@
       <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="182.56"/>
   </cols>
   <sheetData>
@@ -5538,7 +5552,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5548,12 +5562,12 @@
       <c r="D2" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5568,7 +5582,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5583,7 +5597,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5598,7 +5612,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="0" t="n">
         <v>1948</v>
       </c>
@@ -5613,7 +5627,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5628,7 +5642,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5643,7 +5657,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5658,7 +5672,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5673,7 +5687,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5688,7 +5702,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5703,7 +5717,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5718,7 +5732,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5733,7 +5747,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5748,7 +5762,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5763,7 +5777,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="0" t="n">
         <v>1949</v>
       </c>
@@ -5778,7 +5792,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="0" t="n">
         <v>1950</v>
       </c>
@@ -5793,7 +5807,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="0" t="n">
         <v>1951</v>
       </c>
@@ -5808,7 +5822,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="0" t="n">
         <v>1955</v>
       </c>
@@ -5823,7 +5837,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="0" t="n">
         <v>1955</v>
       </c>
@@ -5838,7 +5852,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="0" t="n">
         <v>1958</v>
       </c>
@@ -5853,7 +5867,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="0" t="n">
         <v>1958</v>
       </c>
@@ -5868,7 +5882,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="0" t="n">
         <v>1959</v>
       </c>
@@ -5883,7 +5897,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="0" t="n">
         <v>1963</v>
       </c>
@@ -5898,7 +5912,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="0" t="n">
         <v>1963</v>
       </c>
@@ -5913,7 +5927,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="0" t="n">
         <v>1963</v>
       </c>
@@ -5928,7 +5942,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="0" t="n">
         <v>1964</v>
       </c>
@@ -5943,7 +5957,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="0" t="n">
         <v>1965</v>
       </c>
@@ -5958,7 +5972,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="0" t="n">
         <v>1965</v>
       </c>
@@ -5973,7 +5987,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="0" t="n">
         <v>1968</v>
       </c>
@@ -5988,7 +6002,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="0" t="n">
         <v>1968</v>
       </c>
@@ -6003,7 +6017,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="0" t="n">
         <v>1968</v>
       </c>
@@ -6018,7 +6032,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="0" t="n">
         <v>1968</v>
       </c>
@@ -6033,7 +6047,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="0" t="n">
         <v>1969</v>
       </c>
@@ -6048,7 +6062,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="0" t="n">
         <v>1969</v>
       </c>
@@ -6063,7 +6077,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="0" t="n">
         <v>1969</v>
       </c>
@@ -6078,7 +6092,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="0" t="n">
         <v>1970</v>
       </c>
@@ -6093,7 +6107,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="0" t="n">
         <v>1970</v>
       </c>
@@ -6108,7 +6122,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="0" t="n">
         <v>1971</v>
       </c>
@@ -6123,7 +6137,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="0" t="n">
         <v>1972</v>
       </c>
@@ -6138,7 +6152,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="0" t="n">
         <v>1972</v>
       </c>
@@ -6153,7 +6167,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="0" t="n">
         <v>1972</v>
       </c>
@@ -6168,7 +6182,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="0" t="n">
         <v>1973</v>
       </c>
@@ -6183,7 +6197,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="0" t="n">
         <v>1975</v>
       </c>
@@ -6198,7 +6212,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="0" t="n">
         <v>1975</v>
       </c>
@@ -6213,7 +6227,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="0" t="n">
         <v>1976</v>
       </c>
@@ -6228,7 +6242,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="0" t="n">
         <v>1976</v>
       </c>
@@ -6243,7 +6257,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="0" t="n">
         <v>1976</v>
       </c>
@@ -6258,7 +6272,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="0" t="n">
         <v>1976</v>
       </c>
@@ -6273,7 +6287,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="0" t="n">
         <v>1978</v>
       </c>
@@ -6288,7 +6302,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="0" t="n">
         <v>1978</v>
       </c>
@@ -6303,7 +6317,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="0" t="n">
         <v>1979</v>
       </c>
@@ -6318,7 +6332,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6333,7 +6347,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6348,7 +6362,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6363,7 +6377,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6378,7 +6392,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="0" t="n">
         <v>1980</v>
       </c>
@@ -6393,7 +6407,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6408,7 +6422,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6423,7 +6437,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6438,7 +6452,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6453,7 +6467,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="0" t="n">
         <v>1982</v>
       </c>
@@ -6468,7 +6482,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="0" t="n">
         <v>1983</v>
       </c>
@@ -6483,7 +6497,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="0" t="n">
         <v>1983</v>
       </c>
@@ -6498,7 +6512,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="0" t="n">
         <v>1983</v>
       </c>
@@ -6513,7 +6527,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="0" t="n">
         <v>1983</v>
       </c>
@@ -6528,7 +6542,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6543,7 +6557,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6558,7 +6572,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6573,7 +6587,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6588,7 +6602,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="0" t="n">
         <v>1984</v>
       </c>
@@ -6603,7 +6617,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="0" t="n">
         <v>1985</v>
       </c>
@@ -6618,7 +6632,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="0" t="n">
         <v>1986</v>
       </c>
@@ -6633,7 +6647,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="0" t="n">
         <v>1986</v>
       </c>
@@ -6648,7 +6662,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="0" t="n">
         <v>1986</v>
       </c>
@@ -6663,7 +6677,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="0" t="n">
         <v>1986</v>
       </c>
@@ -6678,7 +6692,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="0" t="n">
         <v>1986</v>
       </c>
@@ -6693,7 +6707,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="0" t="n">
         <v>1987</v>
       </c>
@@ -6708,7 +6722,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="0" t="n">
         <v>1987</v>
       </c>
@@ -6723,7 +6737,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="0" t="n">
         <v>1987</v>
       </c>
@@ -6738,7 +6752,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="0" t="n">
         <v>1988</v>
       </c>
@@ -6753,7 +6767,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="0" t="n">
         <v>1988</v>
       </c>
@@ -6768,7 +6782,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="0" t="n">
         <v>1989</v>
       </c>
@@ -6783,7 +6797,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="0" t="n">
         <v>1989</v>
       </c>
@@ -6798,7 +6812,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="0" t="n">
         <v>1989</v>
       </c>
@@ -6813,7 +6827,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="0" t="n">
         <v>1989</v>
       </c>
@@ -6828,7 +6842,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="0" t="n">
         <v>1989</v>
       </c>
@@ -6843,7 +6857,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="0" t="n">
         <v>1990</v>
       </c>
@@ -6858,7 +6872,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="0" t="n">
         <v>1990</v>
       </c>
@@ -6873,7 +6887,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="0" t="n">
         <v>1990</v>
       </c>
@@ -6888,7 +6902,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="0" t="n">
         <v>1990</v>
       </c>
@@ -6903,7 +6917,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="0" t="n">
         <v>1990</v>
       </c>
@@ -6918,7 +6932,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="0" t="n">
         <v>1990</v>
       </c>
@@ -6933,7 +6947,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="0" t="n">
         <v>1991</v>
       </c>
@@ -6948,7 +6962,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="0" t="n">
         <v>1995</v>
       </c>
@@ -6963,7 +6977,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="0" t="n">
         <v>1995</v>
       </c>
@@ -6978,7 +6992,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="0" t="n">
         <v>1995</v>
       </c>
@@ -6993,7 +7007,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="13"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="0" t="n">
         <v>1996</v>
       </c>
@@ -7011,7 +7025,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="0" t="n">
         <v>1996</v>
       </c>
@@ -7026,7 +7040,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7036,12 +7050,12 @@
       <c r="D101" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="17" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7051,12 +7065,12 @@
       <c r="D102" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="17" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7071,7 +7085,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7086,7 +7100,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="13"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="0" t="n">
         <v>1999</v>
       </c>
@@ -7101,7 +7115,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="0" t="n">
         <v>2000</v>
       </c>
@@ -7116,7 +7130,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="0" t="n">
         <v>2001</v>
       </c>
@@ -7131,7 +7145,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="0" t="n">
         <v>2001</v>
       </c>
@@ -7146,7 +7160,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="13"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="0" t="n">
         <v>2003</v>
       </c>
@@ -7161,7 +7175,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="13"/>
+      <c r="A110" s="12"/>
       <c r="B110" s="0" t="n">
         <v>2003</v>
       </c>
@@ -7176,7 +7190,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="13"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="0" t="n">
         <v>2003</v>
       </c>
@@ -7191,7 +7205,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="0" t="n">
         <v>2003</v>
       </c>
@@ -7206,7 +7220,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="13"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="0" t="n">
         <v>2005</v>
       </c>
@@ -7221,7 +7235,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="0" t="n">
         <v>2007</v>
       </c>
@@ -7236,7 +7250,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7251,7 +7265,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7266,7 +7280,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7281,7 +7295,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="13"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7296,7 +7310,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="13"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7311,7 +7325,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13"/>
+      <c r="A120" s="12"/>
       <c r="B120" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7326,7 +7340,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="13"/>
+      <c r="A121" s="12"/>
       <c r="B121" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7341,7 +7355,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13"/>
+      <c r="A122" s="12"/>
       <c r="B122" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7356,7 +7370,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="13"/>
+      <c r="A123" s="12"/>
       <c r="B123" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7371,7 +7385,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="13"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7386,7 +7400,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="13"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="0" t="n">
         <v>2008</v>
       </c>
@@ -7401,7 +7415,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="0" t="n">
         <v>2017</v>
       </c>
@@ -7416,7 +7430,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="13"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="0" t="n">
         <v>2018</v>
       </c>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="618">
   <si>
     <t xml:space="preserve">Amount</t>
   </si>
@@ -534,6 +534,9 @@
     <t xml:space="preserve">Ten years of progress</t>
   </si>
   <si>
+    <t xml:space="preserve">[14, 15, 16, 17, 18, 19, 20, 21, 22, 23]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Masterworks of Japan's Stone Age Art</t>
   </si>
   <si>
@@ -591,7 +594,7 @@
     <t xml:space="preserve">[18, 19, 20, 21, 22, 23]</t>
   </si>
   <si>
-    <t xml:space="preserve">Lilliput Paris on a worl tour</t>
+    <t xml:space="preserve">Lilliput Paris on a world tour</t>
   </si>
   <si>
     <t xml:space="preserve">Almasy, Paul </t>
@@ -663,7 +666,7 @@
     <t xml:space="preserve">Germany, Austria</t>
   </si>
   <si>
-    <t xml:space="preserve">Progress and prejudice</t>
+    <t xml:space="preserve">Orient-occident: a study in Ignorance. Progress and prejudice</t>
   </si>
   <si>
     <t xml:space="preserve">[12, 13, 14]</t>
@@ -732,7 +735,7 @@
     <t xml:space="preserve">Maheu, René</t>
   </si>
   <si>
-    <t xml:space="preserve">[4, 6, 7, 9, 10]</t>
+    <t xml:space="preserve">[4, 5, 6, 7, 6, 9, 10]</t>
   </si>
   <si>
     <t xml:space="preserve">The revolution in books</t>
@@ -762,10 +765,10 @@
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
-    <t xml:space="preserve">[5, 6, 7, 8, 10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayutya: Venice of south asia</t>
+    <t xml:space="preserve">[5, 6, 7, 8, 9, 10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayutya:,Venice of south asia</t>
   </si>
   <si>
     <t xml:space="preserve">Jumsai na Ayutya, Sumet </t>
@@ -774,7 +777,7 @@
     <t xml:space="preserve">Thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">[17, 18, 29, 20, 21, 22, 23]</t>
+    <t xml:space="preserve">[17, 18, 19, 20, 21, 22, 23]</t>
   </si>
   <si>
     <t xml:space="preserve">Global assault on the weather</t>
@@ -795,7 +798,7 @@
     <t xml:space="preserve">Abdel-Ghani, A. H. </t>
   </si>
   <si>
-    <t xml:space="preserve">[16, 17, 21]</t>
+    <t xml:space="preserve">[16, 17, ,19, 19, 20, 21]</t>
   </si>
   <si>
     <t xml:space="preserve">Masterpieces from a lost kingdom</t>
@@ -2205,11 +2208,11 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="108" zoomScaleNormal="108" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2304,7 +2307,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
@@ -2758,7 +2761,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
@@ -2934,12 +2937,13 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="43.47"/>
@@ -3701,6 +3705,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
       <c r="B35" s="1" t="n">
         <v>66222</v>
       </c>
@@ -3711,19 +3716,20 @@
         <v>380033</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
       <c r="B36" s="1" t="n">
         <v>66244</v>
       </c>
@@ -3734,19 +3740,20 @@
         <v>380034</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="n">
         <v>64895</v>
       </c>
@@ -3757,16 +3764,17 @@
         <v>380035</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="n">
         <v>65221</v>
       </c>
@@ -3777,19 +3785,20 @@
         <v>380036</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12"/>
       <c r="B39" s="1" t="n">
         <v>65278</v>
       </c>
@@ -3800,19 +3809,20 @@
         <v>380037</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
       <c r="B40" s="1" t="n">
         <v>66059</v>
       </c>
@@ -3823,19 +3833,20 @@
         <v>380038</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
       <c r="B41" s="1" t="n">
         <v>66107</v>
       </c>
@@ -3846,19 +3857,20 @@
         <v>380039</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
       <c r="B42" s="1" t="n">
         <v>63808</v>
       </c>
@@ -3869,19 +3881,20 @@
         <v>380040</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12"/>
       <c r="B43" s="1" t="n">
         <v>63847</v>
       </c>
@@ -3892,19 +3905,20 @@
         <v>380041</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12"/>
       <c r="B44" s="1" t="n">
         <v>64092</v>
       </c>
@@ -3915,19 +3929,20 @@
         <v>380042</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12"/>
       <c r="B45" s="1" t="n">
         <v>64240</v>
       </c>
@@ -3941,13 +3956,14 @@
         <v>155</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="n">
         <v>64255</v>
       </c>
@@ -3958,19 +3974,20 @@
         <v>380044</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12"/>
       <c r="B47" s="1" t="n">
         <v>63456</v>
       </c>
@@ -3981,19 +3998,20 @@
         <v>380045</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12"/>
       <c r="B48" s="1" t="n">
         <v>63659</v>
       </c>
@@ -4004,19 +4022,20 @@
         <v>380046</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12"/>
       <c r="B49" s="1" t="n">
         <v>62672</v>
       </c>
@@ -4027,19 +4046,20 @@
         <v>380047</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>135</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12"/>
       <c r="B50" s="1" t="n">
         <v>63381</v>
       </c>
@@ -4050,19 +4070,20 @@
         <v>380048</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12"/>
       <c r="B51" s="1" t="n">
         <v>61386</v>
       </c>
@@ -4073,19 +4094,20 @@
         <v>380049</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12"/>
       <c r="B52" s="1" t="n">
         <v>61468</v>
       </c>
@@ -4096,19 +4118,20 @@
         <v>380050</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12"/>
       <c r="B53" s="1" t="n">
         <v>61952</v>
       </c>
@@ -4119,19 +4142,20 @@
         <v>380051</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12"/>
       <c r="B54" s="1" t="n">
         <v>31600</v>
       </c>
@@ -4142,19 +4166,20 @@
         <v>380052</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12"/>
       <c r="B55" s="1" t="n">
         <v>60488</v>
       </c>
@@ -4165,19 +4190,20 @@
         <v>380053</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12"/>
       <c r="B56" s="1" t="n">
         <v>60510</v>
       </c>
@@ -4188,19 +4214,20 @@
         <v>380054</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12"/>
       <c r="B57" s="1" t="n">
         <v>60619</v>
       </c>
@@ -4211,19 +4238,20 @@
         <v>380055</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12"/>
       <c r="B58" s="1" t="n">
         <v>12656</v>
       </c>
@@ -4234,19 +4262,20 @@
         <v>380056</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="12"/>
       <c r="B59" s="1" t="n">
         <v>14256</v>
       </c>
@@ -4257,19 +4286,20 @@
         <v>380057</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="12"/>
       <c r="B60" s="1" t="n">
         <v>16653</v>
       </c>
@@ -4280,19 +4310,20 @@
         <v>380058</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12"/>
       <c r="B61" s="1" t="n">
         <v>20805</v>
       </c>
@@ -4303,19 +4334,20 @@
         <v>380059</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12"/>
       <c r="B62" s="1" t="n">
         <v>28352</v>
       </c>
@@ -4326,19 +4358,20 @@
         <v>380060</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12"/>
       <c r="B63" s="1" t="n">
         <v>32667</v>
       </c>
@@ -4349,16 +4382,16 @@
         <v>380061</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,13 +4408,13 @@
         <v>109</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,10 +4428,10 @@
         <v>380063</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>98</v>
@@ -4418,13 +4451,13 @@
         <v>145</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,7 +4474,7 @@
         <v>145</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>98</v>
@@ -4461,13 +4494,13 @@
         <v>155</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,16 +4514,16 @@
         <v>380067</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,19 +4537,19 @@
         <v>380068</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,10 +4563,10 @@
         <v>380069</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>98</v>
@@ -4550,10 +4583,10 @@
         <v>380070</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>98</v>
@@ -4573,7 +4606,7 @@
         <v>155</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>98</v>
@@ -4590,10 +4623,10 @@
         <v>380072</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>98</v>
@@ -4610,16 +4643,16 @@
         <v>380073</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,13 +4666,13 @@
         <v>380074</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>144</v>
@@ -4656,16 +4689,16 @@
         <v>380075</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4679,19 +4712,19 @@
         <v>380076</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="n">
         <v>93019</v>
       </c>
@@ -4702,16 +4735,16 @@
         <v>380077</v>
       </c>
       <c r="E79" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,10 +4758,10 @@
         <v>380078</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>98</v>
@@ -4745,16 +4778,16 @@
         <v>380079</v>
       </c>
       <c r="E81" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,13 +4801,13 @@
         <v>380080</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>144</v>
@@ -4791,13 +4824,13 @@
         <v>380081</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,16 +4844,16 @@
         <v>380082</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,19 +4867,19 @@
         <v>380083</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,19 +4893,19 @@
         <v>380084</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4886,19 +4919,19 @@
         <v>380085</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,19 +4945,19 @@
         <v>380086</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,13 +4971,13 @@
         <v>380087</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>144</v>
@@ -4961,19 +4994,19 @@
         <v>380088</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,16 +5020,16 @@
         <v>380089</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,13 +5043,13 @@
         <v>380090</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>144</v>
@@ -5033,13 +5066,13 @@
         <v>380091</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>144</v>
@@ -5056,13 +5089,13 @@
         <v>380092</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>140</v>
@@ -5079,19 +5112,19 @@
         <v>380093</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5105,10 +5138,10 @@
         <v>380094</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>98</v>
@@ -5125,10 +5158,10 @@
         <v>380095</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>98</v>
@@ -5145,13 +5178,13 @@
         <v>380096</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>149</v>
@@ -5168,13 +5201,13 @@
         <v>380097</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>140</v>
@@ -5191,16 +5224,16 @@
         <v>380098</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5214,13 +5247,13 @@
         <v>380099</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>140</v>
@@ -5237,19 +5270,19 @@
         <v>380100</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,19 +5296,19 @@
         <v>380101</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,10 +5322,10 @@
         <v>380102</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>98</v>
@@ -5309,16 +5342,16 @@
         <v>380103</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,10 +5365,10 @@
         <v>380104</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>98</v>
@@ -5352,16 +5385,16 @@
         <v>380105</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5375,16 +5408,16 @@
         <v>380106</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5398,19 +5431,19 @@
         <v>380107</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,16 +5457,16 @@
         <v>380108</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,16 +5480,16 @@
         <v>380109</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5470,16 +5503,16 @@
         <v>380110</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5505,7 +5538,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5528,7 +5561,7 @@
       <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
@@ -5545,10 +5578,10 @@
         <v>90</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,10 +5593,10 @@
         <v>73741</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5575,10 +5608,10 @@
         <v>73829</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5590,10 +5623,10 @@
         <v>73829</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,10 +5638,10 @@
         <v>73829</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5620,10 +5653,10 @@
         <v>73829</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,10 +5668,10 @@
         <v>73886</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5650,10 +5683,10 @@
         <v>73886</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5665,10 +5698,10 @@
         <v>73886</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,10 +5713,10 @@
         <v>73886</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,10 +5728,10 @@
         <v>73886</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,10 +5743,10 @@
         <v>73970</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,10 +5758,10 @@
         <v>73970</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5740,10 +5773,10 @@
         <v>74013</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,10 +5788,10 @@
         <v>74130</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5770,10 +5803,10 @@
         <v>74130</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,10 +5818,10 @@
         <v>74130</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5800,10 +5833,10 @@
         <v>81370</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,10 +5848,10 @@
         <v>74589</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,10 +5863,10 @@
         <v>68948</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,10 +5878,10 @@
         <v>69080</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,10 +5893,10 @@
         <v>66148</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5875,10 +5908,10 @@
         <v>66148</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,10 +5923,10 @@
         <v>78166</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,10 +5938,10 @@
         <v>63436</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,10 +5953,10 @@
         <v>63437</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5935,10 +5968,10 @@
         <v>78356</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,10 +5983,10 @@
         <v>62315</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,10 +5998,10 @@
         <v>78451</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,10 +6013,10 @@
         <v>78451</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,10 +6028,10 @@
         <v>78237</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6010,10 +6043,10 @@
         <v>78240</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6025,10 +6058,10 @@
         <v>78240</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,10 +6073,10 @@
         <v>78306</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6055,10 +6088,10 @@
         <v>57247</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6070,10 +6103,10 @@
         <v>78246</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,10 +6118,10 @@
         <v>78246</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,10 +6133,10 @@
         <v>56857</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,10 +6148,10 @@
         <v>78253</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,10 +6163,10 @@
         <v>53888</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,10 +6178,10 @@
         <v>78279</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,10 +6193,10 @@
         <v>78382</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,10 +6208,10 @@
         <v>78384</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6190,10 +6223,10 @@
         <v>74891</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,10 +6238,10 @@
         <v>74836</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6220,10 +6253,10 @@
         <v>74845</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,10 +6268,10 @@
         <v>74818</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,10 +6283,10 @@
         <v>74825</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6265,10 +6298,10 @@
         <v>74825</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6280,10 +6313,10 @@
         <v>74829</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6295,10 +6328,10 @@
         <v>74795</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6310,10 +6343,10 @@
         <v>74807</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6325,10 +6358,10 @@
         <v>74771</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,10 +6373,10 @@
         <v>40945</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,10 +6388,10 @@
         <v>42993</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,10 +6403,10 @@
         <v>74642</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,10 +6418,10 @@
         <v>74758</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6400,10 +6433,10 @@
         <v>74766</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,10 +6448,10 @@
         <v>74712</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6430,10 +6463,10 @@
         <v>74715</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,10 +6478,10 @@
         <v>74732</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6460,10 +6493,10 @@
         <v>74796</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,10 +6508,10 @@
         <v>74798</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6490,10 +6523,10 @@
         <v>74691</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,10 +6538,10 @@
         <v>74700</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6520,10 +6553,10 @@
         <v>74701</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,10 +6568,10 @@
         <v>74705</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6550,10 +6583,10 @@
         <v>61392</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,10 +6598,10 @@
         <v>61392</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,10 +6613,10 @@
         <v>61392</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,10 +6628,10 @@
         <v>74676</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6610,10 +6643,10 @@
         <v>74678</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6625,10 +6658,10 @@
         <v>67988</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,10 +6673,10 @@
         <v>68918</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,10 +6688,10 @@
         <v>69416</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6670,10 +6703,10 @@
         <v>69653</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,10 +6718,10 @@
         <v>69653</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6700,10 +6733,10 @@
         <v>70725</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,10 +6748,10 @@
         <v>71682</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,10 +6763,10 @@
         <v>72293</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,10 +6778,10 @@
         <v>76565</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,10 +6793,10 @@
         <v>79384</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,10 +6808,10 @@
         <v>80991</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6790,10 +6823,10 @@
         <v>83091</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,10 +6838,10 @@
         <v>83185</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6820,10 +6853,10 @@
         <v>83935</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,10 +6868,10 @@
         <v>84413</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6850,10 +6883,10 @@
         <v>84413</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6865,10 +6898,10 @@
         <v>85219</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6880,10 +6913,10 @@
         <v>86067</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6895,10 +6928,10 @@
         <v>86461</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6910,10 +6943,10 @@
         <v>87206</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6925,10 +6958,10 @@
         <v>87206</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6940,10 +6973,10 @@
         <v>87663</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,10 +6988,10 @@
         <v>87907</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6970,10 +7003,10 @@
         <v>100576</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,10 +7018,10 @@
         <v>101202</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7000,10 +7033,10 @@
         <v>101488</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,13 +7048,13 @@
         <v>102540</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7033,10 +7066,10 @@
         <v>104412</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7048,10 +7081,10 @@
         <v>114969</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7063,10 +7096,10 @@
         <v>115591</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7078,10 +7111,10 @@
         <v>115591</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,10 +7126,10 @@
         <v>117896</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7108,10 +7141,10 @@
         <v>118279</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,10 +7156,10 @@
         <v>120395</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7138,10 +7171,10 @@
         <v>122266</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7153,10 +7186,10 @@
         <v>122266</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,10 +7201,10 @@
         <v>130036</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,10 +7216,10 @@
         <v>130036</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7198,10 +7231,10 @@
         <v>130036</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7213,10 +7246,10 @@
         <v>130036</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7228,10 +7261,10 @@
         <v>139497</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7243,10 +7276,10 @@
         <v>185885</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,10 +7291,10 @@
         <v>162711</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7273,10 +7306,10 @@
         <v>162711</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7288,10 +7321,10 @@
         <v>162711</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,10 +7336,10 @@
         <v>162711</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7318,10 +7351,10 @@
         <v>162711</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,10 +7366,10 @@
         <v>162711</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7348,10 +7381,10 @@
         <v>162711</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7363,10 +7396,10 @@
         <v>162711</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7378,10 +7411,10 @@
         <v>162711</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,10 +7426,10 @@
         <v>162711</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,10 +7441,10 @@
         <v>183304</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,10 +7456,10 @@
         <v>248106</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,10 +7471,10 @@
         <v>261900</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -810,7 +810,7 @@
     <t xml:space="preserve">Iran</t>
   </si>
   <si>
-    <t xml:space="preserve">UNESO's 20 years</t>
+    <t xml:space="preserve">UNESCO's 20 years</t>
   </si>
   <si>
     <t xml:space="preserve">Maheu, René </t>
@@ -2212,7 +2212,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2307,7 +2307,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
@@ -2761,7 +2761,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
@@ -2937,13 +2937,13 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E93" activeCellId="0" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="43.47"/>
@@ -4395,6 +4395,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12"/>
       <c r="B64" s="1" t="n">
         <v>33144</v>
       </c>
@@ -4418,6 +4419,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="12"/>
       <c r="B65" s="1" t="n">
         <v>59683</v>
       </c>
@@ -4438,6 +4440,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12"/>
       <c r="B66" s="1" t="n">
         <v>58803</v>
       </c>
@@ -4461,6 +4464,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12"/>
       <c r="B67" s="1" t="n">
         <v>58953</v>
       </c>
@@ -4481,6 +4485,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="12"/>
       <c r="B68" s="1" t="n">
         <v>59301</v>
       </c>
@@ -4504,6 +4509,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="12"/>
       <c r="B69" s="1" t="n">
         <v>78431</v>
       </c>
@@ -5538,7 +5544,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5561,7 +5567,7 @@
       <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="616">
   <si>
     <t xml:space="preserve">Amount</t>
   </si>
@@ -852,34 +852,22 @@
     <t xml:space="preserve">Usually considered as an article</t>
   </si>
   <si>
-    <t xml:space="preserve">[9, 10, 11, 12, 14, 15, 18, 20, 21, 24, 25, 26, 27, 28, 29, 30, 31, 32, 36, 38, 41, 43, 44, 46, 47, 48, 49, 52, 53, 54, 56, 57, 58, 59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seaons of the mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McEwing, Wayne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This article is made of 9 parts, but it's the same authors all the time. One big article or multiple smaller?</t>
-  </si>
-  <si>
     <t xml:space="preserve">[27]</t>
   </si>
   <si>
-    <t xml:space="preserve">Unesco's role in alterting public opinion</t>
+    <t xml:space="preserve">Unesco's role in alerting  world opinion</t>
   </si>
   <si>
     <t xml:space="preserve">[32, 33, 34, 39, 40, 41, 42, 43, 44, 45]</t>
   </si>
   <si>
-    <t xml:space="preserve">Highlights of the archaological expeditions</t>
+    <t xml:space="preserve">Highlights of the archaeological expeditions</t>
   </si>
   <si>
     <t xml:space="preserve">Man belongs to the earth</t>
   </si>
   <si>
-    <t xml:space="preserve">[14, 15, 16, 17, 18]</t>
+    <t xml:space="preserve">[14, 15, 16, 17]</t>
   </si>
   <si>
     <t xml:space="preserve">Nine award-winning campaigns</t>
@@ -1053,7 +1041,7 @@
     <t xml:space="preserve">G.B.T.</t>
   </si>
   <si>
-    <t xml:space="preserve">[38-, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59]</t>
+    <t xml:space="preserve">[39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59]</t>
   </si>
   <si>
     <t xml:space="preserve">Decrypting the future</t>
@@ -1095,6 +1083,12 @@
     <t xml:space="preserve">O'Malley, Brendan</t>
   </si>
   <si>
+    <t xml:space="preserve">[33, 34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A new kind of virus</t>
+  </si>
+  <si>
     <t xml:space="preserve">[28, 29, 30, 31, 32]</t>
   </si>
   <si>
@@ -1116,7 +1110,7 @@
     <t xml:space="preserve">Macedonia</t>
   </si>
   <si>
-    <t xml:space="preserve">[27, 28, 29, 30, 31]</t>
+    <t xml:space="preserve">[27, 28, 30, 31]</t>
   </si>
   <si>
     <t xml:space="preserve">Projecting the planet into the future</t>
@@ -1212,7 +1206,7 @@
     <t xml:space="preserve">[34, 35]</t>
   </si>
   <si>
-    <t xml:space="preserve">Women's writing: Illumnating the darkness</t>
+    <t xml:space="preserve">Women's writing: Illuminating the darkness</t>
   </si>
   <si>
     <t xml:space="preserve">Yongming, Zhai</t>
@@ -2212,7 +2206,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2307,7 +2301,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
@@ -2761,7 +2755,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
@@ -2937,11 +2931,11 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E93" activeCellId="0" sqref="E93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.92"/>
@@ -4533,14 +4527,15 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12"/>
       <c r="B70" s="1" t="n">
-        <v>53853</v>
+        <v>74816</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>380068</v>
+        <v>380069</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>274</v>
@@ -4548,105 +4543,107 @@
       <c r="F70" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="I70" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12"/>
+      <c r="B71" s="1" t="n">
+        <v>74755</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>380070</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="n">
-        <v>74816</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>380069</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12"/>
       <c r="B72" s="1" t="n">
-        <v>74755</v>
+        <v>74756</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>1980</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>380070</v>
+        <v>380071</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12"/>
       <c r="B73" s="1" t="n">
-        <v>74756</v>
+        <v>74758</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>1980</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>380071</v>
+        <v>380072</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="12"/>
       <c r="B74" s="1" t="n">
-        <v>74758</v>
+        <v>68421</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>380072</v>
+        <v>380073</v>
       </c>
       <c r="E74" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12"/>
       <c r="B75" s="1" t="n">
-        <v>68421</v>
+        <v>89116</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>1986</v>
+        <v>1991</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>380073</v>
+        <v>380074</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>285</v>
@@ -4658,56 +4655,59 @@
         <v>287</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="12"/>
+      <c r="B76" s="1" t="n">
+        <v>92021</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>380075</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="1" t="n">
-        <v>89116</v>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>1991</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>380074</v>
-      </c>
-      <c r="E76" s="11" t="s">
+      <c r="F76" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="I76" s="1" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="12"/>
       <c r="B77" s="1" t="n">
-        <v>92021</v>
+        <v>93019</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>1992</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>380075</v>
+        <v>380076</v>
       </c>
       <c r="E77" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12"/>
       <c r="B78" s="1" t="n">
         <v>93019</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>1992</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>380076</v>
+        <v>380077</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>295</v>
@@ -4724,36 +4724,35 @@
         <v>296</v>
       </c>
       <c r="G78" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="12"/>
+      <c r="B79" s="1" t="n">
+        <v>93364</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>1993</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>380078</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="n">
-        <v>93019</v>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>1992</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>380077</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="I79" s="1" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="12"/>
       <c r="B80" s="1" t="n">
         <v>93364</v>
       </c>
@@ -4761,19 +4760,23 @@
         <v>1993</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>380078</v>
+        <v>380079</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="12"/>
       <c r="B81" s="1" t="n">
         <v>93364</v>
       </c>
@@ -4781,73 +4784,76 @@
         <v>1993</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>380079</v>
+        <v>380080</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>298</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="12"/>
       <c r="B82" s="1" t="n">
-        <v>93364</v>
+        <v>93670</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>1993</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>380080</v>
+        <v>380081</v>
       </c>
       <c r="E82" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="12"/>
       <c r="B83" s="1" t="n">
-        <v>93670</v>
+        <v>93750</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>1993</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>380081</v>
+        <v>380082</v>
       </c>
       <c r="E83" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="12"/>
       <c r="B84" s="1" t="n">
-        <v>93750</v>
+        <v>96815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>380082</v>
+        <v>380083</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>310</v>
@@ -4856,151 +4862,160 @@
         <v>311</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12"/>
       <c r="B85" s="1" t="n">
-        <v>96815</v>
+        <v>96900</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>1994</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>380083</v>
+        <v>380084</v>
       </c>
       <c r="E85" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="12"/>
       <c r="B86" s="1" t="n">
-        <v>96900</v>
+        <v>96934</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>1994</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>380084</v>
+        <v>380085</v>
       </c>
       <c r="E86" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="12"/>
       <c r="B87" s="1" t="n">
-        <v>96934</v>
+        <v>97246</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>1994</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>380085</v>
+        <v>380086</v>
       </c>
       <c r="E87" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="12"/>
       <c r="B88" s="1" t="n">
-        <v>97246</v>
+        <v>98006</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>1994</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>380086</v>
+        <v>380087</v>
       </c>
       <c r="E88" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="12"/>
       <c r="B89" s="1" t="n">
-        <v>98006</v>
+        <v>99251</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>1994</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>380087</v>
+        <v>380088</v>
       </c>
       <c r="E89" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="J89" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12"/>
+      <c r="B90" s="1" t="n">
+        <v>102622</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>1996</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>380089</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1" t="n">
-        <v>99251</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>1994</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>380088</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>314</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>328</v>
@@ -5011,19 +5026,17 @@
       <c r="I90" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="12"/>
       <c r="B91" s="1" t="n">
-        <v>102622</v>
+        <v>112488</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>380089</v>
+        <v>380090</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>331</v>
@@ -5035,10 +5048,11 @@
         <v>333</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>334</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="12"/>
       <c r="B92" s="1" t="n">
         <v>112488</v>
       </c>
@@ -5046,68 +5060,74 @@
         <v>1998</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>380090</v>
+        <v>380091</v>
       </c>
       <c r="E92" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="12"/>
       <c r="B93" s="1" t="n">
-        <v>112488</v>
+        <v>125736</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>380091</v>
+        <v>380092</v>
       </c>
       <c r="E93" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="I93" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="12"/>
       <c r="B94" s="1" t="n">
-        <v>125736</v>
+        <v>127885</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>2002</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>380092</v>
+        <v>380093</v>
       </c>
       <c r="E94" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="I94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="12"/>
       <c r="B95" s="1" t="n">
         <v>127885</v>
       </c>
@@ -5115,7 +5135,7 @@
         <v>2002</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>380093</v>
+        <v>380094</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>344</v>
@@ -5123,17 +5143,12 @@
       <c r="F95" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="I95" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>347</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12"/>
       <c r="B96" s="1" t="n">
         <v>127885</v>
       </c>
@@ -5141,62 +5156,63 @@
         <v>2002</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>380094</v>
+        <v>380095</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12"/>
       <c r="B97" s="1" t="n">
-        <v>127885</v>
+        <v>130036</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>380095</v>
+        <v>380096</v>
       </c>
       <c r="E97" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="I97" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="12"/>
+      <c r="B98" s="1" t="n">
+        <v>137745</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>380111</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1" t="n">
-        <v>130036</v>
-      </c>
-      <c r="C98" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>380096</v>
-      </c>
-      <c r="E98" s="11" t="s">
+      <c r="F98" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="12"/>
       <c r="B99" s="1" t="n">
         <v>137745</v>
       </c>
@@ -5207,19 +5223,20 @@
         <v>380097</v>
       </c>
       <c r="E99" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="12"/>
       <c r="B100" s="1" t="n">
         <v>138446</v>
       </c>
@@ -5230,19 +5247,20 @@
         <v>380098</v>
       </c>
       <c r="E100" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="12"/>
       <c r="B101" s="1" t="n">
         <v>139497</v>
       </c>
@@ -5253,19 +5271,20 @@
         <v>380099</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="12"/>
       <c r="B102" s="1" t="n">
         <v>191579</v>
       </c>
@@ -5276,22 +5295,23 @@
         <v>380100</v>
       </c>
       <c r="E102" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="12"/>
       <c r="B103" s="1" t="n">
         <v>191580</v>
       </c>
@@ -5302,22 +5322,23 @@
         <v>380101</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="12"/>
       <c r="B104" s="1" t="n">
         <v>162430</v>
       </c>
@@ -5328,16 +5349,17 @@
         <v>380102</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="12"/>
       <c r="B105" s="1" t="n">
         <v>163541</v>
       </c>
@@ -5348,19 +5370,20 @@
         <v>380103</v>
       </c>
       <c r="E105" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="12"/>
       <c r="B106" s="1" t="n">
         <v>163541</v>
       </c>
@@ -5371,16 +5394,17 @@
         <v>380104</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="12"/>
       <c r="B107" s="1" t="n">
         <v>189457</v>
       </c>
@@ -5391,19 +5415,20 @@
         <v>380105</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="12"/>
       <c r="B108" s="1" t="n">
         <v>189457</v>
       </c>
@@ -5414,19 +5439,20 @@
         <v>380106</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="12"/>
       <c r="B109" s="1" t="n">
         <v>191443</v>
       </c>
@@ -5437,22 +5463,23 @@
         <v>380107</v>
       </c>
       <c r="E109" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="J109" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="12"/>
       <c r="B110" s="1" t="n">
         <v>370977</v>
       </c>
@@ -5463,19 +5490,20 @@
         <v>380108</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="12"/>
       <c r="B111" s="1" t="n">
         <v>372603</v>
       </c>
@@ -5486,19 +5514,20 @@
         <v>380109</v>
       </c>
       <c r="E111" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="I111" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="12"/>
       <c r="B112" s="1" t="n">
         <v>373788</v>
       </c>
@@ -5509,16 +5538,16 @@
         <v>380110</v>
       </c>
       <c r="E112" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5544,7 +5573,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5567,7 +5596,7 @@
       <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
@@ -5584,10 +5613,10 @@
         <v>90</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,10 +5628,10 @@
         <v>73741</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,10 +5643,10 @@
         <v>73829</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,10 +5658,10 @@
         <v>73829</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,10 +5673,10 @@
         <v>73829</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,10 +5688,10 @@
         <v>73829</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5674,10 +5703,10 @@
         <v>73886</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5689,10 +5718,10 @@
         <v>73886</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,10 +5733,10 @@
         <v>73886</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,10 +5748,10 @@
         <v>73886</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,10 +5763,10 @@
         <v>73886</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,10 +5778,10 @@
         <v>73970</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,10 +5793,10 @@
         <v>73970</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5779,10 +5808,10 @@
         <v>74013</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5794,10 +5823,10 @@
         <v>74130</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5809,10 +5838,10 @@
         <v>74130</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,10 +5853,10 @@
         <v>74130</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,10 +5868,10 @@
         <v>81370</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,10 +5883,10 @@
         <v>74589</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,10 +5898,10 @@
         <v>68948</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5884,10 +5913,10 @@
         <v>69080</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,10 +5928,10 @@
         <v>66148</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,10 +5943,10 @@
         <v>66148</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,10 +5958,10 @@
         <v>78166</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,10 +5973,10 @@
         <v>63436</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,10 +5988,10 @@
         <v>63437</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,10 +6003,10 @@
         <v>78356</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5989,10 +6018,10 @@
         <v>62315</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,10 +6033,10 @@
         <v>78451</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,10 +6048,10 @@
         <v>78451</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>442</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6034,10 +6063,10 @@
         <v>78237</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,10 +6078,10 @@
         <v>78240</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6064,10 +6093,10 @@
         <v>78240</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6079,10 +6108,10 @@
         <v>78306</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6094,10 +6123,10 @@
         <v>57247</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6109,10 +6138,10 @@
         <v>78246</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6124,10 +6153,10 @@
         <v>78246</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,10 +6168,10 @@
         <v>56857</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6154,10 +6183,10 @@
         <v>78253</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,10 +6198,10 @@
         <v>53888</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,10 +6213,10 @@
         <v>78279</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6199,10 +6228,10 @@
         <v>78382</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,10 +6243,10 @@
         <v>78384</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,10 +6258,10 @@
         <v>74891</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,10 +6273,10 @@
         <v>74836</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6259,10 +6288,10 @@
         <v>74845</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6274,10 +6303,10 @@
         <v>74818</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6289,10 +6318,10 @@
         <v>74825</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,10 +6333,10 @@
         <v>74825</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6319,10 +6348,10 @@
         <v>74829</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,10 +6363,10 @@
         <v>74795</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,10 +6378,10 @@
         <v>74807</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6364,10 +6393,10 @@
         <v>74771</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,10 +6408,10 @@
         <v>40945</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6394,10 +6423,10 @@
         <v>42993</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6409,10 +6438,10 @@
         <v>74642</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,10 +6453,10 @@
         <v>74758</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6439,10 +6468,10 @@
         <v>74766</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6454,10 +6483,10 @@
         <v>74712</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6469,10 +6498,10 @@
         <v>74715</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6484,10 +6513,10 @@
         <v>74732</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,10 +6528,10 @@
         <v>74796</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,10 +6543,10 @@
         <v>74798</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6529,10 +6558,10 @@
         <v>74691</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,10 +6573,10 @@
         <v>74700</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,10 +6588,10 @@
         <v>74701</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6574,10 +6603,10 @@
         <v>74705</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6589,10 +6618,10 @@
         <v>61392</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6604,10 +6633,10 @@
         <v>61392</v>
       </c>
       <c r="D69" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6619,10 +6648,10 @@
         <v>61392</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6634,10 +6663,10 @@
         <v>74676</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6649,10 +6678,10 @@
         <v>74678</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,10 +6693,10 @@
         <v>67988</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,10 +6708,10 @@
         <v>68918</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6694,10 +6723,10 @@
         <v>69416</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,10 +6738,10 @@
         <v>69653</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,10 +6753,10 @@
         <v>69653</v>
       </c>
       <c r="D77" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>530</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,10 +6768,10 @@
         <v>70725</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6754,10 +6783,10 @@
         <v>71682</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6769,10 +6798,10 @@
         <v>72293</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6784,10 +6813,10 @@
         <v>76565</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,10 +6828,10 @@
         <v>79384</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6814,10 +6843,10 @@
         <v>80991</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6829,10 +6858,10 @@
         <v>83091</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6844,10 +6873,10 @@
         <v>83185</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,10 +6888,10 @@
         <v>83935</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,10 +6903,10 @@
         <v>84413</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6889,10 +6918,10 @@
         <v>84413</v>
       </c>
       <c r="D88" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E88" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6904,10 +6933,10 @@
         <v>85219</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6919,10 +6948,10 @@
         <v>86067</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6934,10 +6963,10 @@
         <v>86461</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6949,10 +6978,10 @@
         <v>87206</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6964,10 +6993,10 @@
         <v>87206</v>
       </c>
       <c r="D93" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>560</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,10 +7008,10 @@
         <v>87663</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6994,10 +7023,10 @@
         <v>87907</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7009,10 +7038,10 @@
         <v>100576</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7024,10 +7053,10 @@
         <v>101202</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,10 +7068,10 @@
         <v>101488</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,13 +7083,13 @@
         <v>102540</v>
       </c>
       <c r="D99" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="J99" s="0" t="s">
         <v>573</v>
-      </c>
-      <c r="E99" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7072,10 +7101,10 @@
         <v>104412</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,10 +7116,10 @@
         <v>114969</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7102,10 +7131,10 @@
         <v>115591</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7117,10 +7146,10 @@
         <v>115591</v>
       </c>
       <c r="D103" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="E103" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,10 +7161,10 @@
         <v>117896</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,10 +7176,10 @@
         <v>118279</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7162,10 +7191,10 @@
         <v>120395</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7177,10 +7206,10 @@
         <v>122266</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,10 +7221,10 @@
         <v>122266</v>
       </c>
       <c r="D108" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="E108" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,10 +7236,10 @@
         <v>130036</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7222,10 +7251,10 @@
         <v>130036</v>
       </c>
       <c r="D110" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,10 +7266,10 @@
         <v>130036</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7252,10 +7281,10 @@
         <v>130036</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7267,10 +7296,10 @@
         <v>139497</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7282,10 +7311,10 @@
         <v>185885</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7297,10 +7326,10 @@
         <v>162711</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7312,10 +7341,10 @@
         <v>162711</v>
       </c>
       <c r="D116" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>601</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,10 +7356,10 @@
         <v>162711</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,10 +7371,10 @@
         <v>162711</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,10 +7386,10 @@
         <v>162711</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7372,10 +7401,10 @@
         <v>162711</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,10 +7416,10 @@
         <v>162711</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7402,10 +7431,10 @@
         <v>162711</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7417,10 +7446,10 @@
         <v>162711</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,10 +7461,10 @@
         <v>162711</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7447,10 +7476,10 @@
         <v>183304</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7462,10 +7491,10 @@
         <v>248106</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,10 +7506,10 @@
         <v>261900</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/annotation.xlsx
+++ b/annotation.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="618">
   <si>
     <t xml:space="preserve">Amount</t>
   </si>
@@ -1213,6 +1213,12 @@
   </si>
   <si>
     <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1, 3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris newsletter</t>
   </si>
   <si>
     <t xml:space="preserve">courier_id</t>
@@ -2206,7 +2212,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2301,7 +2307,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.41"/>
@@ -2755,7 +2761,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.41"/>
   </cols>
@@ -2931,11 +2937,11 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E111" activeCellId="0" sqref="E111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.92"/>
@@ -5548,6 +5554,24 @@
       </c>
       <c r="I112" s="1" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="12"/>
+      <c r="B113" s="0" t="n">
+        <v>146744</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>380111</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5573,7 +5597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5596,7 +5620,7 @@
       <selection pane="topLeft" activeCell="D125" activeCellId="0" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
@@ -5613,10 +5637,10 @@
         <v>90</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,10 +5652,10 @@
         <v>73741</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,10 +5667,10 @@
         <v>73829</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5658,10 +5682,10 @@
         <v>73829</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5673,10 +5697,10 @@
         <v>73829</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,10 +5712,10 @@
         <v>73829</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5703,10 +5727,10 @@
         <v>73886</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,10 +5742,10 @@
         <v>73886</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,10 +5757,10 @@
         <v>73886</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,10 +5772,10 @@
         <v>73886</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,10 +5787,10 @@
         <v>73886</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,10 +5802,10 @@
         <v>73970</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,10 +5817,10 @@
         <v>73970</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,10 +5832,10 @@
         <v>74013</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,10 +5847,10 @@
         <v>74130</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,10 +5862,10 @@
         <v>74130</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,10 +5877,10 @@
         <v>74130</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5868,10 +5892,10 @@
         <v>81370</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5883,10 +5907,10 @@
         <v>74589</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5898,10 +5922,10 @@
         <v>68948</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,10 +5937,10 @@
         <v>69080</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,10 +5952,10 @@
         <v>66148</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5943,10 +5967,10 @@
         <v>66148</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,10 +5982,10 @@
         <v>78166</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5973,10 +5997,10 @@
         <v>63436</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,10 +6012,10 @@
         <v>63437</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6003,10 +6027,10 @@
         <v>78356</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6018,10 +6042,10 @@
         <v>62315</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6033,10 +6057,10 @@
         <v>78451</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,10 +6072,10 @@
         <v>78451</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,10 +6087,10 @@
         <v>78237</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6078,10 +6102,10 @@
         <v>78240</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,10 +6117,10 @@
         <v>78240</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,10 +6132,10 @@
         <v>78306</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6123,10 +6147,10 @@
         <v>57247</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,10 +6162,10 @@
         <v>78246</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6153,10 +6177,10 @@
         <v>78246</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,10 +6192,10 @@
         <v>56857</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,10 +6207,10 @@
         <v>78253</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,10 +6222,10 @@
         <v>53888</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,10 +6237,10 @@
         <v>78279</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,10 +6252,10 @@
         <v>78382</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6243,10 +6267,10 @@
         <v>78384</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6258,10 +6282,10 @@
         <v>74891</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6273,10 +6297,10 @@
         <v>74836</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,10 +6312,10 @@
         <v>74845</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6303,10 +6327,10 @@
         <v>74818</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6318,10 +6342,10 @@
         <v>74825</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6333,10 +6357,10 @@
         <v>74825</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6348,10 +6372,10 @@
         <v>74829</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,10 +6387,10 @@
         <v>74795</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,10 +6402,10 @@
         <v>74807</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6393,10 +6417,10 @@
         <v>74771</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6408,10 +6432,10 @@
         <v>40945</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6423,10 +6447,10 @@
         <v>42993</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,10 +6462,10 @@
         <v>74642</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,10 +6477,10 @@
         <v>74758</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6468,10 +6492,10 @@
         <v>74766</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6483,10 +6507,10 @@
         <v>74712</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6498,10 +6522,10 @@
         <v>74715</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,10 +6537,10 @@
         <v>74732</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6528,10 +6552,10 @@
         <v>74796</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,10 +6567,10 @@
         <v>74798</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6558,10 +6582,10 @@
         <v>74691</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6573,10 +6597,10 @@
         <v>74700</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6588,10 +6612,10 @@
         <v>74701</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6603,10 +6627,10 @@
         <v>74705</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,10 +6642,10 @@
         <v>61392</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6633,10 +6657,10 @@
         <v>61392</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,10 +6672,10 @@
         <v>61392</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,10 +6687,10 @@
         <v>74676</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,10 +6702,10 @@
         <v>74678</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,10 +6717,10 @@
         <v>67988</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6708,10 +6732,10 @@
         <v>68918</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,10 +6747,10 @@
         <v>69416</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6738,10 +6762,10 @@
         <v>69653</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,10 +6777,10 @@
         <v>69653</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6768,10 +6792,10 @@
         <v>70725</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,10 +6807,10 @@
         <v>71682</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6798,10 +6822,10 @@
         <v>72293</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,10 +6837,10 @@
         <v>76565</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,10 +6852,10 @@
         <v>79384</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6843,10 +6867,10 @@
         <v>80991</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6858,10 +6882,10 @@
         <v>83091</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6873,10 +6897,10 @@
         <v>83185</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6888,10 +6912,10 @@
         <v>83935</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6903,10 +6927,10 @@
         <v>84413</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,10 +6942,10 @@
         <v>84413</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6933,10 +6957,10 @@
         <v>85219</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6948,10 +6972,10 @@
         <v>86067</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,10 +6987,10 @@
         <v>86461</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6978,10 +7002,10 @@
         <v>87206</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,10 +7017,10 @@
         <v>87206</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,10 +7032,10 @@
         <v>87663</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,10 +7047,10 @@
         <v>87907</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,10 +7062,10 @@
         <v>100576</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7053,10 +7077,10 @@
         <v>101202</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7068,10 +7092,10 @@
         <v>101488</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7083,13 +7107,13 @@
         <v>102540</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7101,10 +7125,10 @@
         <v>104412</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7116,10 +7140,10 @@
         <v>114969</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,10 +7155,10 @@
         <v>115591</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7146,10 +7170,10 @@
         <v>115591</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,10 +7185,10 @@
         <v>117896</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7176,10 +7200,10 @@
         <v>118279</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,10 +7215,10 @@
         <v>120395</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7206,10 +7230,10 @@
         <v>122266</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,10 +7245,10 @@
         <v>122266</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,10 +7260,10 @@
         <v>130036</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,10 +7275,10 @@
         <v>130036</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,10 +7290,10 @@
         <v>130036</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7281,10 +7305,10 @@
         <v>130036</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,10 +7320,10 @@
         <v>139497</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,10 +7335,10 @@
         <v>185885</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,10 +7350,10 @@
         <v>162711</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,10 +7365,10 @@
         <v>162711</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,10 +7380,10 @@
         <v>162711</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7371,10 +7395,10 @@
         <v>162711</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7386,10 +7410,10 @@
         <v>162711</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,10 +7425,10 @@
         <v>162711</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7416,10 +7440,10 @@
         <v>162711</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,10 +7455,10 @@
         <v>162711</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7446,10 +7470,10 @@
         <v>162711</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,10 +7485,10 @@
         <v>162711</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7476,10 +7500,10 @@
         <v>183304</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7491,10 +7515,10 @@
         <v>248106</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7506,10 +7530,10 @@
         <v>261900</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
